--- a/MDB.xlsx
+++ b/MDB.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/- PROJECTS/- Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9AFB83-5D58-024C-BAD5-E60977ED021B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B6CD6-6D2F-454D-BF31-A660843E068B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="460" windowWidth="19540" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21340" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
     <sheet name="Reports" sheetId="1" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>Revenue</t>
   </si>
@@ -226,18 +227,6 @@
     <t>Future net income (terminal value)</t>
   </si>
   <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
     <t>Tax anomaly &amp; fines</t>
   </si>
   <si>
@@ -298,9 +287,6 @@
     <t>Customers y/y</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Dev Ittycheria</t>
   </si>
   <si>
@@ -310,22 +296,31 @@
     <t>Dwight Merriman</t>
   </si>
   <si>
-    <t>31/7/2019</t>
-  </si>
-  <si>
-    <t>31/10/2019</t>
-  </si>
-  <si>
-    <t>31/1/2020</t>
-  </si>
-  <si>
-    <t>109-111</t>
-  </si>
-  <si>
-    <t>407-409</t>
-  </si>
-  <si>
     <t>OE y/y</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>MongoDB Enterprise Advanced</t>
+  </si>
+  <si>
+    <t>MongoDB Atlas</t>
+  </si>
+  <si>
+    <t>44% of total revenue Q221</t>
   </si>
 </sst>
 </file>
@@ -337,7 +332,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -395,6 +390,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -435,7 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,7 +464,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,14 +554,26 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -616,6 +630,7 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -641,14 +656,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -665,12 +680,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10655300" y="152400"/>
-          <a:ext cx="0" cy="9740900"/>
+          <a:off x="13925550" y="152400"/>
+          <a:ext cx="0" cy="9990667"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -690,33 +706,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="MAIN"/>
-      <sheetName val="NPV-Internet-Software"/>
-      <sheetName val="Largest-Defensive"/>
-      <sheetName val="REIT-Speciality-Commercial"/>
-      <sheetName val="Upcoming IPOs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="31">
-          <cell r="J31">
-            <v>128.93</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -984,11 +973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1002,7 +991,7 @@
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:120" x14ac:dyDescent="0.15">
@@ -1010,22 +999,18 @@
         <v>36</v>
       </c>
       <c r="C2" s="4">
-        <f>[1]MAIN!$J$31</f>
-        <v>128.93</v>
+        <v>350.24</v>
+      </c>
+      <c r="D2" s="72">
+        <v>44200</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="7">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
-        <f>C16</f>
-        <v>257.09800000000001</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:120" x14ac:dyDescent="0.15">
@@ -1036,11 +1021,11 @@
         <v>13</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!M23</f>
-        <v>56</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
+        <f>Reports!P23</f>
+        <v>59.368167</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -1051,25 +1036,20 @@
       <c r="G3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="16">
-        <f>C27</f>
-        <v>-111.34700000000005</v>
-      </c>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>7220.08</v>
-      </c>
+        <v>20793.10681008</v>
+      </c>
+      <c r="D4" s="73"/>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1080,42 +1060,30 @@
       <c r="G4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="27">
-        <f>C35</f>
-        <v>0.61160666712635336</v>
-      </c>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:120" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!M35</f>
-        <v>199</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>70</v>
+        <f>Reports!P35</f>
+        <v>19</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,E27:DP27)</f>
-        <v>17280.762584444597</v>
+        <v>31024.472860120226</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="27">
-        <f>C31</f>
-        <v>0.71385230534659927</v>
-      </c>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1126,49 +1094,45 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>7021.08</v>
-      </c>
+        <v>20774.10681008</v>
+      </c>
+      <c r="D6" s="73"/>
       <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>17479.762584444597</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="27">
-        <f>C32</f>
-        <v>-0.43187811651588132</v>
-      </c>
+        <v>31043.472860120226</v>
+      </c>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="58">
         <f>C6/C3</f>
-        <v>125.37642857142858</v>
-      </c>
+        <v>349.9199631694878</v>
+      </c>
+      <c r="D7" s="73"/>
       <c r="E7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="54">
         <f>F6/C3</f>
-        <v>312.1386175793678</v>
-      </c>
-      <c r="G7" s="27">
+        <v>522.89761380236359</v>
+      </c>
+      <c r="G7" s="26">
         <f>F7/C2-1</f>
-        <v>1.4209929231316822</v>
+        <v>0.49296943182493025</v>
       </c>
     </row>
     <row r="8" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="15"/>
@@ -1228,10 +1192,29 @@
       <c r="O9" s="3">
         <v>2031</v>
       </c>
+      <c r="P9" s="3">
+        <f t="shared" ref="P9" si="1">O9+1</f>
+        <v>2032</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" ref="Q9" si="2">P9+1</f>
+        <v>2033</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" ref="R9" si="3">Q9+1</f>
+        <v>2034</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" ref="S9" si="4">R9+1</f>
+        <v>2035</v>
+      </c>
+      <c r="T9" s="3">
+        <v>2031</v>
+      </c>
     </row>
     <row r="10" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16">
         <f>SUM(Reports!B3:E3)</f>
@@ -1246,24 +1229,24 @@
         <v>386.81560000000002</v>
       </c>
       <c r="E10" s="16">
-        <f>D10*1.6</f>
-        <v>618.90496000000007</v>
+        <f>D10*1.45</f>
+        <v>560.88261999999997</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" ref="F10:I10" si="1">E10*1.6</f>
-        <v>990.24793600000021</v>
+        <f t="shared" ref="F10:I10" si="5">E10*1.45</f>
+        <v>813.27979899999991</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="1"/>
-        <v>1584.3966976000004</v>
+        <f t="shared" si="5"/>
+        <v>1179.2557085499998</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" si="1"/>
-        <v>2535.0347161600007</v>
+        <f t="shared" si="5"/>
+        <v>1709.9207773974997</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="1"/>
-        <v>4056.0555458560011</v>
+        <f t="shared" si="5"/>
+        <v>2479.3851272263746</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -1379,7 +1362,7 @@
     </row>
     <row r="11" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16">
         <f>SUM(Reports!B4:E4)</f>
@@ -1394,24 +1377,24 @@
         <v>22.2164</v>
       </c>
       <c r="E11" s="16">
-        <f>D11*1.25</f>
-        <v>27.770499999999998</v>
+        <f>D11*1.15</f>
+        <v>25.548859999999998</v>
       </c>
       <c r="F11" s="16">
-        <f t="shared" ref="F11:I11" si="2">E11*1.25</f>
-        <v>34.713124999999998</v>
+        <f t="shared" ref="F11:I11" si="6">E11*1.15</f>
+        <v>29.381188999999996</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="2"/>
-        <v>43.391406249999996</v>
+        <f t="shared" si="6"/>
+        <v>33.788367349999994</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" si="2"/>
-        <v>54.239257812499993</v>
+        <f t="shared" si="6"/>
+        <v>38.856622452499991</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="2"/>
-        <v>67.799072265624986</v>
+        <f t="shared" si="6"/>
+        <v>44.685115820374989</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
@@ -1538,16 +1521,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:120" s="56" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:120" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="55" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="D15" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="16"/>
+      <c r="D15" s="46">
+        <v>407</v>
+      </c>
+      <c r="E15" s="16">
+        <v>574</v>
+      </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
     </row>
@@ -1556,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="B16" s="17">
-        <f t="shared" ref="B16:C16" si="3">SUM(B10:B11)</f>
+        <f t="shared" ref="B16:C16" si="7">SUM(B10:B11)</f>
         <v>159.529</v>
       </c>
       <c r="C16" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>257.09800000000001</v>
       </c>
       <c r="D16" s="17">
@@ -1569,53 +1554,68 @@
       </c>
       <c r="E16" s="18">
         <f>SUM(E10:E11)</f>
-        <v>646.67546000000004</v>
+        <v>586.43147999999997</v>
       </c>
       <c r="F16" s="18">
         <f>SUM(F10:F11)</f>
-        <v>1024.9610610000002</v>
+        <v>842.66098799999986</v>
       </c>
       <c r="G16" s="18">
-        <f t="shared" ref="G16:I16" si="4">SUM(G10:G11)</f>
-        <v>1627.7881038500004</v>
+        <f t="shared" ref="G16:I16" si="8">SUM(G10:G11)</f>
+        <v>1213.0440758999998</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="4"/>
-        <v>2589.2739739725007</v>
+        <f t="shared" si="8"/>
+        <v>1748.7773998499997</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="4"/>
-        <v>4123.8546181216261</v>
+        <f t="shared" si="8"/>
+        <v>2524.0702430467495</v>
       </c>
       <c r="J16" s="18">
-        <f t="shared" ref="J16:O16" si="5">I16*1.1</f>
-        <v>4536.2400799337893</v>
+        <f t="shared" ref="J16:O16" si="9">I16*1.1</f>
+        <v>2776.4772673514249</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="5"/>
-        <v>4989.8640879271688</v>
+        <f t="shared" si="9"/>
+        <v>3054.1249940865678</v>
       </c>
       <c r="L16" s="18">
-        <f t="shared" si="5"/>
-        <v>5488.850496719886</v>
+        <f t="shared" si="9"/>
+        <v>3359.5374934952247</v>
       </c>
       <c r="M16" s="18">
-        <f t="shared" si="5"/>
-        <v>6037.7355463918748</v>
+        <f t="shared" si="9"/>
+        <v>3695.4912428447474</v>
       </c>
       <c r="N16" s="18">
-        <f t="shared" si="5"/>
-        <v>6641.5091010310625</v>
+        <f t="shared" si="9"/>
+        <v>4065.0403671292224</v>
       </c>
       <c r="O16" s="18">
-        <f t="shared" si="5"/>
-        <v>7305.6600111341695</v>
-      </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
+        <f t="shared" si="9"/>
+        <v>4471.5444038421447</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" ref="P16" si="10">O16*1.1</f>
+        <v>4918.6988442263591</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" ref="Q16" si="11">P16*1.1</f>
+        <v>5410.5687286489956</v>
+      </c>
+      <c r="R16" s="18">
+        <f t="shared" ref="R16" si="12">Q16*1.1</f>
+        <v>5951.6256015138961</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" ref="S16" si="13">R16*1.1</f>
+        <v>6546.7881616652858</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" ref="T16" si="14">S16*1.1</f>
+        <v>7201.4669778318148</v>
+      </c>
     </row>
     <row r="17" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1635,53 +1635,68 @@
       </c>
       <c r="E17" s="8">
         <f>E16-E18</f>
-        <v>193.15269783078099</v>
+        <v>175.15868385495514</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17" si="6">F16-F18</f>
-        <v>306.14118881772583</v>
+        <f t="shared" ref="F17" si="15">F16-F18</f>
+        <v>251.69076802288328</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" ref="G17:O17" si="7">G16-G18</f>
-        <v>486.19699246895675</v>
+        <f t="shared" ref="G17:O17" si="16">G16-G18</f>
+        <v>362.31889153135887</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="7"/>
-        <v>773.37905090107483</v>
+        <f t="shared" si="16"/>
+        <v>522.33476230337533</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="7"/>
-        <v>1231.7363101301498</v>
+        <f t="shared" si="16"/>
+        <v>753.90363036023473</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="7"/>
-        <v>1354.9099411431648</v>
+        <f t="shared" si="16"/>
+        <v>829.29399339625843</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="7"/>
-        <v>1490.4009352574817</v>
+        <f t="shared" si="16"/>
+        <v>912.22339273588432</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="7"/>
-        <v>1639.4410287832297</v>
+        <f t="shared" si="16"/>
+        <v>1003.445732009473</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="7"/>
-        <v>1803.3851316615528</v>
+        <f t="shared" si="16"/>
+        <v>1103.7903052104207</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="7"/>
-        <v>1983.7236448277081</v>
+        <f t="shared" si="16"/>
+        <v>1214.1693357314625</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="7"/>
-        <v>2182.0960093104795</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
+        <f t="shared" si="16"/>
+        <v>1335.5862693046088</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" ref="P17:T17" si="17">P16-P18</f>
+        <v>1469.1448962350696</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="17"/>
+        <v>1616.0593858585771</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="17"/>
+        <v>1777.6653244444351</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="17"/>
+        <v>1955.4318568888784</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="17"/>
+        <v>2150.9750425777665</v>
+      </c>
     </row>
     <row r="18" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1701,53 +1716,68 @@
       </c>
       <c r="E18" s="8">
         <f>E16*D31</f>
-        <v>453.52276216921905</v>
+        <v>411.27279614504482</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:O18" si="8">F16*E31</f>
-        <v>718.81987218227437</v>
+        <f t="shared" ref="F18:O18" si="18">F16*E31</f>
+        <v>590.97021997711659</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="8"/>
-        <v>1141.5911113810437</v>
+        <f t="shared" si="18"/>
+        <v>850.72518436864095</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="8"/>
-        <v>1815.8949230714259</v>
+        <f t="shared" si="18"/>
+        <v>1226.4426375466244</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="8"/>
-        <v>2892.1183079914763</v>
+        <f t="shared" si="18"/>
+        <v>1770.1666126865148</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="8"/>
-        <v>3181.3301387906245</v>
+        <f t="shared" si="18"/>
+        <v>1947.1832739551664</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="8"/>
-        <v>3499.4631526696871</v>
+        <f t="shared" si="18"/>
+        <v>2141.9016013506834</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="8"/>
-        <v>3849.4094679366563</v>
+        <f t="shared" si="18"/>
+        <v>2356.0917614857517</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="8"/>
-        <v>4234.350414730322</v>
+        <f t="shared" si="18"/>
+        <v>2591.7009376343267</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="8"/>
-        <v>4657.7854562033544</v>
+        <f t="shared" si="18"/>
+        <v>2850.8710313977599</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="8"/>
-        <v>5123.56400182369</v>
-      </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
+        <f t="shared" si="18"/>
+        <v>3135.9581345375359</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" ref="P18" si="19">P16*O31</f>
+        <v>3449.5539479912895</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" ref="Q18" si="20">Q16*P31</f>
+        <v>3794.5093427904185</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" ref="R18" si="21">R16*Q31</f>
+        <v>4173.960277069461</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" ref="S18" si="22">S16*R31</f>
+        <v>4591.3563047764073</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" ref="T18" si="23">T16*S31</f>
+        <v>5050.4919352540483</v>
+      </c>
     </row>
     <row r="19" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
@@ -1766,54 +1796,69 @@
         <v>149.428</v>
       </c>
       <c r="E19" s="8">
-        <f>D19*1.55</f>
-        <v>231.61340000000001</v>
+        <f>D19*1.3</f>
+        <v>194.25640000000001</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:I19" si="9">E19*1.55</f>
-        <v>359.00077000000005</v>
+        <f t="shared" ref="F19:I19" si="24">E19*1.3</f>
+        <v>252.53332000000003</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="9"/>
-        <v>556.45119350000004</v>
+        <f t="shared" si="24"/>
+        <v>328.29331600000006</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="9"/>
-        <v>862.49934992500005</v>
+        <f t="shared" si="24"/>
+        <v>426.78131080000009</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="9"/>
-        <v>1336.8739923837502</v>
+        <f t="shared" si="24"/>
+        <v>554.81570404000013</v>
       </c>
       <c r="J19" s="8">
-        <f>I19*1.02</f>
-        <v>1363.6114722314253</v>
+        <f>I19*1.05</f>
+        <v>582.55648924200011</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ref="K19:O19" si="10">J19*1.02</f>
-        <v>1390.8837016760538</v>
+        <f t="shared" ref="K19:T19" si="25">J19*1.05</f>
+        <v>611.68431370410019</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="10"/>
-        <v>1418.7013757095749</v>
+        <f t="shared" si="25"/>
+        <v>642.26852938930517</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="10"/>
-        <v>1447.0754032237664</v>
+        <f t="shared" si="25"/>
+        <v>674.38195585877043</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="10"/>
-        <v>1476.0169112882418</v>
+        <f t="shared" si="25"/>
+        <v>708.10105365170898</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="10"/>
-        <v>1505.5372495140066</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+        <f t="shared" si="25"/>
+        <v>743.50610633429449</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="25"/>
+        <v>780.68141165100928</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="25"/>
+        <v>819.71548223355978</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="25"/>
+        <v>860.70125634523777</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="25"/>
+        <v>903.73631916249974</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="25"/>
+        <v>948.92313512062481</v>
+      </c>
     </row>
     <row r="20" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
@@ -1832,54 +1877,69 @@
         <v>220.84300000000002</v>
       </c>
       <c r="E20" s="8">
-        <f>D20*1.4</f>
-        <v>309.18020000000001</v>
+        <f>D20*1.25</f>
+        <v>276.05375000000004</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:I20" si="11">E20*1.4</f>
-        <v>432.85228000000001</v>
+        <f t="shared" ref="F20:I20" si="26">E20*1.25</f>
+        <v>345.06718750000005</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="11"/>
-        <v>605.99319200000002</v>
+        <f t="shared" si="26"/>
+        <v>431.33398437500006</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="11"/>
-        <v>848.39046880000001</v>
+        <f t="shared" si="26"/>
+        <v>539.16748046875011</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="11"/>
-        <v>1187.7466563199998</v>
+        <f t="shared" si="26"/>
+        <v>673.95935058593761</v>
       </c>
       <c r="J20" s="8">
         <f>I20*1.05</f>
-        <v>1247.1339891359999</v>
+        <v>707.65731811523449</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:O20" si="12">J20*1.05</f>
-        <v>1309.4906885927999</v>
+        <f t="shared" ref="K20:O20" si="27">J20*1.05</f>
+        <v>743.04018402099621</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="12"/>
-        <v>1374.9652230224399</v>
+        <f t="shared" si="27"/>
+        <v>780.19219322204606</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="12"/>
-        <v>1443.7134841735619</v>
+        <f t="shared" si="27"/>
+        <v>819.20180288314839</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="12"/>
-        <v>1515.8991583822401</v>
+        <f t="shared" si="27"/>
+        <v>860.16189302730584</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="12"/>
-        <v>1591.6941163013521</v>
-      </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+        <f t="shared" si="27"/>
+        <v>903.16998767867119</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" ref="P20" si="28">O20*1.05</f>
+        <v>948.32848706260484</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" ref="Q20" si="29">P20*1.05</f>
+        <v>995.74491141573515</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" ref="R20" si="30">Q20*1.05</f>
+        <v>1045.5321569865218</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" ref="S20" si="31">R20*1.05</f>
+        <v>1097.808764835848</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" ref="T20" si="32">S20*1.05</f>
+        <v>1152.6992030776405</v>
+      </c>
     </row>
     <row r="21" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
@@ -1902,50 +1962,65 @@
         <v>83.693639999999988</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:I21" si="13">E21*1.2</f>
+        <f t="shared" ref="F21:I21" si="33">E21*1.2</f>
         <v>100.43236799999998</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>120.51884159999997</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>144.62260991999997</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="33"/>
         <v>173.54713190399997</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" ref="J21:O21" si="14">I21*0.98</f>
+        <f t="shared" ref="J21:O21" si="34">I21*0.98</f>
         <v>170.07618926591996</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>166.67466548060156</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>163.34117217098952</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>160.07434872756974</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>156.87286175301836</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="34"/>
         <v>153.73540451795799</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
+      <c r="P21" s="8">
+        <f t="shared" ref="P21" si="35">O21*0.98</f>
+        <v>150.66069642759882</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" ref="Q21" si="36">P21*0.98</f>
+        <v>147.64748249904684</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" ref="R21" si="37">Q21*0.98</f>
+        <v>144.69453284906589</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" ref="S21" si="38">R21*0.98</f>
+        <v>141.80064219208458</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" ref="T21" si="39">S21*0.98</f>
+        <v>138.96462934824288</v>
+      </c>
     </row>
     <row r="22" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
@@ -1964,54 +2039,69 @@
         <v>440.01570000000004</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22:F22" si="15">SUM(E19:E21)</f>
-        <v>624.48723999999993</v>
+        <f t="shared" ref="E22:F22" si="40">SUM(E19:E21)</f>
+        <v>554.00378999999998</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="15"/>
-        <v>892.28541800000005</v>
+        <f t="shared" si="40"/>
+        <v>698.03287550000005</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" ref="G22:O22" si="16">SUM(G19:G21)</f>
-        <v>1282.9632271</v>
+        <f t="shared" ref="G22:O22" si="41">SUM(G19:G21)</f>
+        <v>880.14614197500009</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="16"/>
-        <v>1855.5124286450002</v>
+        <f t="shared" si="41"/>
+        <v>1110.5714011887503</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="16"/>
-        <v>2698.1677806077496</v>
+        <f t="shared" si="41"/>
+        <v>1402.3221865299377</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="16"/>
-        <v>2780.8216506333451</v>
+        <f t="shared" si="41"/>
+        <v>1460.2899966231546</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="16"/>
-        <v>2867.0490557494554</v>
+        <f t="shared" si="41"/>
+        <v>1521.399163205698</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="16"/>
-        <v>2957.0077709030043</v>
+        <f t="shared" si="41"/>
+        <v>1585.8018947823407</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="16"/>
-        <v>3050.8632361248983</v>
+        <f t="shared" si="41"/>
+        <v>1653.6581074694884</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="16"/>
-        <v>3148.7889314235003</v>
+        <f t="shared" si="41"/>
+        <v>1725.1358084320332</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="16"/>
-        <v>3250.9667703333171</v>
-      </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
+        <f t="shared" si="41"/>
+        <v>1800.4114985309236</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" ref="P22:T22" si="42">SUM(P19:P21)</f>
+        <v>1879.670595141213</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="42"/>
+        <v>1963.1078761483418</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="42"/>
+        <v>2050.9279461808255</v>
+      </c>
+      <c r="S22" s="8">
+        <f t="shared" si="42"/>
+        <v>2143.3457261904323</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" si="42"/>
+        <v>2240.5869675465083</v>
+      </c>
     </row>
     <row r="23" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
@@ -2030,54 +2120,69 @@
         <v>-153.15570000000002</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:F23" si="17">E18-E22</f>
-        <v>-170.96447783078088</v>
+        <f t="shared" ref="E23:F23" si="43">E18-E22</f>
+        <v>-142.73099385495516</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="17"/>
-        <v>-173.46554581772568</v>
+        <f t="shared" si="43"/>
+        <v>-107.06265552288346</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" ref="G23:O23" si="18">G18-G22</f>
-        <v>-141.37211571895637</v>
+        <f t="shared" ref="G23:O23" si="44">G18-G22</f>
+        <v>-29.420957606359138</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="18"/>
-        <v>-39.617505573574363</v>
+        <f t="shared" si="44"/>
+        <v>115.87123635787407</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="18"/>
-        <v>193.95052738372669</v>
+        <f t="shared" si="44"/>
+        <v>367.84442615657713</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="18"/>
-        <v>400.50848815727932</v>
+        <f t="shared" si="44"/>
+        <v>486.89327733201185</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="18"/>
-        <v>632.41409692023171</v>
+        <f t="shared" si="44"/>
+        <v>620.50243814498549</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="18"/>
-        <v>892.401697033652</v>
+        <f t="shared" si="44"/>
+        <v>770.28986670341101</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="18"/>
-        <v>1183.4871786054237</v>
+        <f t="shared" si="44"/>
+        <v>938.04283016483828</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="18"/>
-        <v>1508.9965247798541</v>
+        <f t="shared" si="44"/>
+        <v>1125.7352229657267</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="18"/>
-        <v>1872.5972314903729</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
+        <f t="shared" si="44"/>
+        <v>1335.5466360066123</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:T23" si="45">P18-P22</f>
+        <v>1569.8833528500766</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="45"/>
+        <v>1831.4014666420767</v>
+      </c>
+      <c r="R23" s="8">
+        <f t="shared" si="45"/>
+        <v>2123.0323308886354</v>
+      </c>
+      <c r="S23" s="8">
+        <f t="shared" si="45"/>
+        <v>2448.0105785859751</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="45"/>
+        <v>2809.90496770754</v>
+      </c>
     </row>
     <row r="24" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
@@ -2096,54 +2201,69 @@
         <v>-11.801</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:O24" si="19">D41*$F$3</f>
-        <v>9.9500000000000011</v>
+        <f t="shared" ref="E24:O24" si="46">D41*$F$3</f>
+        <v>3.75</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="19"/>
-        <v>1.8992761084609555</v>
+        <f t="shared" si="46"/>
+        <v>-3.1990496927477583</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="19"/>
-        <v>-6.6790373770022811</v>
+        <f t="shared" si="46"/>
+        <v>-8.7121349535293202</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="19"/>
-        <v>-12.971211383580524</v>
+        <f t="shared" si="46"/>
+        <v>-10.618789581523743</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="19"/>
-        <v>-15.206231854259608</v>
+        <f t="shared" si="46"/>
+        <v>-6.1455605935288542</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="19"/>
-        <v>-7.609599294257257</v>
+        <f t="shared" si="46"/>
+        <v>9.2266411929007006</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="19"/>
-        <v>9.0886034824211812</v>
+        <f t="shared" si="46"/>
+        <v>30.311737730209487</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="19"/>
-        <v>36.352468249533921</v>
+        <f t="shared" si="46"/>
+        <v>57.971340204905282</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="19"/>
-        <v>75.824520274069329</v>
+        <f t="shared" si="46"/>
+        <v>93.172441498508718</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="19"/>
-        <v>129.34526747644779</v>
+        <f t="shared" si="46"/>
+        <v>136.99909054420095</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="19"/>
-        <v>198.97479364734062</v>
-      </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
+        <f t="shared" si="46"/>
+        <v>190.6652988683729</v>
+      </c>
+      <c r="P24" s="8">
+        <f t="shared" ref="P24" si="47">O41*$F$3</f>
+        <v>255.52930610055975</v>
+      </c>
+      <c r="Q24" s="8">
+        <f t="shared" ref="Q24" si="48">P41*$F$3</f>
+        <v>333.10934410596178</v>
+      </c>
+      <c r="R24" s="8">
+        <f t="shared" ref="R24" si="49">Q41*$F$3</f>
+        <v>425.10105356275346</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" ref="S24" si="50">R41*$F$3</f>
+        <v>533.3967224019375</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" ref="T24" si="51">S41*$F$3</f>
+        <v>660.10653269392378</v>
+      </c>
     </row>
     <row r="25" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
@@ -2162,54 +2282,69 @@
         <v>-164.95670000000001</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:F25" si="20">E23+E24</f>
-        <v>-161.01447783078089</v>
+        <f t="shared" ref="E25:F25" si="52">E23+E24</f>
+        <v>-138.98099385495516</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="20"/>
-        <v>-171.56626970926473</v>
+        <f t="shared" si="52"/>
+        <v>-110.26170521563122</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25" si="21">G23+G24</f>
-        <v>-148.05115309595865</v>
+        <f t="shared" ref="G25" si="53">G23+G24</f>
+        <v>-38.13309255988846</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ref="H25" si="22">H23+H24</f>
-        <v>-52.588716957154887</v>
+        <f t="shared" ref="H25" si="54">H23+H24</f>
+        <v>105.25244677635033</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" ref="I25" si="23">I23+I24</f>
-        <v>178.74429552946708</v>
+        <f t="shared" ref="I25" si="55">I23+I24</f>
+        <v>361.69886556304829</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25" si="24">J23+J24</f>
-        <v>392.89888886302208</v>
+        <f t="shared" ref="J25" si="56">J23+J24</f>
+        <v>496.11991852491258</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K25" si="25">K23+K24</f>
-        <v>641.50270040265286</v>
+        <f t="shared" ref="K25" si="57">K23+K24</f>
+        <v>650.81417587519502</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" ref="L25" si="26">L23+L24</f>
-        <v>928.7541652831859</v>
+        <f t="shared" ref="L25" si="58">L23+L24</f>
+        <v>828.26120690831624</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25" si="27">M23+M24</f>
-        <v>1259.311698879493</v>
+        <f t="shared" ref="M25" si="59">M23+M24</f>
+        <v>1031.215271663347</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25" si="28">N23+N24</f>
-        <v>1638.3417922563019</v>
+        <f t="shared" ref="N25" si="60">N23+N24</f>
+        <v>1262.7343135099277</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" ref="O25" si="29">O23+O24</f>
-        <v>2071.5720251377134</v>
-      </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
+        <f t="shared" ref="O25:S25" si="61">O23+O24</f>
+        <v>1526.2119348749852</v>
+      </c>
+      <c r="P25" s="8">
+        <f t="shared" si="61"/>
+        <v>1825.4126589506363</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" si="61"/>
+        <v>2164.5108107480382</v>
+      </c>
+      <c r="R25" s="8">
+        <f t="shared" si="61"/>
+        <v>2548.1333844513888</v>
+      </c>
+      <c r="S25" s="8">
+        <f t="shared" si="61"/>
+        <v>2981.4073009879125</v>
+      </c>
+      <c r="T25" s="8">
+        <f t="shared" ref="T25" si="62">T23+T24</f>
+        <v>3470.0115004014638</v>
+      </c>
     </row>
     <row r="26" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
@@ -2234,46 +2369,60 @@
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f>G25*0.15</f>
-        <v>-22.207672964393797</v>
+        <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:O26" si="30">H25*0.15</f>
-        <v>-7.8883075435732328</v>
+        <f t="shared" ref="H26:O26" si="63">H25*0.15</f>
+        <v>15.787867016452548</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="30"/>
-        <v>26.811644329420062</v>
+        <f t="shared" si="63"/>
+        <v>54.25482983445724</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="30"/>
-        <v>58.934833329453312</v>
+        <f t="shared" si="63"/>
+        <v>74.417987778736887</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="30"/>
-        <v>96.225405060397932</v>
+        <f t="shared" si="63"/>
+        <v>97.622126381279244</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="30"/>
-        <v>139.31312479247788</v>
+        <f t="shared" si="63"/>
+        <v>124.23918103624743</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="30"/>
-        <v>188.89675483192394</v>
+        <f t="shared" si="63"/>
+        <v>154.68229074950204</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="30"/>
-        <v>245.75126883844527</v>
+        <f t="shared" si="63"/>
+        <v>189.41014702648914</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="30"/>
-        <v>310.73580377065701</v>
-      </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
+        <f t="shared" si="63"/>
+        <v>228.93179023124779</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26:T26" si="64">P25*0.15</f>
+        <v>273.81189884259544</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="64"/>
+        <v>324.67662161220574</v>
+      </c>
+      <c r="R26" s="8">
+        <f t="shared" si="64"/>
+        <v>382.22000766770833</v>
+      </c>
+      <c r="S26" s="8">
+        <f t="shared" si="64"/>
+        <v>447.21109514818687</v>
+      </c>
+      <c r="T26" s="8">
+        <f t="shared" si="64"/>
+        <v>520.50172506021954</v>
+      </c>
     </row>
     <row r="27" spans="1:120" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -2293,467 +2442,467 @@
       </c>
       <c r="E27" s="17">
         <f>E25-E26</f>
-        <v>-161.01447783078089</v>
+        <v>-138.98099385495516</v>
       </c>
       <c r="F27" s="17">
-        <f t="shared" ref="F27" si="31">F25-F26</f>
-        <v>-171.56626970926473</v>
+        <f t="shared" ref="F27" si="65">F25-F26</f>
+        <v>-110.26170521563122</v>
       </c>
       <c r="G27" s="17">
-        <f t="shared" ref="G27:O27" si="32">G25-G26</f>
-        <v>-125.84348013156486</v>
+        <f t="shared" ref="G27:O27" si="66">G25-G26</f>
+        <v>-38.13309255988846</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" si="32"/>
-        <v>-44.700409413581653</v>
+        <f t="shared" si="66"/>
+        <v>89.464579759897774</v>
       </c>
       <c r="I27" s="17">
-        <f t="shared" si="32"/>
-        <v>151.93265120004702</v>
+        <f t="shared" si="66"/>
+        <v>307.44403572859107</v>
       </c>
       <c r="J27" s="17">
-        <f t="shared" si="32"/>
-        <v>333.96405553356874</v>
+        <f t="shared" si="66"/>
+        <v>421.70193074617566</v>
       </c>
       <c r="K27" s="17">
-        <f t="shared" si="32"/>
-        <v>545.27729534225489</v>
+        <f t="shared" si="66"/>
+        <v>553.19204949391576</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="32"/>
-        <v>789.44104049070802</v>
+        <f t="shared" si="66"/>
+        <v>704.02202587206875</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="32"/>
-        <v>1070.414944047569</v>
+        <f t="shared" si="66"/>
+        <v>876.53298091384499</v>
       </c>
       <c r="N27" s="17">
-        <f t="shared" si="32"/>
-        <v>1392.5905234178567</v>
+        <f t="shared" si="66"/>
+        <v>1073.3241664834386</v>
       </c>
       <c r="O27" s="17">
-        <f t="shared" si="32"/>
-        <v>1760.8362213670564</v>
+        <f t="shared" si="66"/>
+        <v>1297.2801446437375</v>
       </c>
       <c r="P27" s="17">
-        <f t="shared" ref="P27:AU27" si="33">O27*($F$2+1)</f>
-        <v>1752.032040260221</v>
+        <f t="shared" ref="P27:T27" si="67">P25-P26</f>
+        <v>1551.600760108041</v>
       </c>
       <c r="Q27" s="17">
-        <f t="shared" si="33"/>
-        <v>1743.27188005892</v>
+        <f t="shared" si="67"/>
+        <v>1839.8341891358325</v>
       </c>
       <c r="R27" s="17">
-        <f t="shared" si="33"/>
-        <v>1734.5555206586255</v>
+        <f t="shared" si="67"/>
+        <v>2165.9133767836806</v>
       </c>
       <c r="S27" s="17">
-        <f t="shared" si="33"/>
-        <v>1725.8827430553324</v>
+        <f t="shared" si="67"/>
+        <v>2534.1962058397257</v>
       </c>
       <c r="T27" s="17">
-        <f t="shared" si="33"/>
-        <v>1717.2533293400556</v>
+        <f t="shared" si="67"/>
+        <v>2949.5097753412442</v>
       </c>
       <c r="U27" s="17">
-        <f t="shared" si="33"/>
-        <v>1708.6670626933553</v>
+        <f t="shared" ref="P27:AU27" si="68">T27*($F$2+1)</f>
+        <v>2979.0048730946569</v>
       </c>
       <c r="V27" s="17">
-        <f t="shared" si="33"/>
-        <v>1700.1237273798886</v>
+        <f t="shared" si="68"/>
+        <v>3008.7949218256035</v>
       </c>
       <c r="W27" s="17">
-        <f t="shared" si="33"/>
-        <v>1691.6231087429892</v>
+        <f t="shared" si="68"/>
+        <v>3038.8828710438597</v>
       </c>
       <c r="X27" s="17">
-        <f t="shared" si="33"/>
-        <v>1683.1649931992742</v>
+        <f t="shared" si="68"/>
+        <v>3069.2716997542984</v>
       </c>
       <c r="Y27" s="17">
-        <f t="shared" si="33"/>
-        <v>1674.7491682332779</v>
+        <f t="shared" si="68"/>
+        <v>3099.9644167518413</v>
       </c>
       <c r="Z27" s="17">
-        <f t="shared" si="33"/>
-        <v>1666.3754223921114</v>
+        <f t="shared" si="68"/>
+        <v>3130.9640609193598</v>
       </c>
       <c r="AA27" s="17">
-        <f t="shared" si="33"/>
-        <v>1658.043545280151</v>
+        <f t="shared" si="68"/>
+        <v>3162.2737015285534</v>
       </c>
       <c r="AB27" s="17">
-        <f t="shared" si="33"/>
-        <v>1649.7533275537503</v>
+        <f t="shared" si="68"/>
+        <v>3193.8964385438389</v>
       </c>
       <c r="AC27" s="17">
-        <f t="shared" si="33"/>
-        <v>1641.5045609159815</v>
+        <f t="shared" si="68"/>
+        <v>3225.8354029292773</v>
       </c>
       <c r="AD27" s="17">
-        <f t="shared" si="33"/>
-        <v>1633.2970381114017</v>
+        <f t="shared" si="68"/>
+        <v>3258.0937569585699</v>
       </c>
       <c r="AE27" s="17">
-        <f t="shared" si="33"/>
-        <v>1625.1305529208446</v>
+        <f t="shared" si="68"/>
+        <v>3290.6746945281557</v>
       </c>
       <c r="AF27" s="17">
-        <f t="shared" si="33"/>
-        <v>1617.0049001562404</v>
+        <f t="shared" si="68"/>
+        <v>3323.5814414734373</v>
       </c>
       <c r="AG27" s="17">
-        <f t="shared" si="33"/>
-        <v>1608.9198756554592</v>
+        <f t="shared" si="68"/>
+        <v>3356.8172558881715</v>
       </c>
       <c r="AH27" s="17">
-        <f t="shared" si="33"/>
-        <v>1600.8752762771819</v>
+        <f t="shared" si="68"/>
+        <v>3390.3854284470531</v>
       </c>
       <c r="AI27" s="17">
-        <f t="shared" si="33"/>
-        <v>1592.8708998957959</v>
+        <f t="shared" si="68"/>
+        <v>3424.2892827315236</v>
       </c>
       <c r="AJ27" s="17">
-        <f t="shared" si="33"/>
-        <v>1584.9065453963169</v>
+        <f t="shared" si="68"/>
+        <v>3458.5321755588388</v>
       </c>
       <c r="AK27" s="17">
-        <f t="shared" si="33"/>
-        <v>1576.9820126693353</v>
+        <f t="shared" si="68"/>
+        <v>3493.1174973144271</v>
       </c>
       <c r="AL27" s="17">
-        <f t="shared" si="33"/>
-        <v>1569.0971026059885</v>
+        <f t="shared" si="68"/>
+        <v>3528.0486722875712</v>
       </c>
       <c r="AM27" s="17">
-        <f t="shared" si="33"/>
-        <v>1561.2516170929587</v>
+        <f t="shared" si="68"/>
+        <v>3563.3291590104468</v>
       </c>
       <c r="AN27" s="17">
-        <f t="shared" si="33"/>
-        <v>1553.4453590074938</v>
+        <f t="shared" si="68"/>
+        <v>3598.9624506005512</v>
       </c>
       <c r="AO27" s="17">
-        <f t="shared" si="33"/>
-        <v>1545.6781322124564</v>
+        <f t="shared" si="68"/>
+        <v>3634.9520751065565</v>
       </c>
       <c r="AP27" s="17">
-        <f t="shared" si="33"/>
-        <v>1537.949741551394</v>
+        <f t="shared" si="68"/>
+        <v>3671.301595857622</v>
       </c>
       <c r="AQ27" s="17">
-        <f t="shared" si="33"/>
-        <v>1530.2599928436371</v>
+        <f t="shared" si="68"/>
+        <v>3708.0146118161983</v>
       </c>
       <c r="AR27" s="17">
-        <f t="shared" si="33"/>
-        <v>1522.6086928794189</v>
+        <f t="shared" si="68"/>
+        <v>3745.0947579343601</v>
       </c>
       <c r="AS27" s="17">
-        <f t="shared" si="33"/>
-        <v>1514.9956494150217</v>
+        <f t="shared" si="68"/>
+        <v>3782.545705513704</v>
       </c>
       <c r="AT27" s="17">
-        <f t="shared" si="33"/>
-        <v>1507.4206711679467</v>
+        <f t="shared" si="68"/>
+        <v>3820.3711625688411</v>
       </c>
       <c r="AU27" s="17">
-        <f t="shared" si="33"/>
-        <v>1499.883567812107</v>
+        <f t="shared" si="68"/>
+        <v>3858.5748741945295</v>
       </c>
       <c r="AV27" s="17">
-        <f t="shared" ref="AV27:CA27" si="34">AU27*($F$2+1)</f>
-        <v>1492.3841499730465</v>
+        <f t="shared" ref="AV27:CA27" si="69">AU27*($F$2+1)</f>
+        <v>3897.1606229364747</v>
       </c>
       <c r="AW27" s="17">
-        <f t="shared" si="34"/>
-        <v>1484.9222292231814</v>
+        <f t="shared" si="69"/>
+        <v>3936.1322291658394</v>
       </c>
       <c r="AX27" s="17">
-        <f t="shared" si="34"/>
-        <v>1477.4976180770655</v>
+        <f t="shared" si="69"/>
+        <v>3975.4935514574977</v>
       </c>
       <c r="AY27" s="17">
-        <f t="shared" si="34"/>
-        <v>1470.11012998668</v>
+        <f t="shared" si="69"/>
+        <v>4015.2484869720729</v>
       </c>
       <c r="AZ27" s="17">
-        <f t="shared" si="34"/>
-        <v>1462.7595793367466</v>
+        <f t="shared" si="69"/>
+        <v>4055.4009718417938</v>
       </c>
       <c r="BA27" s="17">
-        <f t="shared" si="34"/>
-        <v>1455.4457814400628</v>
+        <f t="shared" si="69"/>
+        <v>4095.9549815602118</v>
       </c>
       <c r="BB27" s="17">
-        <f t="shared" si="34"/>
-        <v>1448.1685525328623</v>
+        <f t="shared" si="69"/>
+        <v>4136.9145313758136</v>
       </c>
       <c r="BC27" s="17">
-        <f t="shared" si="34"/>
-        <v>1440.9277097701981</v>
+        <f t="shared" si="69"/>
+        <v>4178.2836766895716</v>
       </c>
       <c r="BD27" s="17">
-        <f t="shared" si="34"/>
-        <v>1433.723071221347</v>
+        <f t="shared" si="69"/>
+        <v>4220.066513456467</v>
       </c>
       <c r="BE27" s="17">
-        <f t="shared" si="34"/>
-        <v>1426.5544558652402</v>
+        <f t="shared" si="69"/>
+        <v>4262.2671785910316</v>
       </c>
       <c r="BF27" s="17">
-        <f t="shared" si="34"/>
-        <v>1419.421683585914</v>
+        <f t="shared" si="69"/>
+        <v>4304.8898503769415</v>
       </c>
       <c r="BG27" s="17">
-        <f t="shared" si="34"/>
-        <v>1412.3245751679844</v>
+        <f t="shared" si="69"/>
+        <v>4347.9387488807106</v>
       </c>
       <c r="BH27" s="17">
-        <f t="shared" si="34"/>
-        <v>1405.2629522921445</v>
+        <f t="shared" si="69"/>
+        <v>4391.4181363695179</v>
       </c>
       <c r="BI27" s="17">
-        <f t="shared" si="34"/>
-        <v>1398.2366375306838</v>
+        <f t="shared" si="69"/>
+        <v>4435.3323177332131</v>
       </c>
       <c r="BJ27" s="17">
-        <f t="shared" si="34"/>
-        <v>1391.2454543430304</v>
+        <f t="shared" si="69"/>
+        <v>4479.6856409105449</v>
       </c>
       <c r="BK27" s="17">
-        <f t="shared" si="34"/>
-        <v>1384.2892270713153</v>
+        <f t="shared" si="69"/>
+        <v>4524.4824973196501</v>
       </c>
       <c r="BL27" s="17">
-        <f t="shared" si="34"/>
-        <v>1377.3677809359588</v>
+        <f t="shared" si="69"/>
+        <v>4569.727322292847</v>
       </c>
       <c r="BM27" s="17">
-        <f t="shared" si="34"/>
-        <v>1370.480942031279</v>
+        <f t="shared" si="69"/>
+        <v>4615.4245955157758</v>
       </c>
       <c r="BN27" s="17">
-        <f t="shared" si="34"/>
-        <v>1363.6285373211226</v>
+        <f t="shared" si="69"/>
+        <v>4661.5788414709332</v>
       </c>
       <c r="BO27" s="17">
-        <f t="shared" si="34"/>
-        <v>1356.810394634517</v>
+        <f t="shared" si="69"/>
+        <v>4708.1946298856428</v>
       </c>
       <c r="BP27" s="17">
-        <f t="shared" si="34"/>
-        <v>1350.0263426613444</v>
+        <f t="shared" si="69"/>
+        <v>4755.2765761844994</v>
       </c>
       <c r="BQ27" s="17">
-        <f t="shared" si="34"/>
-        <v>1343.2762109480377</v>
+        <f t="shared" si="69"/>
+        <v>4802.8293419463444</v>
       </c>
       <c r="BR27" s="17">
-        <f t="shared" si="34"/>
-        <v>1336.5598298932975</v>
+        <f t="shared" si="69"/>
+        <v>4850.8576353658082</v>
       </c>
       <c r="BS27" s="17">
-        <f t="shared" si="34"/>
-        <v>1329.877030743831</v>
+        <f t="shared" si="69"/>
+        <v>4899.3662117194663</v>
       </c>
       <c r="BT27" s="17">
-        <f t="shared" si="34"/>
-        <v>1323.2276455901119</v>
+        <f t="shared" si="69"/>
+        <v>4948.3598738366609</v>
       </c>
       <c r="BU27" s="17">
-        <f t="shared" si="34"/>
-        <v>1316.6115073621613</v>
+        <f t="shared" si="69"/>
+        <v>4997.8434725750276</v>
       </c>
       <c r="BV27" s="17">
-        <f t="shared" si="34"/>
-        <v>1310.0284498253504</v>
+        <f t="shared" si="69"/>
+        <v>5047.8219073007776</v>
       </c>
       <c r="BW27" s="17">
-        <f t="shared" si="34"/>
-        <v>1303.4783075762236</v>
+        <f t="shared" si="69"/>
+        <v>5098.3001263737851</v>
       </c>
       <c r="BX27" s="17">
-        <f t="shared" si="34"/>
-        <v>1296.9609160383425</v>
+        <f t="shared" si="69"/>
+        <v>5149.2831276375227</v>
       </c>
       <c r="BY27" s="17">
-        <f t="shared" si="34"/>
-        <v>1290.4761114581509</v>
+        <f t="shared" si="69"/>
+        <v>5200.7759589138977</v>
       </c>
       <c r="BZ27" s="17">
-        <f t="shared" si="34"/>
-        <v>1284.0237309008601</v>
+        <f t="shared" si="69"/>
+        <v>5252.7837185030367</v>
       </c>
       <c r="CA27" s="17">
-        <f t="shared" si="34"/>
-        <v>1277.6036122463559</v>
+        <f t="shared" si="69"/>
+        <v>5305.3115556880666</v>
       </c>
       <c r="CB27" s="17">
-        <f t="shared" ref="CB27:DG27" si="35">CA27*($F$2+1)</f>
-        <v>1271.215594185124</v>
+        <f t="shared" ref="CB27:DG27" si="70">CA27*($F$2+1)</f>
+        <v>5358.3646712449472</v>
       </c>
       <c r="CC27" s="17">
-        <f t="shared" si="35"/>
-        <v>1264.8595162141985</v>
+        <f t="shared" si="70"/>
+        <v>5411.9483179573963</v>
       </c>
       <c r="CD27" s="17">
-        <f t="shared" si="35"/>
-        <v>1258.5352186331274</v>
+        <f t="shared" si="70"/>
+        <v>5466.06780113697</v>
       </c>
       <c r="CE27" s="17">
-        <f t="shared" si="35"/>
-        <v>1252.2425425399617</v>
+        <f t="shared" si="70"/>
+        <v>5520.7284791483398</v>
       </c>
       <c r="CF27" s="17">
-        <f t="shared" si="35"/>
-        <v>1245.981329827262</v>
+        <f t="shared" si="70"/>
+        <v>5575.9357639398231</v>
       </c>
       <c r="CG27" s="17">
-        <f t="shared" si="35"/>
-        <v>1239.7514231781256</v>
+        <f t="shared" si="70"/>
+        <v>5631.6951215792214</v>
       </c>
       <c r="CH27" s="17">
-        <f t="shared" si="35"/>
-        <v>1233.5526660622349</v>
+        <f t="shared" si="70"/>
+        <v>5688.0120727950134</v>
       </c>
       <c r="CI27" s="17">
-        <f t="shared" si="35"/>
-        <v>1227.3849027319238</v>
+        <f t="shared" si="70"/>
+        <v>5744.8921935229637</v>
       </c>
       <c r="CJ27" s="17">
-        <f t="shared" si="35"/>
-        <v>1221.2479782182643</v>
+        <f t="shared" si="70"/>
+        <v>5802.3411154581936</v>
       </c>
       <c r="CK27" s="17">
-        <f t="shared" si="35"/>
-        <v>1215.141738327173</v>
+        <f t="shared" si="70"/>
+        <v>5860.364526612776</v>
       </c>
       <c r="CL27" s="17">
-        <f t="shared" si="35"/>
-        <v>1209.0660296355372</v>
+        <f t="shared" si="70"/>
+        <v>5918.9681718789034</v>
       </c>
       <c r="CM27" s="17">
-        <f t="shared" si="35"/>
-        <v>1203.0206994873595</v>
+        <f t="shared" si="70"/>
+        <v>5978.1578535976923</v>
       </c>
       <c r="CN27" s="17">
-        <f t="shared" si="35"/>
-        <v>1197.0055959899228</v>
+        <f t="shared" si="70"/>
+        <v>6037.9394321336695</v>
       </c>
       <c r="CO27" s="17">
-        <f t="shared" si="35"/>
-        <v>1191.0205680099732</v>
+        <f t="shared" si="70"/>
+        <v>6098.3188264550063</v>
       </c>
       <c r="CP27" s="17">
-        <f t="shared" si="35"/>
-        <v>1185.0654651699233</v>
+        <f t="shared" si="70"/>
+        <v>6159.3020147195566</v>
       </c>
       <c r="CQ27" s="17">
-        <f t="shared" si="35"/>
-        <v>1179.1401378440737</v>
+        <f t="shared" si="70"/>
+        <v>6220.8950348667522</v>
       </c>
       <c r="CR27" s="17">
-        <f t="shared" si="35"/>
-        <v>1173.2444371548534</v>
+        <f t="shared" si="70"/>
+        <v>6283.1039852154199</v>
       </c>
       <c r="CS27" s="17">
-        <f t="shared" si="35"/>
-        <v>1167.3782149690792</v>
+        <f t="shared" si="70"/>
+        <v>6345.9350250675743</v>
       </c>
       <c r="CT27" s="17">
-        <f t="shared" si="35"/>
-        <v>1161.5413238942338</v>
+        <f t="shared" si="70"/>
+        <v>6409.3943753182502</v>
       </c>
       <c r="CU27" s="17">
-        <f t="shared" si="35"/>
-        <v>1155.7336172747625</v>
+        <f t="shared" si="70"/>
+        <v>6473.4883190714327</v>
       </c>
       <c r="CV27" s="17">
-        <f t="shared" si="35"/>
-        <v>1149.9549491883888</v>
+        <f t="shared" si="70"/>
+        <v>6538.2232022621474</v>
       </c>
       <c r="CW27" s="17">
-        <f t="shared" si="35"/>
-        <v>1144.2051744424468</v>
+        <f t="shared" si="70"/>
+        <v>6603.6054342847692</v>
       </c>
       <c r="CX27" s="17">
-        <f t="shared" si="35"/>
-        <v>1138.4841485702345</v>
+        <f t="shared" si="70"/>
+        <v>6669.641488627617</v>
       </c>
       <c r="CY27" s="17">
-        <f t="shared" si="35"/>
-        <v>1132.7917278273833</v>
+        <f t="shared" si="70"/>
+        <v>6736.3379035138933</v>
       </c>
       <c r="CZ27" s="17">
-        <f t="shared" si="35"/>
-        <v>1127.1277691882465</v>
+        <f t="shared" si="70"/>
+        <v>6803.7012825490319</v>
       </c>
       <c r="DA27" s="17">
-        <f t="shared" si="35"/>
-        <v>1121.4921303423052</v>
+        <f t="shared" si="70"/>
+        <v>6871.7382953745227</v>
       </c>
       <c r="DB27" s="17">
-        <f t="shared" si="35"/>
-        <v>1115.8846696905937</v>
+        <f t="shared" si="70"/>
+        <v>6940.4556783282678</v>
       </c>
       <c r="DC27" s="17">
-        <f t="shared" si="35"/>
-        <v>1110.3052463421407</v>
+        <f t="shared" si="70"/>
+        <v>7009.8602351115505</v>
       </c>
       <c r="DD27" s="17">
-        <f t="shared" si="35"/>
-        <v>1104.7537201104299</v>
+        <f t="shared" si="70"/>
+        <v>7079.9588374626665</v>
       </c>
       <c r="DE27" s="17">
-        <f t="shared" si="35"/>
-        <v>1099.2299515098778</v>
+        <f t="shared" si="70"/>
+        <v>7150.7584258372935</v>
       </c>
       <c r="DF27" s="17">
-        <f t="shared" si="35"/>
-        <v>1093.7338017523284</v>
+        <f t="shared" si="70"/>
+        <v>7222.2660100956664</v>
       </c>
       <c r="DG27" s="17">
-        <f t="shared" si="35"/>
-        <v>1088.2651327435667</v>
+        <f t="shared" si="70"/>
+        <v>7294.4886701966234</v>
       </c>
       <c r="DH27" s="17">
-        <f t="shared" ref="DH27:DP27" si="36">DG27*($F$2+1)</f>
-        <v>1082.8238070798488</v>
+        <f t="shared" ref="DH27:DP27" si="71">DG27*($F$2+1)</f>
+        <v>7367.4335568985898</v>
       </c>
       <c r="DI27" s="17">
-        <f t="shared" si="36"/>
-        <v>1077.4096880444497</v>
+        <f t="shared" si="71"/>
+        <v>7441.1078924675758</v>
       </c>
       <c r="DJ27" s="17">
-        <f t="shared" si="36"/>
-        <v>1072.0226396042274</v>
+        <f t="shared" si="71"/>
+        <v>7515.5189713922518</v>
       </c>
       <c r="DK27" s="17">
-        <f t="shared" si="36"/>
-        <v>1066.6625264062063</v>
+        <f t="shared" si="71"/>
+        <v>7590.6741611061743</v>
       </c>
       <c r="DL27" s="17">
-        <f t="shared" si="36"/>
-        <v>1061.3292137741753</v>
+        <f t="shared" si="71"/>
+        <v>7666.5809027172363</v>
       </c>
       <c r="DM27" s="17">
-        <f t="shared" si="36"/>
-        <v>1056.0225677053045</v>
+        <f t="shared" si="71"/>
+        <v>7743.2467117444085</v>
       </c>
       <c r="DN27" s="17">
-        <f t="shared" si="36"/>
-        <v>1050.742454866778</v>
+        <f t="shared" si="71"/>
+        <v>7820.679178861853</v>
       </c>
       <c r="DO27" s="17">
-        <f t="shared" si="36"/>
-        <v>1045.4887425924442</v>
+        <f t="shared" si="71"/>
+        <v>7898.8859706504718</v>
       </c>
       <c r="DP27" s="17">
-        <f t="shared" si="36"/>
-        <v>1040.261298879482</v>
+        <f t="shared" si="71"/>
+        <v>7977.8748303569764</v>
       </c>
     </row>
     <row r="28" spans="1:120" x14ac:dyDescent="0.15">
@@ -2773,54 +2922,69 @@
         <v>-2.9253339285714288</v>
       </c>
       <c r="E28" s="20">
-        <f t="shared" ref="E28:F28" si="37">E27/E29</f>
-        <v>-2.875258532692516</v>
+        <f t="shared" ref="E28:F28" si="72">E27/E29</f>
+        <v>-2.4818034616956277</v>
       </c>
       <c r="F28" s="20">
-        <f t="shared" si="37"/>
-        <v>-3.0636833876654417</v>
+        <f t="shared" si="72"/>
+        <v>-1.9689590217077004</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" ref="G28:O28" si="38">G27/G29</f>
-        <v>-2.2472050023493724</v>
+        <f t="shared" ref="G28:O28" si="73">G27/G29</f>
+        <v>-0.6809480814265797</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="38"/>
-        <v>-0.79822159667110093</v>
+        <f t="shared" si="73"/>
+        <v>1.5975817814267459</v>
       </c>
       <c r="I28" s="20">
-        <f t="shared" si="38"/>
-        <v>2.7130830571436966</v>
+        <f t="shared" si="73"/>
+        <v>5.4900720665819831</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" si="38"/>
-        <v>5.9636438488137271</v>
+        <f t="shared" si="73"/>
+        <v>7.5303916204674222</v>
       </c>
       <c r="K28" s="20">
-        <f t="shared" si="38"/>
-        <v>9.7370945596831238</v>
+        <f t="shared" si="73"/>
+        <v>9.8784294552484955</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="38"/>
-        <v>14.097161437334071</v>
+        <f t="shared" si="73"/>
+        <v>12.571821890572656</v>
       </c>
       <c r="M28" s="20">
-        <f t="shared" si="38"/>
-        <v>19.114552572278019</v>
+        <f t="shared" si="73"/>
+        <v>15.652374659175804</v>
       </c>
       <c r="N28" s="20">
-        <f t="shared" si="38"/>
-        <v>24.867687918176014</v>
+        <f t="shared" si="73"/>
+        <v>19.166502972918547</v>
       </c>
       <c r="O28" s="20">
-        <f t="shared" si="38"/>
-        <v>31.44350395298315</v>
-      </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
+        <f t="shared" si="73"/>
+        <v>23.165716868638167</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" ref="P28:T28" si="74">P27/P29</f>
+        <v>27.707156430500731</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="74"/>
+        <v>32.854181948854155</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="74"/>
+        <v>38.67702458542287</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="74"/>
+        <v>45.253503675709389</v>
+      </c>
+      <c r="T28" s="20">
+        <f t="shared" si="74"/>
+        <v>52.66981741680793</v>
+      </c>
     </row>
     <row r="29" spans="1:120" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
@@ -2839,54 +3003,69 @@
         <v>56</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29" si="39">D29</f>
+        <f t="shared" ref="E29" si="75">D29</f>
         <v>56</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" ref="F29" si="40">E29</f>
+        <f t="shared" ref="F29" si="76">E29</f>
         <v>56</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" ref="G29" si="41">F29</f>
+        <f t="shared" ref="G29" si="77">F29</f>
         <v>56</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ref="H29" si="42">G29</f>
+        <f t="shared" ref="H29" si="78">G29</f>
         <v>56</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" ref="I29" si="43">H29</f>
+        <f t="shared" ref="I29" si="79">H29</f>
         <v>56</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29" si="44">I29</f>
+        <f t="shared" ref="J29" si="80">I29</f>
         <v>56</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" ref="K29" si="45">J29</f>
+        <f t="shared" ref="K29" si="81">J29</f>
         <v>56</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" ref="L29" si="46">K29</f>
+        <f t="shared" ref="L29" si="82">K29</f>
         <v>56</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29" si="47">L29</f>
+        <f t="shared" ref="M29" si="83">L29</f>
         <v>56</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" ref="N29" si="48">M29</f>
+        <f t="shared" ref="N29" si="84">M29</f>
         <v>56</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" ref="O29" si="49">N29</f>
+        <f t="shared" ref="O29" si="85">N29</f>
         <v>56</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
+      <c r="P29" s="8">
+        <f t="shared" ref="P29" si="86">O29</f>
+        <v>56</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" ref="Q29" si="87">P29</f>
+        <v>56</v>
+      </c>
+      <c r="R29" s="8">
+        <f t="shared" ref="R29" si="88">Q29</f>
+        <v>56</v>
+      </c>
+      <c r="S29" s="8">
+        <f t="shared" ref="S29" si="89">R29</f>
+        <v>56</v>
+      </c>
+      <c r="T29" s="8">
+        <f t="shared" ref="T29" si="90">S29</f>
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:120" x14ac:dyDescent="0.15">
       <c r="B30" s="6"/>
@@ -2914,7 +3093,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="23">
-        <f t="shared" ref="B31:O31" si="50">IFERROR(B18/B16,0)</f>
+        <f t="shared" ref="B31:O31" si="91">IFERROR(B18/B16,0)</f>
         <v>0.73134038325320161</v>
       </c>
       <c r="C31" s="23">
@@ -2922,11 +3101,11 @@
         <v>0.71385230534659927</v>
       </c>
       <c r="D31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="E31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="F31" s="23">
@@ -2934,53 +3113,68 @@
         <v>0.70131432259578708</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="I31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="J31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="50"/>
+        <f t="shared" si="91"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="50"/>
-        <v>0.70131432259578708</v>
+        <f t="shared" si="91"/>
+        <v>0.70131432259578697</v>
       </c>
       <c r="M31" s="23">
-        <f t="shared" si="50"/>
-        <v>0.70131432259578708</v>
+        <f t="shared" si="91"/>
+        <v>0.70131432259578697</v>
       </c>
       <c r="N31" s="23">
-        <f t="shared" si="50"/>
-        <v>0.70131432259578708</v>
+        <f t="shared" si="91"/>
+        <v>0.70131432259578697</v>
       </c>
       <c r="O31" s="23">
-        <f t="shared" si="50"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
+        <f t="shared" si="91"/>
+        <v>0.70131432259578697</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" ref="P31:T31" si="92">IFERROR(P18/P16,0)</f>
+        <v>0.70131432259578697</v>
+      </c>
+      <c r="Q31" s="23">
+        <f t="shared" si="92"/>
+        <v>0.70131432259578697</v>
+      </c>
+      <c r="R31" s="23">
+        <f t="shared" si="92"/>
+        <v>0.70131432259578697</v>
+      </c>
+      <c r="S31" s="23">
+        <f t="shared" si="92"/>
+        <v>0.70131432259578697</v>
+      </c>
+      <c r="T31" s="23">
+        <f t="shared" si="92"/>
+        <v>0.70131432259578697</v>
+      </c>
     </row>
     <row r="32" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="22">
-        <f t="shared" ref="B32:O32" si="51">IFERROR(B23/B16,0)</f>
+        <f t="shared" ref="B32:O32" si="93">IFERROR(B23/B16,0)</f>
         <v>-0.569977872361765</v>
       </c>
       <c r="C32" s="22">
@@ -2988,65 +3182,80 @@
         <v>-0.43187811651588132</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="93"/>
         <v>-0.37443451857067422</v>
       </c>
       <c r="E32" s="22">
-        <f t="shared" si="51"/>
-        <v>-0.26437446355360517</v>
+        <f t="shared" si="93"/>
+        <v>-0.24338903814466981</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="51"/>
-        <v>-0.16924110819242688</v>
+        <f t="shared" si="93"/>
+        <v>-0.12705305816635654</v>
       </c>
       <c r="G32" s="22">
-        <f t="shared" si="51"/>
-        <v>-8.6849212980846136E-2</v>
+        <f t="shared" si="93"/>
+        <v>-2.4253824070267768E-2</v>
       </c>
       <c r="H32" s="22">
-        <f t="shared" si="51"/>
-        <v>-1.5300623252622676E-2</v>
+        <f t="shared" si="93"/>
+        <v>6.6258425096191689E-2</v>
       </c>
       <c r="I32" s="22">
-        <f t="shared" si="51"/>
-        <v>4.7031368790607167E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.14573462334097337</v>
       </c>
       <c r="J32" s="22">
-        <f t="shared" si="51"/>
-        <v>8.8290849051165105E-2</v>
+        <f t="shared" si="93"/>
+        <v>0.17536368226651311</v>
       </c>
       <c r="K32" s="22">
-        <f t="shared" si="51"/>
-        <v>0.12673974396423726</v>
+        <f t="shared" si="93"/>
+        <v>0.20316864547011321</v>
       </c>
       <c r="L32" s="22">
-        <f t="shared" si="51"/>
-        <v>0.1625844423284889</v>
+        <f t="shared" si="93"/>
+        <v>0.22928449770090531</v>
       </c>
       <c r="M32" s="22">
-        <f t="shared" si="51"/>
-        <v>0.19601507378253269</v>
+        <f t="shared" si="93"/>
+        <v>0.25383440753136344</v>
       </c>
       <c r="N32" s="22">
-        <f t="shared" si="51"/>
-        <v>0.22720687449567592</v>
+        <f t="shared" si="93"/>
+        <v>0.2769308841478329</v>
       </c>
       <c r="O32" s="22">
-        <f t="shared" si="51"/>
-        <v>0.25632143141570324</v>
-      </c>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
+        <f t="shared" si="93"/>
+        <v>0.2986768139569525</v>
+      </c>
+      <c r="P32" s="22">
+        <f t="shared" ref="P32:T32" si="94">IFERROR(P23/P16,0)</f>
+        <v>0.31916638984572693</v>
+      </c>
+      <c r="Q32" s="22">
+        <f t="shared" si="94"/>
+        <v>0.33848594454494113</v>
+      </c>
+      <c r="R32" s="22">
+        <f t="shared" si="94"/>
+        <v>0.35671469830840946</v>
+      </c>
+      <c r="S32" s="22">
+        <f t="shared" si="94"/>
+        <v>0.37392543001777567</v>
+      </c>
+      <c r="T32" s="22">
+        <f t="shared" si="94"/>
+        <v>0.39018507983959866</v>
+      </c>
     </row>
     <row r="33" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="22">
-        <f t="shared" ref="B33:O33" si="52">IFERROR(B26/B25,0)</f>
+        <f t="shared" ref="B33:O33" si="95">IFERROR(B26/B25,0)</f>
         <v>-1.1096209978249354E-2</v>
       </c>
       <c r="C33" s="22">
@@ -3054,7 +3263,7 @@
         <v>3.6782325106618559E-2</v>
       </c>
       <c r="D33" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="95"/>
         <v>6.8987801041121687E-3</v>
       </c>
       <c r="E33" s="22">
@@ -3062,50 +3271,65 @@
         <v>0</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="G33" s="22">
-        <f t="shared" si="52"/>
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="H33" s="22">
-        <f t="shared" si="52"/>
+      <c r="I33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="I33" s="22">
-        <f t="shared" si="52"/>
+      <c r="J33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="J33" s="22">
-        <f t="shared" si="52"/>
+      <c r="K33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="K33" s="22">
-        <f t="shared" si="52"/>
+      <c r="L33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="L33" s="22">
-        <f t="shared" si="52"/>
+      <c r="M33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="M33" s="22">
-        <f t="shared" si="52"/>
+      <c r="N33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="N33" s="22">
-        <f t="shared" si="52"/>
+      <c r="O33" s="22">
+        <f t="shared" si="95"/>
         <v>0.15</v>
       </c>
-      <c r="O33" s="22">
-        <f t="shared" si="52"/>
+      <c r="P33" s="22">
+        <f t="shared" ref="P33:T33" si="96">IFERROR(P26/P25,0)</f>
         <v>0.15</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
+      <c r="Q33" s="22">
+        <f t="shared" si="96"/>
+        <v>0.15</v>
+      </c>
+      <c r="R33" s="22">
+        <f t="shared" si="96"/>
+        <v>0.15</v>
+      </c>
+      <c r="S33" s="22">
+        <f t="shared" si="96"/>
+        <v>0.15</v>
+      </c>
+      <c r="T33" s="22">
+        <f t="shared" si="96"/>
+        <v>0.15</v>
+      </c>
     </row>
     <row r="34" spans="1:120" x14ac:dyDescent="0.15">
       <c r="B34" s="22"/>
@@ -3134,62 +3358,77 @@
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21">
-        <f t="shared" ref="C35:O35" si="53">C16/B16-1</f>
+        <f t="shared" ref="C35:O35" si="97">C16/B16-1</f>
         <v>0.61160666712635336</v>
       </c>
       <c r="D35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.59095753370310167</v>
       </c>
       <c r="E35" s="21">
         <f>E16/D16-1</f>
-        <v>0.58098989810088209</v>
+        <v>0.43370562694361303</v>
       </c>
       <c r="F35" s="21">
-        <f t="shared" si="53"/>
-        <v>0.5849697791222821</v>
+        <f t="shared" si="97"/>
+        <v>0.43693000246166847</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" si="53"/>
-        <v>0.58814628749101328</v>
+        <f t="shared" si="97"/>
+        <v>0.43953985431208786</v>
       </c>
       <c r="H35" s="21">
-        <f t="shared" si="53"/>
-        <v>0.5906701663738787</v>
+        <f t="shared" si="97"/>
+        <v>0.44164374122392913</v>
       </c>
       <c r="I35" s="21">
-        <f t="shared" si="53"/>
-        <v>0.59266831535588715</v>
+        <f t="shared" si="97"/>
+        <v>0.44333420780898125</v>
       </c>
       <c r="J35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O35" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="97"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="P35" s="21">
+        <f t="shared" ref="P35" si="98">P16/O16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q35" s="21">
+        <f t="shared" ref="Q35" si="99">Q16/P16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R35" s="21">
+        <f t="shared" ref="R35" si="100">R16/Q16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" ref="S35" si="101">S16/R16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T35" s="21">
+        <f t="shared" ref="T35" si="102">T16/S16-1</f>
+        <v>0.10000000000000009</v>
+      </c>
     </row>
     <row r="36" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -3197,62 +3436,77 @@
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22">
-        <f t="shared" ref="C36:O36" si="54">C19/B19-1</f>
+        <f t="shared" ref="C36:O36" si="103">C19/B19-1</f>
         <v>0.44455162213433685</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" si="54"/>
+        <f t="shared" si="103"/>
         <v>0.66300888107374156</v>
       </c>
       <c r="E36" s="22">
-        <f t="shared" si="54"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" si="54"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G36" s="22">
-        <f t="shared" si="54"/>
-        <v>0.54999999999999982</v>
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H36" s="22">
-        <f t="shared" si="54"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I36" s="22">
-        <f t="shared" si="54"/>
-        <v>0.55000000000000004</v>
+        <f t="shared" si="103"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="J36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="M36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="N36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="O36" s="22">
-        <f t="shared" si="54"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
+        <f t="shared" si="103"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P36" s="22">
+        <f t="shared" ref="P36:P38" si="104">P19/O19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q36" s="22">
+        <f t="shared" ref="Q36:Q39" si="105">Q19/P19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R36" s="22">
+        <f t="shared" ref="R36:R39" si="106">R19/Q19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="S36" s="22">
+        <f t="shared" ref="S36:S39" si="107">S19/R19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="T36" s="22">
+        <f t="shared" ref="T36:T39" si="108">T19/S19-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
     </row>
     <row r="37" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
@@ -3260,62 +3514,77 @@
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22">
-        <f t="shared" ref="C37:O37" si="55">C20/B20-1</f>
+        <f t="shared" ref="C37:O37" si="109">C20/B20-1</f>
         <v>0.39636902624722659</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>0.45602769078622063</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="55"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="109"/>
+        <v>0.25</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" si="55"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="109"/>
+        <v>0.25</v>
       </c>
       <c r="G37" s="22">
-        <f t="shared" si="55"/>
-        <v>0.40000000000000013</v>
+        <f t="shared" si="109"/>
+        <v>0.25</v>
       </c>
       <c r="H37" s="22">
-        <f t="shared" si="55"/>
-        <v>0.39999999999999991</v>
+        <f t="shared" si="109"/>
+        <v>0.25</v>
       </c>
       <c r="I37" s="22">
-        <f t="shared" si="55"/>
-        <v>0.39999999999999969</v>
+        <f t="shared" si="109"/>
+        <v>0.25</v>
       </c>
       <c r="J37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="L37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O37" s="22">
-        <f t="shared" si="55"/>
+        <f t="shared" si="109"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
+      <c r="P37" s="22">
+        <f t="shared" si="104"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q37" s="22">
+        <f t="shared" si="105"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="R37" s="22">
+        <f t="shared" si="106"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="S37" s="22">
+        <f t="shared" si="107"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="T37" s="22">
+        <f t="shared" si="108"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
@@ -3323,146 +3592,176 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22">
-        <f t="shared" ref="C38:O38" si="56">C21/B21-1</f>
+        <f t="shared" ref="C38:O38" si="110">C21/B21-1</f>
         <v>0.44217539089055036</v>
       </c>
       <c r="D38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.31504449807677792</v>
       </c>
       <c r="E38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="G38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="K38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="L38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="N38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="O38" s="22">
-        <f t="shared" si="56"/>
+        <f t="shared" si="110"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
+      <c r="P38" s="22">
+        <f t="shared" si="104"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="Q38" s="22">
+        <f t="shared" si="105"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="R38" s="22">
+        <f t="shared" si="106"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
+      <c r="S38" s="22">
+        <f t="shared" si="107"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="T38" s="22">
+        <f t="shared" si="108"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:120" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62">
+        <v>85</v>
+      </c>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61">
         <f>C22/B22-1</f>
         <v>0.41892022081137603</v>
       </c>
-      <c r="D39" s="62">
-        <f t="shared" ref="D39:O39" si="57">D22/C22-1</f>
+      <c r="D39" s="61">
+        <f t="shared" ref="D39:O39" si="111">D22/C22-1</f>
         <v>0.49378133858401352</v>
       </c>
-      <c r="E39" s="62">
-        <f t="shared" si="57"/>
-        <v>0.41923854080661194</v>
-      </c>
-      <c r="F39" s="62">
-        <f t="shared" si="57"/>
-        <v>0.4288289028931962</v>
-      </c>
-      <c r="G39" s="62">
-        <f t="shared" si="57"/>
-        <v>0.43783950877027555</v>
-      </c>
-      <c r="H39" s="62">
-        <f t="shared" si="57"/>
-        <v>0.44627093703939269</v>
-      </c>
-      <c r="I39" s="62">
-        <f t="shared" si="57"/>
-        <v>0.45413619383735626</v>
-      </c>
-      <c r="J39" s="62">
-        <f t="shared" si="57"/>
-        <v>3.0633332226277732E-2</v>
-      </c>
-      <c r="K39" s="62">
+      <c r="E39" s="61">
+        <f t="shared" si="111"/>
+        <v>0.25905459737004821</v>
+      </c>
+      <c r="F39" s="61">
+        <f t="shared" si="111"/>
+        <v>0.25997852018304801</v>
+      </c>
+      <c r="G39" s="61">
+        <f t="shared" si="111"/>
+        <v>0.26089497051919297</v>
+      </c>
+      <c r="H39" s="61">
+        <f t="shared" si="111"/>
+        <v>0.26180340766669552</v>
+      </c>
+      <c r="I39" s="61">
+        <f t="shared" si="111"/>
+        <v>0.26270331203279573</v>
+      </c>
+      <c r="J39" s="61">
+        <f t="shared" si="111"/>
+        <v>4.1337012742170831E-2</v>
+      </c>
+      <c r="K39" s="61">
         <f>K22/J22-1</f>
-        <v>3.1007887577569671E-2</v>
-      </c>
-      <c r="L39" s="62">
-        <f t="shared" si="57"/>
-        <v>3.1376761752000659E-2</v>
-      </c>
-      <c r="M39" s="62">
-        <f t="shared" si="57"/>
-        <v>3.1740013044751825E-2</v>
-      </c>
-      <c r="N39" s="62">
-        <f t="shared" si="57"/>
-        <v>3.2097700788116468E-2</v>
-      </c>
-      <c r="O39" s="62">
-        <f t="shared" si="57"/>
-        <v>3.2449885062198813E-2</v>
-      </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
+        <v>4.1847281515216217E-2</v>
+      </c>
+      <c r="L39" s="61">
+        <f t="shared" si="111"/>
+        <v>4.2331252135660025E-2</v>
+      </c>
+      <c r="M39" s="61">
+        <f t="shared" si="111"/>
+        <v>4.2789842104748788E-2</v>
+      </c>
+      <c r="N39" s="61">
+        <f t="shared" si="111"/>
+        <v>4.3223989674578744E-2</v>
+      </c>
+      <c r="O39" s="61">
+        <f t="shared" si="111"/>
+        <v>4.3634645881768686E-2</v>
+      </c>
+      <c r="P39" s="61">
+        <f>P22/O22-1</f>
+        <v>4.4022767392322359E-2</v>
+      </c>
+      <c r="Q39" s="61">
+        <f t="shared" si="105"/>
+        <v>4.4389310139131277E-2</v>
+      </c>
+      <c r="R39" s="61">
+        <f t="shared" si="106"/>
+        <v>4.4735223723307849E-2</v>
+      </c>
+      <c r="S39" s="61">
+        <f t="shared" si="107"/>
+        <v>4.5061446542626893E-2</v>
+      </c>
+      <c r="T39" s="61">
+        <f t="shared" si="108"/>
+        <v>4.5368901604554424E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="61"/>
     </row>
     <row r="41" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
@@ -3478,123 +3777,138 @@
       </c>
       <c r="D41" s="17">
         <f>D42-D43</f>
-        <v>199</v>
-      </c>
-      <c r="E41" s="49">
+        <v>75</v>
+      </c>
+      <c r="E41" s="48">
         <f>D41+E27</f>
-        <v>37.985522169219109</v>
-      </c>
-      <c r="F41" s="49">
-        <f t="shared" ref="F41:O41" si="58">E41+F27</f>
-        <v>-133.58074754004562</v>
-      </c>
-      <c r="G41" s="49">
-        <f t="shared" si="58"/>
-        <v>-259.42422767161048</v>
-      </c>
-      <c r="H41" s="49">
-        <f t="shared" si="58"/>
-        <v>-304.12463708519215</v>
-      </c>
-      <c r="I41" s="49">
-        <f t="shared" si="58"/>
-        <v>-152.19198588514513</v>
-      </c>
-      <c r="J41" s="49">
-        <f t="shared" si="58"/>
-        <v>181.77206964842361</v>
-      </c>
-      <c r="K41" s="49">
-        <f t="shared" si="58"/>
-        <v>727.04936499067844</v>
-      </c>
-      <c r="L41" s="49">
-        <f t="shared" si="58"/>
-        <v>1516.4904054813865</v>
-      </c>
-      <c r="M41" s="49">
-        <f t="shared" si="58"/>
-        <v>2586.9053495289554</v>
-      </c>
-      <c r="N41" s="49">
-        <f t="shared" si="58"/>
-        <v>3979.4958729468121</v>
-      </c>
-      <c r="O41" s="49">
-        <f t="shared" si="58"/>
-        <v>5740.3320943138688</v>
-      </c>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+        <v>-63.980993854955159</v>
+      </c>
+      <c r="F41" s="48">
+        <f t="shared" ref="F41:O41" si="112">E41+F27</f>
+        <v>-174.24269907058638</v>
+      </c>
+      <c r="G41" s="48">
+        <f t="shared" si="112"/>
+        <v>-212.37579163047485</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="112"/>
+        <v>-122.91121187057708</v>
+      </c>
+      <c r="I41" s="48">
+        <f t="shared" si="112"/>
+        <v>184.53282385801401</v>
+      </c>
+      <c r="J41" s="48">
+        <f t="shared" si="112"/>
+        <v>606.23475460418967</v>
+      </c>
+      <c r="K41" s="48">
+        <f t="shared" si="112"/>
+        <v>1159.4268040981055</v>
+      </c>
+      <c r="L41" s="48">
+        <f t="shared" si="112"/>
+        <v>1863.4488299701743</v>
+      </c>
+      <c r="M41" s="48">
+        <f t="shared" si="112"/>
+        <v>2739.9818108840191</v>
+      </c>
+      <c r="N41" s="48">
+        <f t="shared" si="112"/>
+        <v>3813.3059773674577</v>
+      </c>
+      <c r="O41" s="48">
+        <f t="shared" si="112"/>
+        <v>5110.5861220111947</v>
+      </c>
+      <c r="P41" s="48">
+        <f t="shared" ref="P41" si="113">O41+P27</f>
+        <v>6662.1868821192356</v>
+      </c>
+      <c r="Q41" s="48">
+        <f t="shared" ref="Q41" si="114">P41+Q27</f>
+        <v>8502.0210712550688</v>
+      </c>
+      <c r="R41" s="48">
+        <f t="shared" ref="R41" si="115">Q41+R27</f>
+        <v>10667.93444803875</v>
+      </c>
+      <c r="S41" s="48">
+        <f t="shared" ref="S41" si="116">R41+S27</f>
+        <v>13202.130653878476</v>
+      </c>
+      <c r="T41" s="48">
+        <f t="shared" ref="T41" si="117">S41+T27</f>
+        <v>16151.64042921972</v>
+      </c>
     </row>
     <row r="42" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="50">
         <f>Reports!E36</f>
         <v>278.97399999999999</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <f>Reports!I36</f>
         <v>465.97</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="50">
         <f>Reports!M36</f>
-        <v>426</v>
-      </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
+        <v>986</v>
+      </c>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
     </row>
     <row r="43" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="51">
+      <c r="B43" s="50">
         <f>Reports!E37</f>
         <v>0</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <f>Reports!I37</f>
         <v>216.858</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="50">
         <f>Reports!M37</f>
-        <v>227</v>
-      </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
+        <v>911</v>
+      </c>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
     </row>
     <row r="44" spans="1:120" x14ac:dyDescent="0.15">
       <c r="B44" s="24"/>
@@ -3611,41 +3925,44 @@
       <c r="M44" s="24"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
     </row>
     <row r="45" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="50">
+      <c r="B45" s="49">
         <f>Reports!E39</f>
         <v>3.327</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <f>Reports!I39</f>
         <v>57.771999999999998</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="50"/>
-      <c r="O45" s="50"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
+      <c r="D45" s="50">
+        <f>Reports!M39</f>
+        <v>91</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
       <c r="U45" s="16"/>
       <c r="V45" s="16"/>
       <c r="W45" s="16"/>
@@ -3751,31 +4068,34 @@
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="50">
+      <c r="B46" s="49">
         <f>Reports!E40</f>
         <v>415.19600000000003</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <f>Reports!I40</f>
         <v>733.476</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="50"/>
-      <c r="O46" s="50"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
+      <c r="D46" s="50">
+        <f>Reports!M40</f>
+        <v>1329</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
       <c r="U46" s="16"/>
       <c r="V46" s="16"/>
       <c r="W46" s="16"/>
@@ -3881,31 +4201,34 @@
       <c r="A47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="50">
+      <c r="B47" s="49">
         <f>Reports!E41</f>
         <v>221.703</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <f>Reports!I41</f>
         <v>468.91</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
+      <c r="D47" s="50">
+        <f>Reports!M41</f>
+        <v>1246</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="49"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
       <c r="U47" s="16"/>
       <c r="V47" s="16"/>
       <c r="W47" s="16"/>
@@ -4011,15 +4334,18 @@
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="52">
+      <c r="B49" s="51">
         <f>B46-B45-B42</f>
         <v>132.89500000000004</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C49" s="51">
         <f>C46-C45-C42</f>
         <v>209.73399999999992</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="51">
+        <f>D46-D45-D42</f>
+        <v>252</v>
+      </c>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -4141,15 +4467,18 @@
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="51">
         <f>B46-B47</f>
         <v>193.49300000000002</v>
       </c>
-      <c r="C50" s="52">
+      <c r="C50" s="51">
         <f>C46-C47</f>
         <v>264.56599999999997</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="51">
+        <f>D46-D47</f>
+        <v>83</v>
+      </c>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
       <c r="G50" s="16"/>
@@ -4268,138 +4597,154 @@
       <c r="DP50" s="16"/>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="27">
+      <c r="B52" s="26">
         <f>B27/B50</f>
         <v>-0.46367362126795281</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C52" s="26">
         <f>C27/C50</f>
         <v>-0.420866626853035</v>
       </c>
+      <c r="D52" s="26">
+        <f>D27/D50</f>
+        <v>-1.9737192771084338</v>
+      </c>
     </row>
     <row r="53" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="27">
+      <c r="B53" s="26">
         <f>B27/B46</f>
         <v>-0.21608493338086107</v>
       </c>
-      <c r="C53" s="27">
+      <c r="C53" s="26">
         <f>C27/C46</f>
         <v>-0.1518072847646004</v>
       </c>
+      <c r="D53" s="26">
+        <f>D27/D46</f>
+        <v>-0.12326463506395786</v>
+      </c>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="26">
         <f>B27/(B50-B45)</f>
         <v>-0.47178570301736372</v>
       </c>
-      <c r="C54" s="27">
+      <c r="C54" s="26">
         <f>C27/(C50-C45)</f>
         <v>-0.53844405543681184</v>
       </c>
+      <c r="D54" s="26">
+        <f>D27/(D50-D45)</f>
+        <v>20.477337500000001</v>
+      </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.15">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="27">
+      <c r="B55" s="26">
         <f>B27/B49</f>
         <v>-0.67510139583882001</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <f>C27/C49</f>
         <v>-0.53089627814279083</v>
       </c>
+      <c r="D55" s="26">
+        <f>D27/D49</f>
+        <v>-0.65007420634920643</v>
+      </c>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27">
-        <f t="shared" ref="C57:H58" si="59">C10/B10-1</f>
+        <v>71</v>
+      </c>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26">
+        <f t="shared" ref="C57:H58" si="118">C10/B10-1</f>
         <v>0.63396554438368002</v>
       </c>
-      <c r="D57" s="27">
-        <f t="shared" si="59"/>
+      <c r="D57" s="26">
+        <f t="shared" si="118"/>
         <v>0.6203465089391933</v>
       </c>
-      <c r="E57" s="27">
-        <f t="shared" si="59"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F57" s="27">
-        <f t="shared" si="59"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G57" s="27">
-        <f t="shared" si="59"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="H57" s="27">
-        <f t="shared" si="59"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I57" s="27">
-        <f t="shared" ref="I57" si="60">I10/H10-1</f>
-        <v>0.60000000000000009</v>
+      <c r="E57" s="26">
+        <f t="shared" si="118"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F57" s="26">
+        <f t="shared" si="118"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G57" s="26">
+        <f t="shared" si="118"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H57" s="26">
+        <f t="shared" si="118"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I57" s="26">
+        <f t="shared" ref="I57" si="119">I10/H10-1</f>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27">
-        <f t="shared" si="59"/>
+        <v>72</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26">
+        <f t="shared" si="118"/>
         <v>0.36833482275841534</v>
       </c>
-      <c r="D58" s="27">
-        <f t="shared" si="59"/>
+      <c r="D58" s="26">
+        <f t="shared" si="118"/>
         <v>0.20912158484815491</v>
       </c>
-      <c r="E58" s="27">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="F58" s="27">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="27">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="H58" s="27">
-        <f t="shared" si="59"/>
-        <v>0.25</v>
-      </c>
-      <c r="I58" s="27">
-        <f t="shared" ref="I58" si="61">I11/H11-1</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:120" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="27" t="s">
+      <c r="E58" s="26">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F58" s="26">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="G58" s="26">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="H58" s="26">
+        <f t="shared" si="118"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="I58" s="26">
+        <f t="shared" ref="I58" si="120">I11/H11-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="60" spans="1:120" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:120" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:120" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B63" s="16">
         <f>Reports!E58</f>
@@ -4409,14 +4754,22 @@
         <f>Reports!I58</f>
         <v>13400</v>
       </c>
+      <c r="D63" s="16">
+        <f>Reports!M58</f>
+        <v>15900</v>
+      </c>
     </row>
     <row r="64" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="27">
+        <v>81</v>
+      </c>
+      <c r="C64" s="26">
         <f>C63/B63-1</f>
         <v>1.3508771929824563</v>
+      </c>
+      <c r="D64" s="26">
+        <f>D63/C63-1</f>
+        <v>0.18656716417910446</v>
       </c>
     </row>
   </sheetData>
@@ -4433,2036 +4786,2572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="29"/>
-    <col min="3" max="5" width="10.83203125" style="28"/>
-    <col min="6" max="6" width="10.83203125" style="29"/>
-    <col min="7" max="9" width="10.83203125" style="28"/>
-    <col min="10" max="10" width="10.83203125" style="29"/>
-    <col min="11" max="13" width="10.83203125" style="28"/>
-    <col min="14" max="16384" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.83203125" style="28"/>
+    <col min="3" max="5" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="10.83203125" style="28"/>
+    <col min="7" max="9" width="10.83203125" style="27"/>
+    <col min="10" max="10" width="10.83203125" style="28"/>
+    <col min="11" max="13" width="10.83203125" style="27"/>
+    <col min="14" max="14" width="10.83203125" style="68"/>
+    <col min="15" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="63">
+        <v>43585</v>
+      </c>
+      <c r="K2" s="64">
+        <v>43677</v>
+      </c>
+      <c r="L2" s="64">
+        <v>43769</v>
+      </c>
+      <c r="M2" s="64">
+        <v>43861</v>
+      </c>
+      <c r="N2" s="63">
+        <v>43951</v>
+      </c>
+      <c r="O2" s="64">
+        <v>44043</v>
+      </c>
+      <c r="P2" s="64">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <v>29.187000000000001</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>32.530999999999999</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>37.884999999999998</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>46.497999999999998</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>46.069000000000003</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>51.933</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>60.09</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>80.632000000000005</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="29">
         <v>83.994</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="30">
         <v>94</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="30">
         <v>104</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="30">
         <f>I3*1.3</f>
         <v>104.8216</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N3" s="67">
+        <v>124.85599999999999</v>
+      </c>
+      <c r="O3" s="8">
+        <v>132.47800000000001</v>
+      </c>
+      <c r="P3" s="8">
+        <v>144.06899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="30">
+        <v>69</v>
+      </c>
+      <c r="B4" s="29">
         <v>3.2029999999999998</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>3.069</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>3.6030000000000002</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>3.5529999999999999</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <v>4.07</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>4.5570000000000004</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>4.8949999999999996</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>4.8520000000000003</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="29">
         <v>5.3940000000000001</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="30">
         <v>5</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="30">
         <v>6</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <f>I4*1.2</f>
         <v>5.8224</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="63" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="67">
+        <v>5.4729999999999999</v>
+      </c>
+      <c r="O4" s="8">
+        <v>5.8029999999999999</v>
+      </c>
+      <c r="P4" s="8">
+        <v>6.702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" s="62" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M8" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="56"/>
+    </row>
+    <row r="8" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30">
+        <v>109</v>
+      </c>
+      <c r="N8" s="67">
+        <v>119</v>
+      </c>
+      <c r="O8" s="8">
+        <v>125</v>
+      </c>
+      <c r="P8" s="8">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <f t="shared" ref="B9:J9" si="0">SUM(B3:B4)</f>
         <v>32.39</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <f t="shared" si="0"/>
         <v>35.6</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <f t="shared" si="0"/>
         <v>41.488</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
         <v>50.050999999999995</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <f t="shared" si="0"/>
         <v>50.139000000000003</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="32">
         <f t="shared" si="0"/>
         <v>56.49</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="32">
         <f t="shared" si="0"/>
         <v>64.984999999999999</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="32">
         <f t="shared" si="0"/>
         <v>85.484000000000009</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="33">
         <f t="shared" si="0"/>
         <v>89.388000000000005</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="32">
         <f>SUM(K3:K4)</f>
         <v>99</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="32">
         <f>SUM(L3:L4)</f>
         <v>110</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <f>SUM(M3:M4)</f>
         <v>110.64400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="N9" s="33">
+        <f>SUM(N3:N4)</f>
+        <v>130.32900000000001</v>
+      </c>
+      <c r="O9" s="32">
+        <f>SUM(O3:O4)</f>
+        <v>138.28100000000001</v>
+      </c>
+      <c r="P9" s="32">
+        <f>SUM(P3:P4)</f>
+        <v>150.77099999999999</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>9.1989999999999998</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>10.188000000000001</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>11.071</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>12.401</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>13.749000000000001</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>16.494</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <v>17.757999999999999</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <v>25.567</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <v>28.172000000000001</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="30">
         <v>30</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <v>32</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="N10" s="67">
+        <v>37.677</v>
+      </c>
+      <c r="O10" s="8">
+        <v>42.304000000000002</v>
+      </c>
+      <c r="P10" s="8">
+        <v>46.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <f t="shared" ref="B11:D11" si="1">B9-B10</f>
         <v>23.191000000000003</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <f t="shared" si="1"/>
         <v>25.411999999999999</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <f t="shared" si="1"/>
         <v>30.417000000000002</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <f t="shared" ref="E11" si="2">E9-E10</f>
         <v>37.649999999999991</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <f>F9-F10</f>
         <v>36.39</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="34">
         <f>G9-G10</f>
         <v>39.996000000000002</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="34">
         <f t="shared" ref="H11:I11" si="3">H9-H10</f>
         <v>47.227000000000004</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="34">
         <f t="shared" si="3"/>
         <v>59.917000000000009</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <f t="shared" ref="J11:K11" si="4">J9-J10</f>
         <v>61.216000000000008</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="34">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="L11" s="35">
-        <f t="shared" ref="L11:M11" si="5">L9-L10</f>
+      <c r="L11" s="34">
+        <f t="shared" ref="L11:P11" si="5">L9-L10</f>
         <v>78</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="34">
         <f t="shared" si="5"/>
         <v>78.644000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="N11" s="35">
+        <f t="shared" si="5"/>
+        <v>92.652000000000015</v>
+      </c>
+      <c r="O11" s="34">
+        <f t="shared" si="5"/>
+        <v>95.977000000000004</v>
+      </c>
+      <c r="P11" s="34">
+        <f t="shared" si="5"/>
+        <v>104.66099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <v>13.077</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>15.749000000000001</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>16.588000000000001</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>16.788</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>18.645</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>21.43</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="30">
         <v>23.178999999999998</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <v>26.6</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <v>30.867999999999999</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <v>37</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>39</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <f>I12*1.6</f>
         <v>42.56</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="N12" s="67">
+        <v>46</v>
+      </c>
+      <c r="O12" s="8">
+        <v>49</v>
+      </c>
+      <c r="P12" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <v>22.145</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>26.891999999999999</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>28.05</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>31.533999999999999</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="29">
         <v>33.197000000000003</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>37.880000000000003</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>38.116</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <v>42.481999999999999</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <v>46.12</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="30">
         <v>54</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>57</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <f>I13*1.5</f>
         <v>63.722999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="N13" s="67">
+        <v>69</v>
+      </c>
+      <c r="O13" s="8">
+        <v>75</v>
+      </c>
+      <c r="P13" s="8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <v>7.7709999999999999</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>8.9329999999999998</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>9.8290000000000006</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>10.242000000000001</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>11.227</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="30">
         <v>12.254</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>14.986000000000001</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <v>14.569000000000001</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <v>14.805</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="30">
         <v>16</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>20</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <f>I14*1.3</f>
         <v>18.939700000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="N14" s="67">
+        <v>20</v>
+      </c>
+      <c r="O14" s="8">
+        <v>21</v>
+      </c>
+      <c r="P14" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <f t="shared" ref="B15:D15" si="6">SUM(B12:B14)</f>
         <v>42.993000000000002</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <f t="shared" si="6"/>
         <v>51.573999999999998</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <f t="shared" si="6"/>
         <v>54.467000000000006</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <f t="shared" ref="E15:F15" si="7">SUM(E12:E14)</f>
         <v>58.564000000000007</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <f t="shared" si="7"/>
         <v>63.069000000000003</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <f t="shared" ref="G15:H15" si="8">SUM(G12:G14)</f>
         <v>71.564000000000007</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <f t="shared" si="8"/>
         <v>76.281000000000006</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="34">
         <f t="shared" ref="I15:K15" si="9">SUM(I12:I14)</f>
         <v>83.650999999999996</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <f t="shared" si="9"/>
         <v>91.793000000000006</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <f t="shared" si="9"/>
         <v>107</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="34">
         <f t="shared" ref="L15:M15" si="10">SUM(L12:L14)</f>
         <v>116</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="34">
         <f t="shared" si="10"/>
         <v>125.2227</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="N15" s="35">
+        <f t="shared" ref="N15:O15" si="11">SUM(N12:N14)</f>
+        <v>135</v>
+      </c>
+      <c r="O15" s="34">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" ref="P15" si="12">SUM(P12:P14)</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="36">
-        <f t="shared" ref="B16:H16" si="11">B11-B15</f>
+      <c r="B16" s="35">
+        <f t="shared" ref="B16:H16" si="13">B11-B15</f>
         <v>-19.802</v>
       </c>
-      <c r="C16" s="35">
-        <f t="shared" si="11"/>
+      <c r="C16" s="34">
+        <f t="shared" si="13"/>
         <v>-26.161999999999999</v>
       </c>
-      <c r="D16" s="35">
-        <f t="shared" si="11"/>
+      <c r="D16" s="34">
+        <f t="shared" si="13"/>
         <v>-24.050000000000004</v>
       </c>
-      <c r="E16" s="35">
-        <f t="shared" si="11"/>
+      <c r="E16" s="34">
+        <f t="shared" si="13"/>
         <v>-20.914000000000016</v>
       </c>
-      <c r="F16" s="36">
-        <f t="shared" si="11"/>
+      <c r="F16" s="35">
+        <f t="shared" si="13"/>
         <v>-26.679000000000002</v>
       </c>
-      <c r="G16" s="35">
-        <f t="shared" si="11"/>
+      <c r="G16" s="34">
+        <f t="shared" si="13"/>
         <v>-31.568000000000005</v>
       </c>
-      <c r="H16" s="35">
-        <f t="shared" si="11"/>
+      <c r="H16" s="34">
+        <f t="shared" si="13"/>
         <v>-29.054000000000002</v>
       </c>
-      <c r="I16" s="35">
-        <f t="shared" ref="I16:K16" si="12">I11-I15</f>
+      <c r="I16" s="34">
+        <f t="shared" ref="I16:K16" si="14">I11-I15</f>
         <v>-23.733999999999988</v>
       </c>
-      <c r="J16" s="36">
-        <f t="shared" si="12"/>
+      <c r="J16" s="35">
+        <f t="shared" si="14"/>
         <v>-30.576999999999998</v>
       </c>
-      <c r="K16" s="35">
-        <f t="shared" si="12"/>
+      <c r="K16" s="34">
+        <f t="shared" si="14"/>
         <v>-38</v>
       </c>
-      <c r="L16" s="35">
-        <f t="shared" ref="L16:M16" si="13">L11-L15</f>
+      <c r="L16" s="34">
+        <f t="shared" ref="L16:M16" si="15">L11-L15</f>
         <v>-38</v>
       </c>
-      <c r="M16" s="35">
-        <f t="shared" si="13"/>
+      <c r="M16" s="34">
+        <f t="shared" si="15"/>
         <v>-46.578699999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="N16" s="35">
+        <f t="shared" ref="N16:O16" si="16">N11-N15</f>
+        <v>-42.347999999999985</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="16"/>
+        <v>-49.022999999999996</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" ref="P16" si="17">P11-P15</f>
+        <v>-57.339000000000013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>0.34100000000000003</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>0.17</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>1.349</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <f>0.959-0.368</f>
         <v>0.59099999999999997</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="30">
         <v>-0.432</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="30">
         <v>-2.2989999999999999</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="30">
         <v>-2.4239999999999999</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <f>2.303-4.689-0.415</f>
         <v>-2.8010000000000002</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="30">
         <f>2-5</f>
         <v>-3</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="30">
         <f>2-5</f>
         <v>-3</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <f>2-5</f>
         <v>-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="N17" s="67">
+        <v>-12</v>
+      </c>
+      <c r="O17" s="8">
+        <v>-14</v>
+      </c>
+      <c r="P17" s="8">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="36">
-        <f t="shared" ref="B18:C18" si="14">B16+B17</f>
+      <c r="B18" s="35">
+        <f t="shared" ref="B18:C18" si="18">B16+B17</f>
         <v>-19.460999999999999</v>
       </c>
-      <c r="C18" s="35">
-        <f t="shared" si="14"/>
+      <c r="C18" s="34">
+        <f t="shared" si="18"/>
         <v>-25.826999999999998</v>
       </c>
-      <c r="D18" s="35">
-        <f t="shared" ref="D18:F18" si="15">D16+D17</f>
+      <c r="D18" s="34">
+        <f t="shared" ref="D18:F18" si="19">D16+D17</f>
         <v>-23.880000000000003</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <f>E16+E17</f>
         <v>-19.565000000000015</v>
       </c>
-      <c r="F18" s="36">
-        <f t="shared" si="15"/>
+      <c r="F18" s="35">
+        <f t="shared" si="19"/>
         <v>-26.088000000000001</v>
       </c>
-      <c r="G18" s="35">
-        <f t="shared" ref="G18" si="16">G16+G17</f>
+      <c r="G18" s="34">
+        <f t="shared" ref="G18" si="20">G16+G17</f>
         <v>-32.000000000000007</v>
       </c>
-      <c r="H18" s="35">
-        <f t="shared" ref="H18:M18" si="17">H16+H17</f>
+      <c r="H18" s="34">
+        <f t="shared" ref="H18:P18" si="21">H16+H17</f>
         <v>-31.353000000000002</v>
       </c>
-      <c r="I18" s="35">
-        <f t="shared" si="17"/>
+      <c r="I18" s="34">
+        <f t="shared" si="21"/>
         <v>-26.157999999999987</v>
       </c>
-      <c r="J18" s="36">
-        <f t="shared" si="17"/>
+      <c r="J18" s="35">
+        <f t="shared" si="21"/>
         <v>-33.378</v>
       </c>
-      <c r="K18" s="35">
-        <f t="shared" si="17"/>
+      <c r="K18" s="34">
+        <f t="shared" si="21"/>
         <v>-41</v>
       </c>
-      <c r="L18" s="35">
-        <f t="shared" si="17"/>
+      <c r="L18" s="34">
+        <f t="shared" si="21"/>
         <v>-41</v>
       </c>
-      <c r="M18" s="35">
-        <f t="shared" si="17"/>
+      <c r="M18" s="34">
+        <f t="shared" si="21"/>
         <v>-49.578699999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="N18" s="35">
+        <f t="shared" si="21"/>
+        <v>-54.347999999999985</v>
+      </c>
+      <c r="O18" s="34">
+        <f t="shared" si="21"/>
+        <v>-63.022999999999996</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="21"/>
+        <v>-71.339000000000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>0.22900000000000001</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>0.252</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>0.47</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>-0.46700000000000003</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="30">
         <v>0.246</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="30">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="30">
         <v>-3.9980000000000002</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <v>-0.13800000000000001</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="30">
         <v>-3</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
         <v>1</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-    </row>
-    <row r="21" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="N19" s="67">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="71"/>
+    </row>
+    <row r="21" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="34">
-        <f t="shared" ref="B21:G21" si="18">B18-B19</f>
+      <c r="B21" s="33">
+        <f t="shared" ref="B21:G21" si="22">B18-B19</f>
         <v>-19.689999999999998</v>
       </c>
-      <c r="C21" s="33">
-        <f t="shared" si="18"/>
+      <c r="C21" s="32">
+        <f t="shared" si="22"/>
         <v>-26.078999999999997</v>
       </c>
-      <c r="D21" s="33">
-        <f t="shared" si="18"/>
+      <c r="D21" s="32">
+        <f t="shared" si="22"/>
         <v>-23.913600000000002</v>
       </c>
-      <c r="E21" s="33">
-        <f t="shared" si="18"/>
+      <c r="E21" s="32">
+        <f t="shared" si="22"/>
         <v>-20.035000000000014</v>
       </c>
-      <c r="F21" s="34">
-        <f t="shared" si="18"/>
+      <c r="F21" s="33">
+        <f t="shared" si="22"/>
         <v>-25.621000000000002</v>
       </c>
-      <c r="G21" s="33">
-        <f t="shared" si="18"/>
+      <c r="G21" s="32">
+        <f t="shared" si="22"/>
         <v>-32.246000000000009</v>
       </c>
-      <c r="H21" s="33">
-        <f t="shared" ref="H21:M21" si="19">H18-H19</f>
+      <c r="H21" s="32">
+        <f t="shared" ref="H21:M21" si="23">H18-H19</f>
         <v>-31.32</v>
       </c>
-      <c r="I21" s="33">
-        <f t="shared" si="19"/>
+      <c r="I21" s="32">
+        <f t="shared" si="23"/>
         <v>-22.159999999999986</v>
       </c>
-      <c r="J21" s="34">
-        <f t="shared" si="19"/>
+      <c r="J21" s="33">
+        <f t="shared" si="23"/>
         <v>-33.24</v>
       </c>
-      <c r="K21" s="33">
-        <f t="shared" si="19"/>
+      <c r="K21" s="32">
+        <f t="shared" si="23"/>
         <v>-38</v>
       </c>
-      <c r="L21" s="33">
-        <f t="shared" si="19"/>
+      <c r="L21" s="32">
+        <f t="shared" si="23"/>
         <v>-42</v>
       </c>
-      <c r="M21" s="33">
-        <f t="shared" si="19"/>
+      <c r="M21" s="32">
+        <f t="shared" si="23"/>
         <v>-50.578699999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="33">
+        <f t="shared" ref="N21:O21" si="24">N18-N19</f>
+        <v>-54.347999999999985</v>
+      </c>
+      <c r="O21" s="32">
+        <f t="shared" si="24"/>
+        <v>-64.022999999999996</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" ref="P21" si="25">P18-P19</f>
+        <v>-72.339000000000013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="38">
-        <f t="shared" ref="B22:D22" si="20">IFERROR(B21/B23,0)</f>
+      <c r="B22" s="37">
+        <f t="shared" ref="B22:D22" si="26">IFERROR(B21/B23,0)</f>
         <v>-1.4956824607645418</v>
       </c>
-      <c r="C22" s="37">
-        <f t="shared" si="20"/>
+      <c r="C22" s="36">
+        <f t="shared" si="26"/>
         <v>-1.9175121972201623</v>
       </c>
-      <c r="D22" s="37">
-        <f t="shared" si="20"/>
+      <c r="D22" s="36">
+        <f t="shared" si="26"/>
         <v>-1.3726375504674018</v>
       </c>
-      <c r="E22" s="37">
-        <f t="shared" ref="E22" si="21">IFERROR(E21/E23,0)</f>
+      <c r="E22" s="36">
+        <f t="shared" ref="E22" si="27">IFERROR(E21/E23,0)</f>
         <v>-0.39841182526864438</v>
       </c>
-      <c r="F22" s="38">
-        <f t="shared" ref="F22:M22" si="22">IFERROR(F21/F23,0)</f>
+      <c r="F22" s="37">
+        <f t="shared" ref="F22:M22" si="28">IFERROR(F21/F23,0)</f>
         <v>-0.50885746850867208</v>
       </c>
-      <c r="G22" s="37">
-        <f t="shared" si="22"/>
+      <c r="G22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.62998607919491212</v>
       </c>
-      <c r="H22" s="37">
-        <f t="shared" si="22"/>
+      <c r="H22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.5942789155874616</v>
       </c>
-      <c r="I22" s="37">
-        <f t="shared" si="22"/>
+      <c r="I22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.4117003072202069</v>
       </c>
-      <c r="J22" s="38">
-        <f t="shared" si="22"/>
+      <c r="J22" s="37">
+        <f t="shared" si="28"/>
         <v>-0.60755888797421997</v>
       </c>
-      <c r="K22" s="37">
-        <f t="shared" si="22"/>
+      <c r="K22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.6785714285714286</v>
       </c>
-      <c r="L22" s="37">
-        <f t="shared" si="22"/>
+      <c r="L22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.75</v>
       </c>
-      <c r="M22" s="37">
-        <f t="shared" si="22"/>
+      <c r="M22" s="36">
+        <f t="shared" si="28"/>
         <v>-0.90319107142857136</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N22" s="37">
+        <f t="shared" ref="N22:O22" si="29">IFERROR(N21/N23,0)</f>
+        <v>-0.94273111431067469</v>
+      </c>
+      <c r="O22" s="36">
+        <f t="shared" si="29"/>
+        <v>-1.0963988803349882</v>
+      </c>
+      <c r="P22" s="36">
+        <f t="shared" ref="P22" si="30">IFERROR(P21/P23,0)</f>
+        <v>-1.2184812780222778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <v>13.164559000000001</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>13.600434999999999</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>17.421641999999999</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <v>50.287162000000002</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>50.350051999999998</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <v>51.185257999999997</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="30">
         <v>52.702525999999999</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="30">
         <v>53.825561</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <v>54.710746</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="30">
         <v>56</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="30">
         <v>56</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="67">
+        <v>57.649524</v>
+      </c>
+      <c r="O23" s="8">
+        <v>58.393894000000003</v>
+      </c>
+      <c r="P23" s="8">
+        <v>59.368167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="44">
-        <f t="shared" ref="B25:I25" si="23">IFERROR(B11/B9,0)</f>
+      <c r="B25" s="43">
+        <f t="shared" ref="B25:I25" si="31">IFERROR(B11/B9,0)</f>
         <v>0.71599259030564999</v>
       </c>
-      <c r="C25" s="43">
-        <f t="shared" si="23"/>
+      <c r="C25" s="42">
+        <f t="shared" si="31"/>
         <v>0.71382022471910112</v>
       </c>
-      <c r="D25" s="43">
-        <f t="shared" si="23"/>
+      <c r="D25" s="42">
+        <f t="shared" si="31"/>
         <v>0.73315175472425764</v>
       </c>
-      <c r="E25" s="43">
-        <f t="shared" si="23"/>
+      <c r="E25" s="42">
+        <f t="shared" si="31"/>
         <v>0.75223272262292451</v>
       </c>
-      <c r="F25" s="44">
-        <f t="shared" si="23"/>
+      <c r="F25" s="43">
+        <f t="shared" si="31"/>
         <v>0.72578232513612151</v>
       </c>
-      <c r="G25" s="43">
-        <f t="shared" si="23"/>
+      <c r="G25" s="42">
+        <f t="shared" si="31"/>
         <v>0.70801911842804033</v>
       </c>
-      <c r="H25" s="43">
-        <f t="shared" si="23"/>
+      <c r="H25" s="42">
+        <f t="shared" si="31"/>
         <v>0.72673693929368322</v>
       </c>
-      <c r="I25" s="43">
-        <f t="shared" si="23"/>
+      <c r="I25" s="42">
+        <f t="shared" si="31"/>
         <v>0.70091479107201349</v>
       </c>
-      <c r="J25" s="44">
-        <f t="shared" ref="J25:K25" si="24">IFERROR(J11/J9,0)</f>
+      <c r="J25" s="43">
+        <f t="shared" ref="J25:K25" si="32">IFERROR(J11/J9,0)</f>
         <v>0.68483465342104088</v>
       </c>
-      <c r="K25" s="43">
-        <f t="shared" si="24"/>
+      <c r="K25" s="42">
+        <f t="shared" si="32"/>
         <v>0.69696969696969702</v>
       </c>
-      <c r="L25" s="43">
-        <f t="shared" ref="L25:M25" si="25">IFERROR(L11/L9,0)</f>
+      <c r="L25" s="42">
+        <f t="shared" ref="L25:M25" si="33">IFERROR(L11/L9,0)</f>
         <v>0.70909090909090911</v>
       </c>
-      <c r="M25" s="43">
-        <f t="shared" si="25"/>
+      <c r="M25" s="42">
+        <f t="shared" si="33"/>
         <v>0.71078413650988759</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N25" s="43">
+        <f t="shared" ref="N25:O25" si="34">IFERROR(N11/N9,0)</f>
+        <v>0.71090854683148041</v>
+      </c>
+      <c r="O25" s="42">
+        <f t="shared" si="34"/>
+        <v>0.69407221527180163</v>
+      </c>
+      <c r="P25" s="42">
+        <f t="shared" ref="P25" si="35">IFERROR(P11/P9,0)</f>
+        <v>0.69417195614541261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="46">
-        <f t="shared" ref="B26:I26" si="26">IFERROR(B16/B9,0)</f>
+      <c r="B26" s="45">
+        <f t="shared" ref="B26:I26" si="36">IFERROR(B16/B9,0)</f>
         <v>-0.61136153133683235</v>
       </c>
-      <c r="C26" s="45">
-        <f t="shared" si="26"/>
+      <c r="C26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.73488764044943811</v>
       </c>
-      <c r="D26" s="45">
-        <f t="shared" si="26"/>
+      <c r="D26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.57968569224836108</v>
       </c>
-      <c r="E26" s="45">
-        <f t="shared" si="26"/>
+      <c r="E26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.41785378913508259</v>
       </c>
-      <c r="F26" s="46">
-        <f t="shared" si="26"/>
+      <c r="F26" s="45">
+        <f t="shared" si="36"/>
         <v>-0.53210075988751271</v>
       </c>
-      <c r="G26" s="45">
-        <f t="shared" si="26"/>
+      <c r="G26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.55882457072048153</v>
       </c>
-      <c r="H26" s="45">
-        <f t="shared" si="26"/>
+      <c r="H26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.44708778948988231</v>
       </c>
-      <c r="I26" s="45">
-        <f t="shared" si="26"/>
+      <c r="I26" s="44">
+        <f t="shared" si="36"/>
         <v>-0.27764259978475486</v>
       </c>
-      <c r="J26" s="46">
-        <f t="shared" ref="J26:K26" si="27">IFERROR(J16/J9,0)</f>
+      <c r="J26" s="45">
+        <f t="shared" ref="J26:K26" si="37">IFERROR(J16/J9,0)</f>
         <v>-0.34207052400769672</v>
       </c>
-      <c r="K26" s="45">
-        <f t="shared" si="27"/>
+      <c r="K26" s="44">
+        <f t="shared" si="37"/>
         <v>-0.38383838383838381</v>
       </c>
-      <c r="L26" s="45">
-        <f t="shared" ref="L26:M26" si="28">IFERROR(L16/L9,0)</f>
+      <c r="L26" s="44">
+        <f t="shared" ref="L26:M26" si="38">IFERROR(L16/L9,0)</f>
         <v>-0.34545454545454546</v>
       </c>
-      <c r="M26" s="45">
-        <f t="shared" si="28"/>
+      <c r="M26" s="44">
+        <f t="shared" si="38"/>
         <v>-0.42097809189834057</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N26" s="45">
+        <f t="shared" ref="N26:O26" si="39">IFERROR(N16/N9,0)</f>
+        <v>-0.32493151946228377</v>
+      </c>
+      <c r="O26" s="44">
+        <f t="shared" si="39"/>
+        <v>-0.35451725110463472</v>
+      </c>
+      <c r="P26" s="44">
+        <f t="shared" ref="P26" si="40">IFERROR(P16/P9,0)</f>
+        <v>-0.38030523111208403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="46">
-        <f t="shared" ref="B27:I27" si="29">IFERROR(B19/B18,0)</f>
+      <c r="B27" s="45">
+        <f t="shared" ref="B27:I27" si="41">IFERROR(B19/B18,0)</f>
         <v>-1.1767123991572891E-2</v>
       </c>
-      <c r="C27" s="45">
-        <f t="shared" si="29"/>
+      <c r="C27" s="44">
+        <f t="shared" si="41"/>
         <v>-9.757230804971543E-3</v>
       </c>
-      <c r="D27" s="45">
-        <f t="shared" si="29"/>
+      <c r="D27" s="44">
+        <f t="shared" si="41"/>
         <v>-1.4070351758793968E-3</v>
       </c>
-      <c r="E27" s="45">
-        <f t="shared" si="29"/>
+      <c r="E27" s="44">
+        <f t="shared" si="41"/>
         <v>-2.4022489138768189E-2</v>
       </c>
-      <c r="F27" s="46">
-        <f t="shared" si="29"/>
+      <c r="F27" s="45">
+        <f t="shared" si="41"/>
         <v>1.7900950628641523E-2</v>
       </c>
-      <c r="G27" s="45">
-        <f t="shared" si="29"/>
+      <c r="G27" s="44">
+        <f t="shared" si="41"/>
         <v>-7.6874999999999982E-3</v>
       </c>
-      <c r="H27" s="45">
-        <f t="shared" si="29"/>
+      <c r="H27" s="44">
+        <f t="shared" si="41"/>
         <v>1.0525308582910726E-3</v>
       </c>
-      <c r="I27" s="45">
-        <f t="shared" si="29"/>
+      <c r="I27" s="44">
+        <f t="shared" si="41"/>
         <v>0.15284043122562896</v>
       </c>
-      <c r="J27" s="46">
-        <f t="shared" ref="J27:K27" si="30">IFERROR(J19/J18,0)</f>
+      <c r="J27" s="45">
+        <f t="shared" ref="J27:K27" si="42">IFERROR(J19/J18,0)</f>
         <v>4.1344598238360602E-3</v>
       </c>
-      <c r="K27" s="45">
-        <f t="shared" si="30"/>
+      <c r="K27" s="44">
+        <f t="shared" si="42"/>
         <v>7.3170731707317069E-2</v>
       </c>
-      <c r="L27" s="45">
-        <f t="shared" ref="L27:M27" si="31">IFERROR(L19/L18,0)</f>
+      <c r="L27" s="44">
+        <f t="shared" ref="L27:M27" si="43">IFERROR(L19/L18,0)</f>
         <v>-2.4390243902439025E-2</v>
       </c>
-      <c r="M27" s="45">
-        <f t="shared" si="31"/>
+      <c r="M27" s="44">
+        <f t="shared" si="43"/>
         <v>-2.0169952015684157E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N27" s="45">
+        <f t="shared" ref="N27:O27" si="44">IFERROR(N19/N18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="44">
+        <f t="shared" si="44"/>
+        <v>-1.5867223077289244E-2</v>
+      </c>
+      <c r="P27" s="44">
+        <f t="shared" ref="P27" si="45">IFERROR(P19/P18,0)</f>
+        <v>-1.4017578042865752E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+    </row>
+    <row r="29" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="40">
-        <f t="shared" ref="F29:K29" si="32">IFERROR((F9/B9)-1,0)</f>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="39">
+        <f t="shared" ref="F29:K29" si="46">IFERROR((F9/B9)-1,0)</f>
         <v>0.54797777091694977</v>
       </c>
-      <c r="G29" s="39">
-        <f t="shared" si="32"/>
+      <c r="G29" s="38">
+        <f t="shared" si="46"/>
         <v>0.58679775280898872</v>
       </c>
-      <c r="H29" s="39">
-        <f t="shared" si="32"/>
+      <c r="H29" s="38">
+        <f t="shared" si="46"/>
         <v>0.56635653682992682</v>
       </c>
-      <c r="I29" s="39">
-        <f t="shared" si="32"/>
+      <c r="I29" s="38">
+        <f t="shared" si="46"/>
         <v>0.70793790333859508</v>
       </c>
-      <c r="J29" s="40">
-        <f t="shared" si="32"/>
+      <c r="J29" s="39">
+        <f t="shared" si="46"/>
         <v>0.78280380542092987</v>
       </c>
-      <c r="K29" s="39">
-        <f t="shared" si="32"/>
+      <c r="K29" s="38">
+        <f t="shared" si="46"/>
         <v>0.75252257036643644</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="38">
         <f>IFERROR((L9/H9)-1,0)</f>
         <v>0.69269831499576817</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="38">
         <f>IFERROR((M9/I9)-1,0)</f>
         <v>0.29432408403911836</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N29" s="39">
+        <f>IFERROR((N9/J9)-1,0)</f>
+        <v>0.45801449859041488</v>
+      </c>
+      <c r="O29" s="38">
+        <f>IFERROR((O9/K9)-1,0)</f>
+        <v>0.3967777777777779</v>
+      </c>
+      <c r="P29" s="38">
+        <f>IFERROR((P9/L9)-1,0)</f>
+        <v>0.3706454545454545</v>
+      </c>
+      <c r="Q29" s="38">
+        <f>IFERROR((Q9/M9)-1,0)</f>
+        <v>0.40088933878023192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="42">
-        <f t="shared" ref="F30:M32" si="33">F12/B12-1</f>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="41">
+        <f t="shared" ref="F30:P32" si="47">F12/B12-1</f>
         <v>0.4257857306721724</v>
       </c>
-      <c r="G30" s="41">
-        <f t="shared" si="33"/>
+      <c r="G30" s="40">
+        <f t="shared" si="47"/>
         <v>0.36072131563908805</v>
       </c>
-      <c r="H30" s="41">
-        <f t="shared" si="33"/>
+      <c r="H30" s="40">
+        <f t="shared" si="47"/>
         <v>0.39733542319749193</v>
       </c>
-      <c r="I30" s="41">
-        <f t="shared" si="33"/>
+      <c r="I30" s="40">
+        <f t="shared" si="47"/>
         <v>0.58446509411484393</v>
       </c>
-      <c r="J30" s="42">
-        <f t="shared" si="33"/>
+      <c r="J30" s="41">
+        <f t="shared" si="47"/>
         <v>0.65556449450254761</v>
       </c>
-      <c r="K30" s="41">
-        <f t="shared" si="33"/>
+      <c r="K30" s="40">
+        <f t="shared" si="47"/>
         <v>0.72655156322911818</v>
       </c>
-      <c r="L30" s="41">
-        <f t="shared" si="33"/>
+      <c r="L30" s="40">
+        <f t="shared" si="47"/>
         <v>0.68255748738081889</v>
       </c>
-      <c r="M30" s="41">
-        <f t="shared" si="33"/>
+      <c r="M30" s="40">
+        <f t="shared" si="47"/>
         <v>0.60000000000000009</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N30" s="41">
+        <f t="shared" si="47"/>
+        <v>0.49021640533886224</v>
+      </c>
+      <c r="O30" s="40">
+        <f t="shared" si="47"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="P30" s="40">
+        <f t="shared" si="47"/>
+        <v>0.38461538461538458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="42">
-        <f t="shared" si="33"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="41">
+        <f t="shared" si="47"/>
         <v>0.49907428313389035</v>
       </c>
-      <c r="G31" s="41">
-        <f t="shared" si="33"/>
+      <c r="G31" s="40">
+        <f t="shared" si="47"/>
         <v>0.40859735237245287</v>
       </c>
-      <c r="H31" s="41">
-        <f t="shared" si="33"/>
+      <c r="H31" s="40">
+        <f t="shared" si="47"/>
         <v>0.35885918003565065</v>
       </c>
-      <c r="I31" s="41">
-        <f t="shared" si="33"/>
+      <c r="I31" s="40">
+        <f t="shared" si="47"/>
         <v>0.34718082070146505</v>
       </c>
-      <c r="J31" s="42">
-        <f t="shared" si="33"/>
+      <c r="J31" s="41">
+        <f t="shared" si="47"/>
         <v>0.38928216405096827</v>
       </c>
-      <c r="K31" s="41">
-        <f t="shared" si="33"/>
+      <c r="K31" s="40">
+        <f t="shared" si="47"/>
         <v>0.42555438225976761</v>
       </c>
-      <c r="L31" s="41">
-        <f t="shared" si="33"/>
+      <c r="L31" s="40">
+        <f t="shared" si="47"/>
         <v>0.49543498793157736</v>
       </c>
-      <c r="M31" s="41">
-        <f t="shared" si="33"/>
+      <c r="M31" s="40">
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N31" s="41">
+        <f t="shared" si="47"/>
+        <v>0.49609713790112764</v>
+      </c>
+      <c r="O31" s="40">
+        <f t="shared" si="47"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="P31" s="40">
+        <f t="shared" si="47"/>
+        <v>0.45614035087719307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="42">
-        <f t="shared" si="33"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="41">
+        <f t="shared" si="47"/>
         <v>0.44473040792690788</v>
       </c>
-      <c r="G32" s="41">
-        <f t="shared" si="33"/>
+      <c r="G32" s="40">
+        <f t="shared" si="47"/>
         <v>0.37176760326877867</v>
       </c>
-      <c r="H32" s="41">
-        <f t="shared" si="33"/>
+      <c r="H32" s="40">
+        <f t="shared" si="47"/>
         <v>0.52467188930715225</v>
       </c>
-      <c r="I32" s="41">
-        <f t="shared" si="33"/>
+      <c r="I32" s="40">
+        <f t="shared" si="47"/>
         <v>0.42247607889084149</v>
       </c>
-      <c r="J32" s="42">
-        <f t="shared" si="33"/>
+      <c r="J32" s="41">
+        <f t="shared" si="47"/>
         <v>0.31869600071256787</v>
       </c>
-      <c r="K32" s="41">
-        <f t="shared" si="33"/>
+      <c r="K32" s="40">
+        <f t="shared" si="47"/>
         <v>0.30569609923290364</v>
       </c>
-      <c r="L32" s="41">
-        <f t="shared" si="33"/>
+      <c r="L32" s="40">
+        <f t="shared" si="47"/>
         <v>0.33457894034432134</v>
       </c>
-      <c r="M32" s="41">
-        <f t="shared" si="33"/>
+      <c r="M32" s="40">
+        <f t="shared" si="47"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="61">
-        <f t="shared" ref="F33:M33" si="34">F15/B15-1</f>
+      <c r="N32" s="41">
+        <f t="shared" si="47"/>
+        <v>0.35089496791624453</v>
+      </c>
+      <c r="O32" s="40">
+        <f t="shared" si="47"/>
+        <v>0.3125</v>
+      </c>
+      <c r="P32" s="40">
+        <f t="shared" si="47"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="60">
+        <f t="shared" ref="F33:P33" si="48">F15/B15-1</f>
         <v>0.46695973763170739</v>
       </c>
-      <c r="G33" s="60">
-        <f t="shared" si="34"/>
+      <c r="G33" s="59">
+        <f t="shared" si="48"/>
         <v>0.38759840229573062</v>
       </c>
-      <c r="H33" s="60">
-        <f t="shared" si="34"/>
+      <c r="H33" s="59">
+        <f t="shared" si="48"/>
         <v>0.40049938494868442</v>
       </c>
-      <c r="I33" s="60">
-        <f t="shared" si="34"/>
+      <c r="I33" s="59">
+        <f t="shared" si="48"/>
         <v>0.42836896386858792</v>
       </c>
-      <c r="J33" s="61">
-        <f t="shared" si="34"/>
+      <c r="J33" s="60">
+        <f t="shared" si="48"/>
         <v>0.45543769522269262</v>
       </c>
-      <c r="K33" s="60">
-        <f t="shared" si="34"/>
+      <c r="K33" s="59">
+        <f t="shared" si="48"/>
         <v>0.4951651668436643</v>
       </c>
-      <c r="L33" s="60">
-        <f t="shared" si="34"/>
+      <c r="L33" s="59">
+        <f t="shared" si="48"/>
         <v>0.52069322636043047</v>
       </c>
-      <c r="M33" s="60">
-        <f t="shared" si="34"/>
+      <c r="M33" s="59">
+        <f t="shared" si="48"/>
         <v>0.49696596573860452</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B34" s="61"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-    </row>
-    <row r="35" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="N33" s="60">
+        <f t="shared" si="48"/>
+        <v>0.47070038020328342</v>
+      </c>
+      <c r="O33" s="59">
+        <f t="shared" si="48"/>
+        <v>0.35514018691588789</v>
+      </c>
+      <c r="P33" s="59">
+        <f t="shared" si="48"/>
+        <v>0.39655172413793105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B34" s="60"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+    </row>
+    <row r="35" spans="1:16" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="33">
-        <f t="shared" ref="E35:H35" si="35">E36-E37</f>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="32">
+        <f t="shared" ref="E35:H35" si="49">E36-E37</f>
         <v>278.97399999999999</v>
       </c>
-      <c r="F35" s="34">
-        <f t="shared" si="35"/>
+      <c r="F35" s="33">
+        <f t="shared" si="49"/>
         <v>270.988</v>
       </c>
-      <c r="G35" s="33">
-        <f t="shared" si="35"/>
+      <c r="G35" s="32">
+        <f t="shared" si="49"/>
         <v>312.12400000000002</v>
       </c>
-      <c r="H35" s="33">
-        <f t="shared" si="35"/>
+      <c r="H35" s="32">
+        <f t="shared" si="49"/>
         <v>308.47900000000004</v>
       </c>
-      <c r="I35" s="33">
-        <f t="shared" ref="I35:K35" si="36">I36-I37</f>
+      <c r="I35" s="32">
+        <f t="shared" ref="I35:K35" si="50">I36-I37</f>
         <v>249.11200000000002</v>
       </c>
-      <c r="J35" s="34">
-        <f t="shared" si="36"/>
+      <c r="J35" s="33">
+        <f t="shared" si="50"/>
         <v>256.327</v>
       </c>
-      <c r="K35" s="33">
-        <f t="shared" si="36"/>
+      <c r="K35" s="32">
+        <f t="shared" si="50"/>
         <v>213</v>
       </c>
-      <c r="L35" s="33">
-        <f t="shared" ref="L35:M35" si="37">L36-L37</f>
+      <c r="L35" s="32">
+        <f t="shared" ref="L35:P35" si="51">L36-L37</f>
         <v>199</v>
       </c>
-      <c r="M35" s="33">
-        <f t="shared" si="37"/>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
+      <c r="M35" s="32">
+        <f t="shared" si="51"/>
+        <v>75</v>
+      </c>
+      <c r="N35" s="33">
+        <f t="shared" si="51"/>
+        <v>54</v>
+      </c>
+      <c r="O35" s="32">
+        <f t="shared" si="51"/>
+        <v>39</v>
+      </c>
+      <c r="P35" s="32">
+        <f t="shared" si="51"/>
         <v>19</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31">
+    </row>
+    <row r="36" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30">
         <f>61.902+217.072</f>
         <v>278.97399999999999</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="29">
         <f>111.617+159.371</f>
         <v>270.988</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <f>122.771+399.906</f>
         <v>522.67700000000002</v>
       </c>
-      <c r="H36" s="31">
+      <c r="H36" s="30">
         <f>139.49+382.681</f>
         <v>522.17100000000005</v>
       </c>
-      <c r="I36" s="31">
+      <c r="I36" s="30">
         <f>147.831+318.139</f>
         <v>465.97</v>
       </c>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <f>158.06+318.346</f>
         <v>476.40600000000001</v>
       </c>
-      <c r="K36" s="31">
+      <c r="K36" s="30">
         <f>187+249</f>
         <v>436</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <f>151+275</f>
         <v>426</v>
       </c>
-      <c r="M36" s="31">
-        <f>151+275</f>
-        <v>426</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
+      <c r="M36" s="30">
+        <f>706+280</f>
+        <v>986</v>
+      </c>
+      <c r="N36" s="67">
+        <f>701+276</f>
+        <v>977</v>
+      </c>
+      <c r="O36" s="8">
+        <f>469+505</f>
+        <v>974</v>
+      </c>
+      <c r="P36" s="8">
+        <f>415+552</f>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31">
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30">
         <v>0</v>
       </c>
-      <c r="F37" s="30">
+      <c r="F37" s="29">
         <v>0</v>
       </c>
-      <c r="G37" s="31">
+      <c r="G37" s="30">
         <v>210.553</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="30">
         <v>213.69200000000001</v>
       </c>
-      <c r="I37" s="31">
+      <c r="I37" s="30">
         <v>216.858</v>
       </c>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <v>220.07900000000001</v>
       </c>
-      <c r="K37" s="31">
+      <c r="K37" s="30">
         <v>223</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="30">
         <v>227</v>
       </c>
-      <c r="M37" s="31">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="26" t="s">
+      <c r="M37" s="30">
+        <v>911</v>
+      </c>
+      <c r="N37" s="67">
+        <v>923</v>
+      </c>
+      <c r="O37" s="8">
+        <v>935</v>
+      </c>
+      <c r="P37" s="8">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="67"/>
+    </row>
+    <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="47">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="46">
         <f>1.7+1.627</f>
         <v>3.327</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="29">
         <f>1.7+1.406</f>
         <v>3.1059999999999999</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="30">
         <f>1.7+1.185</f>
         <v>2.8849999999999998</v>
       </c>
-      <c r="H39" s="31">
+      <c r="H39" s="30">
         <f>1.7+0.965</f>
         <v>2.665</v>
       </c>
-      <c r="I39" s="31">
+      <c r="I39" s="30">
         <f>41.878+15.894</f>
         <v>57.771999999999998</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <f>41.878+14.223</f>
         <v>56.100999999999999</v>
       </c>
-      <c r="K39" s="31">
+      <c r="K39" s="30">
         <f>55+12</f>
         <v>67</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="30">
         <f>12+55</f>
         <v>67</v>
       </c>
-      <c r="M39" s="31">
-        <f>12+55</f>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="26" t="s">
+      <c r="M39" s="30">
+        <f>56+35</f>
+        <v>91</v>
+      </c>
+      <c r="N39" s="67">
+        <f>56+33</f>
+        <v>89</v>
+      </c>
+      <c r="O39" s="8">
+        <f>56+31</f>
+        <v>87</v>
+      </c>
+      <c r="P39" s="8">
+        <f>56+28</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="47">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="46">
         <v>415.19600000000003</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="29">
         <v>400.22699999999998</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="30">
         <v>663.93</v>
       </c>
-      <c r="H40" s="31">
+      <c r="H40" s="30">
         <v>670.67</v>
       </c>
-      <c r="I40" s="31">
+      <c r="I40" s="30">
         <v>733.476</v>
       </c>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <v>734.24099999999999</v>
       </c>
-      <c r="K40" s="31">
+      <c r="K40" s="30">
         <v>742</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="30">
         <v>735</v>
       </c>
-      <c r="M40" s="31">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="26" t="s">
+      <c r="M40" s="30">
+        <v>1329</v>
+      </c>
+      <c r="N40" s="67">
+        <v>1337</v>
+      </c>
+      <c r="O40" s="8">
+        <v>1355</v>
+      </c>
+      <c r="P40" s="8">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="47">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="46">
         <v>221.703</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="29">
         <v>227.72</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>455.30599999999998</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="30">
         <v>473.42500000000001</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="30">
         <v>468.91</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>486.37299999999999</v>
       </c>
-      <c r="K41" s="31">
+      <c r="K41" s="30">
         <v>502</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="30">
         <v>516</v>
       </c>
-      <c r="M41" s="31">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E42" s="48"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="26" t="s">
+      <c r="M41" s="30">
+        <v>1246</v>
+      </c>
+      <c r="N41" s="67">
+        <v>1274</v>
+      </c>
+      <c r="O41" s="8">
+        <v>1307</v>
+      </c>
+      <c r="P41" s="8">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E42" s="47"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="35">
-        <f t="shared" ref="E43:G43" si="38">E40-E36-E39</f>
+      <c r="E43" s="34">
+        <f t="shared" ref="E43:G43" si="52">E40-E36-E39</f>
         <v>132.89500000000004</v>
       </c>
-      <c r="F43" s="36">
-        <f t="shared" si="38"/>
+      <c r="F43" s="35">
+        <f t="shared" si="52"/>
         <v>126.13299999999998</v>
       </c>
-      <c r="G43" s="35">
-        <f t="shared" si="38"/>
+      <c r="G43" s="34">
+        <f t="shared" si="52"/>
         <v>138.36799999999994</v>
       </c>
-      <c r="H43" s="35">
-        <f t="shared" ref="H43:M43" si="39">H40-H36-H39</f>
+      <c r="H43" s="34">
+        <f t="shared" ref="H43:M43" si="53">H40-H36-H39</f>
         <v>145.83399999999992</v>
       </c>
-      <c r="I43" s="35">
-        <f t="shared" si="39"/>
+      <c r="I43" s="34">
+        <f t="shared" si="53"/>
         <v>209.73399999999998</v>
       </c>
-      <c r="J43" s="36">
-        <f t="shared" si="39"/>
+      <c r="J43" s="35">
+        <f t="shared" si="53"/>
         <v>201.73399999999998</v>
       </c>
-      <c r="K43" s="35">
-        <f t="shared" si="39"/>
+      <c r="K43" s="34">
+        <f t="shared" si="53"/>
         <v>239</v>
       </c>
-      <c r="L43" s="35">
-        <f t="shared" si="39"/>
+      <c r="L43" s="34">
+        <f t="shared" si="53"/>
         <v>242</v>
       </c>
-      <c r="M43" s="35">
-        <f t="shared" si="39"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="26" t="s">
+      <c r="M43" s="34">
+        <f t="shared" si="53"/>
+        <v>252</v>
+      </c>
+      <c r="N43" s="35">
+        <f t="shared" ref="N43:O43" si="54">N40-N36-N39</f>
+        <v>271</v>
+      </c>
+      <c r="O43" s="34">
+        <f t="shared" si="54"/>
+        <v>294</v>
+      </c>
+      <c r="P43" s="34">
+        <f t="shared" ref="P43" si="55">P40-P36-P39</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="35">
-        <f t="shared" ref="E44:H44" si="40">E40-E41</f>
+      <c r="E44" s="34">
+        <f t="shared" ref="E44:H44" si="56">E40-E41</f>
         <v>193.49300000000002</v>
       </c>
-      <c r="F44" s="36">
-        <f t="shared" si="40"/>
+      <c r="F44" s="35">
+        <f t="shared" si="56"/>
         <v>172.50699999999998</v>
       </c>
-      <c r="G44" s="35">
-        <f t="shared" si="40"/>
+      <c r="G44" s="34">
+        <f t="shared" si="56"/>
         <v>208.62399999999997</v>
       </c>
-      <c r="H44" s="35">
-        <f t="shared" si="40"/>
+      <c r="H44" s="34">
+        <f t="shared" si="56"/>
         <v>197.24499999999995</v>
       </c>
-      <c r="I44" s="35">
-        <f t="shared" ref="I44:K44" si="41">I40-I41</f>
+      <c r="I44" s="34">
+        <f t="shared" ref="I44:K44" si="57">I40-I41</f>
         <v>264.56599999999997</v>
       </c>
-      <c r="J44" s="36">
-        <f t="shared" si="41"/>
+      <c r="J44" s="35">
+        <f t="shared" si="57"/>
         <v>247.86799999999999</v>
       </c>
-      <c r="K44" s="35">
-        <f t="shared" si="41"/>
+      <c r="K44" s="34">
+        <f t="shared" si="57"/>
         <v>240</v>
       </c>
-      <c r="L44" s="35">
-        <f t="shared" ref="L44:M44" si="42">L40-L41</f>
+      <c r="L44" s="34">
+        <f t="shared" ref="L44:M44" si="58">L40-L41</f>
         <v>219</v>
       </c>
-      <c r="M44" s="35">
-        <f t="shared" si="42"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E45" s="48"/>
-    </row>
-    <row r="46" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="32" t="s">
+      <c r="M44" s="34">
+        <f t="shared" si="58"/>
+        <v>83</v>
+      </c>
+      <c r="N44" s="35">
+        <f t="shared" ref="N44:O44" si="59">N40-N41</f>
+        <v>63</v>
+      </c>
+      <c r="O44" s="34">
+        <f t="shared" si="59"/>
+        <v>48</v>
+      </c>
+      <c r="P44" s="34">
+        <f t="shared" ref="P44" si="60">P40-P41</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E45" s="47"/>
+      <c r="O45" s="27"/>
+    </row>
+    <row r="46" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="33">
-        <f t="shared" ref="E46:M46" si="43">SUM(B21:E21)</f>
+      <c r="B46" s="28"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="32">
+        <f t="shared" ref="E46:P46" si="61">SUM(B21:E21)</f>
         <v>-89.717600000000004</v>
       </c>
-      <c r="F46" s="34">
-        <f t="shared" si="43"/>
+      <c r="F46" s="33">
+        <f t="shared" si="61"/>
         <v>-95.648600000000016</v>
       </c>
-      <c r="G46" s="33">
-        <f t="shared" si="43"/>
+      <c r="G46" s="32">
+        <f t="shared" si="61"/>
         <v>-101.81560000000002</v>
       </c>
-      <c r="H46" s="33">
-        <f t="shared" si="43"/>
+      <c r="H46" s="32">
+        <f t="shared" si="61"/>
         <v>-109.22200000000004</v>
       </c>
-      <c r="I46" s="33">
-        <f t="shared" si="43"/>
+      <c r="I46" s="32">
+        <f t="shared" si="61"/>
         <v>-111.34699999999999</v>
       </c>
-      <c r="J46" s="34">
+      <c r="J46" s="33">
         <f>SUM(G21:J21)</f>
         <v>-118.96600000000001</v>
       </c>
-      <c r="K46" s="33">
-        <f t="shared" si="43"/>
+      <c r="K46" s="32">
+        <f t="shared" si="61"/>
         <v>-124.72</v>
       </c>
-      <c r="L46" s="33">
-        <f t="shared" si="43"/>
+      <c r="L46" s="32">
+        <f t="shared" si="61"/>
         <v>-135.39999999999998</v>
       </c>
-      <c r="M46" s="33">
-        <f t="shared" si="43"/>
+      <c r="M46" s="32">
+        <f t="shared" si="61"/>
         <v>-163.81870000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="26" t="s">
+      <c r="N46" s="33">
+        <f t="shared" si="61"/>
+        <v>-184.92669999999998</v>
+      </c>
+      <c r="O46" s="32">
+        <f t="shared" si="61"/>
+        <v>-210.94969999999998</v>
+      </c>
+      <c r="P46" s="32">
+        <f t="shared" si="61"/>
+        <v>-241.28870000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A47" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="43">
-        <f t="shared" ref="E47:G47" si="44">E46/E44</f>
+      <c r="E47" s="42">
+        <f t="shared" ref="E47:G47" si="62">E46/E44</f>
         <v>-0.46367362126795281</v>
       </c>
-      <c r="F47" s="44">
-        <f t="shared" si="44"/>
+      <c r="F47" s="43">
+        <f t="shared" si="62"/>
         <v>-0.55446213776832265</v>
       </c>
-      <c r="G47" s="43">
-        <f t="shared" si="44"/>
+      <c r="G47" s="42">
+        <f t="shared" si="62"/>
         <v>-0.48803397499808282</v>
       </c>
-      <c r="H47" s="43">
-        <f t="shared" ref="H47:M47" si="45">H46/H44</f>
+      <c r="H47" s="42">
+        <f t="shared" ref="H47:M47" si="63">H46/H44</f>
         <v>-0.55373773733174514</v>
       </c>
-      <c r="I47" s="43">
-        <f t="shared" si="45"/>
+      <c r="I47" s="42">
+        <f t="shared" si="63"/>
         <v>-0.42086662685303478</v>
       </c>
-      <c r="J47" s="44">
-        <f t="shared" si="45"/>
+      <c r="J47" s="43">
+        <f t="shared" si="63"/>
         <v>-0.47995707392644477</v>
       </c>
-      <c r="K47" s="43">
-        <f t="shared" si="45"/>
+      <c r="K47" s="42">
+        <f t="shared" si="63"/>
         <v>-0.51966666666666661</v>
       </c>
-      <c r="L47" s="43">
-        <f t="shared" si="45"/>
+      <c r="L47" s="42">
+        <f t="shared" si="63"/>
         <v>-0.61826484018264827</v>
       </c>
-      <c r="M47" s="43">
-        <f t="shared" si="45"/>
-        <v>-0.74803059360730595</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="26" t="s">
+      <c r="M47" s="42">
+        <f t="shared" si="63"/>
+        <v>-1.9737192771084338</v>
+      </c>
+      <c r="N47" s="43">
+        <f t="shared" ref="N47:O47" si="64">N46/N44</f>
+        <v>-2.9353444444444441</v>
+      </c>
+      <c r="O47" s="42">
+        <f t="shared" si="64"/>
+        <v>-4.3947854166666662</v>
+      </c>
+      <c r="P47" s="42">
+        <f t="shared" ref="P47" si="65">P46/P44</f>
+        <v>-10.967668181818182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="43">
-        <f t="shared" ref="E48:G48" si="46">E46/E40</f>
+      <c r="E48" s="42">
+        <f t="shared" ref="E48:G48" si="66">E46/E40</f>
         <v>-0.21608493338086107</v>
       </c>
-      <c r="F48" s="44">
-        <f t="shared" si="46"/>
+      <c r="F48" s="43">
+        <f t="shared" si="66"/>
         <v>-0.23898587551564493</v>
       </c>
-      <c r="G48" s="43">
-        <f t="shared" si="46"/>
+      <c r="G48" s="42">
+        <f t="shared" si="66"/>
         <v>-0.1533529137107828</v>
       </c>
-      <c r="H48" s="43">
-        <f t="shared" ref="H48:M48" si="47">H46/H40</f>
+      <c r="H48" s="42">
+        <f t="shared" ref="H48:M48" si="67">H46/H40</f>
         <v>-0.16285505539236889</v>
       </c>
-      <c r="I48" s="43">
-        <f t="shared" si="47"/>
+      <c r="I48" s="42">
+        <f t="shared" si="67"/>
         <v>-0.15180728476460034</v>
       </c>
-      <c r="J48" s="44">
-        <f t="shared" si="47"/>
+      <c r="J48" s="43">
+        <f t="shared" si="67"/>
         <v>-0.16202581986023665</v>
       </c>
-      <c r="K48" s="43">
-        <f t="shared" si="47"/>
+      <c r="K48" s="42">
+        <f t="shared" si="67"/>
         <v>-0.16808625336927224</v>
       </c>
-      <c r="L48" s="43">
-        <f t="shared" si="47"/>
+      <c r="L48" s="42">
+        <f t="shared" si="67"/>
         <v>-0.18421768707482991</v>
       </c>
-      <c r="M48" s="43">
-        <f t="shared" si="47"/>
-        <v>-0.22288258503401362</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="26" t="s">
+      <c r="M48" s="42">
+        <f t="shared" si="67"/>
+        <v>-0.12326463506395786</v>
+      </c>
+      <c r="N48" s="43">
+        <f t="shared" ref="N48:O48" si="68">N46/N40</f>
+        <v>-0.13831465968586387</v>
+      </c>
+      <c r="O48" s="42">
+        <f t="shared" si="68"/>
+        <v>-0.15568243542435423</v>
+      </c>
+      <c r="P48" s="42">
+        <f t="shared" ref="P48" si="69">P46/P40</f>
+        <v>-0.1779415191740413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A49" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="43">
-        <f t="shared" ref="E49:G49" si="48">E46/(E44-E39)</f>
+      <c r="E49" s="42">
+        <f t="shared" ref="E49:G49" si="70">E46/(E44-E39)</f>
         <v>-0.47178570301736372</v>
       </c>
-      <c r="F49" s="44">
-        <f t="shared" si="48"/>
+      <c r="F49" s="43">
+        <f t="shared" si="70"/>
         <v>-0.56462830797929187</v>
       </c>
-      <c r="G49" s="43">
-        <f t="shared" si="48"/>
+      <c r="G49" s="42">
+        <f t="shared" si="70"/>
         <v>-0.49487749041261031</v>
       </c>
-      <c r="H49" s="43">
-        <f t="shared" ref="H49:M49" si="49">H46/(H44-H39)</f>
+      <c r="H49" s="42">
+        <f t="shared" ref="H49:M49" si="71">H46/(H44-H39)</f>
         <v>-0.56132182135882447</v>
       </c>
-      <c r="I49" s="43">
-        <f t="shared" si="49"/>
+      <c r="I49" s="42">
+        <f t="shared" si="71"/>
         <v>-0.53844405543681151</v>
       </c>
-      <c r="J49" s="44">
-        <f t="shared" si="49"/>
+      <c r="J49" s="43">
+        <f t="shared" si="71"/>
         <v>-0.62036742505227704</v>
       </c>
-      <c r="K49" s="43">
-        <f t="shared" si="49"/>
+      <c r="K49" s="42">
+        <f t="shared" si="71"/>
         <v>-0.72092485549132945</v>
       </c>
-      <c r="L49" s="43">
-        <f t="shared" si="49"/>
+      <c r="L49" s="42">
+        <f t="shared" si="71"/>
         <v>-0.89078947368421035</v>
       </c>
-      <c r="M49" s="43">
-        <f t="shared" si="49"/>
-        <v>-1.0777546052631579</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="26" t="s">
+      <c r="M49" s="42">
+        <f t="shared" si="71"/>
+        <v>20.477337500000001</v>
+      </c>
+      <c r="N49" s="43">
+        <f t="shared" ref="N49:O49" si="72">N46/(N44-N39)</f>
+        <v>7.112565384615384</v>
+      </c>
+      <c r="O49" s="42">
+        <f t="shared" si="72"/>
+        <v>5.4089666666666663</v>
+      </c>
+      <c r="P49" s="42">
+        <f t="shared" ref="P49" si="73">P46/(P44-P39)</f>
+        <v>3.8917532258064518</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A50" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="43">
-        <f t="shared" ref="E50:G50" si="50">E46/E43</f>
+      <c r="E50" s="42">
+        <f t="shared" ref="E50:G50" si="74">E46/E43</f>
         <v>-0.67510139583882001</v>
       </c>
-      <c r="F50" s="44">
-        <f t="shared" si="50"/>
+      <c r="F50" s="43">
+        <f t="shared" si="74"/>
         <v>-0.75831542895197945</v>
       </c>
-      <c r="G50" s="43">
-        <f t="shared" si="50"/>
+      <c r="G50" s="42">
+        <f t="shared" si="74"/>
         <v>-0.73583198427382102</v>
       </c>
-      <c r="H50" s="43">
-        <f t="shared" ref="H50:M50" si="51">H46/H43</f>
+      <c r="H50" s="42">
+        <f t="shared" ref="H50:M50" si="75">H46/H43</f>
         <v>-0.74894743338316239</v>
       </c>
-      <c r="I50" s="43">
-        <f t="shared" si="51"/>
+      <c r="I50" s="42">
+        <f t="shared" si="75"/>
         <v>-0.53089627814279039</v>
       </c>
-      <c r="J50" s="44">
-        <f t="shared" si="51"/>
+      <c r="J50" s="43">
+        <f t="shared" si="75"/>
         <v>-0.58971715228964883</v>
       </c>
-      <c r="K50" s="43">
-        <f t="shared" si="51"/>
+      <c r="K50" s="42">
+        <f t="shared" si="75"/>
         <v>-0.5218410041841004</v>
       </c>
-      <c r="L50" s="43">
-        <f t="shared" si="51"/>
+      <c r="L50" s="42">
+        <f t="shared" si="75"/>
         <v>-0.55950413223140483</v>
       </c>
-      <c r="M50" s="43">
-        <f t="shared" si="51"/>
-        <v>-0.67693677685950415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M50" s="42">
+        <f t="shared" si="75"/>
+        <v>-0.65007420634920643</v>
+      </c>
+      <c r="N50" s="43">
+        <f t="shared" ref="N50:O50" si="76">N46/N43</f>
+        <v>-0.68238634686346855</v>
+      </c>
+      <c r="O50" s="42">
+        <f t="shared" si="76"/>
+        <v>-0.71751598639455771</v>
+      </c>
+      <c r="P50" s="42">
+        <f t="shared" ref="P50" si="77">P46/P43</f>
+        <v>-0.79111049180327875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N51" s="28"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="44">
-        <f t="shared" ref="F52:M53" si="52">F3/B3-1</f>
+        <v>71</v>
+      </c>
+      <c r="F52" s="43">
+        <f t="shared" ref="F52:P53" si="78">F3/B3-1</f>
         <v>0.57840819542947197</v>
       </c>
-      <c r="G52" s="43">
-        <f t="shared" si="52"/>
+      <c r="G52" s="42">
+        <f t="shared" si="78"/>
         <v>0.59641572653776409</v>
       </c>
-      <c r="H52" s="43">
-        <f t="shared" si="52"/>
+      <c r="H52" s="42">
+        <f t="shared" si="78"/>
         <v>0.58611587699617274</v>
       </c>
-      <c r="I52" s="43">
-        <f t="shared" si="52"/>
+      <c r="I52" s="42">
+        <f t="shared" si="78"/>
         <v>0.73409609015441535</v>
       </c>
-      <c r="J52" s="44">
-        <f t="shared" si="52"/>
+      <c r="J52" s="43">
+        <f t="shared" si="78"/>
         <v>0.82322168920532235</v>
       </c>
-      <c r="K52" s="43">
-        <f t="shared" si="52"/>
+      <c r="K52" s="42">
+        <f t="shared" si="78"/>
         <v>0.81002445458571626</v>
       </c>
-      <c r="L52" s="43">
-        <f t="shared" si="52"/>
+      <c r="L52" s="42">
+        <f t="shared" si="78"/>
         <v>0.73073722749209513</v>
       </c>
-      <c r="M52" s="43">
-        <f t="shared" si="52"/>
+      <c r="M52" s="42">
+        <f t="shared" si="78"/>
         <v>0.30000000000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N52" s="43">
+        <f t="shared" si="78"/>
+        <v>0.48648713003309751</v>
+      </c>
+      <c r="O52" s="42">
+        <f t="shared" si="78"/>
+        <v>0.40934042553191508</v>
+      </c>
+      <c r="P52" s="42">
+        <f t="shared" si="78"/>
+        <v>0.38527884615384611</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="44">
-        <f t="shared" si="52"/>
+        <v>72</v>
+      </c>
+      <c r="F53" s="43">
+        <f t="shared" si="78"/>
         <v>0.27068373399937573</v>
       </c>
-      <c r="G53" s="43">
-        <f t="shared" si="52"/>
+      <c r="G53" s="42">
+        <f t="shared" si="78"/>
         <v>0.48484848484848508</v>
       </c>
-      <c r="H53" s="43">
-        <f t="shared" si="52"/>
+      <c r="H53" s="42">
+        <f t="shared" si="78"/>
         <v>0.35859006383569225</v>
       </c>
-      <c r="I53" s="43">
-        <f t="shared" si="52"/>
+      <c r="I53" s="42">
+        <f t="shared" si="78"/>
         <v>0.36560652969321716</v>
       </c>
-      <c r="J53" s="44">
-        <f t="shared" si="52"/>
+      <c r="J53" s="43">
+        <f t="shared" si="78"/>
         <v>0.32530712530712536</v>
       </c>
-      <c r="K53" s="43">
-        <f t="shared" si="52"/>
+      <c r="K53" s="42">
+        <f t="shared" si="78"/>
         <v>9.7213078779899043E-2</v>
       </c>
-      <c r="L53" s="43">
-        <f t="shared" si="52"/>
+      <c r="L53" s="42">
+        <f t="shared" si="78"/>
         <v>0.22574055158324824</v>
       </c>
-      <c r="M53" s="43">
-        <f t="shared" si="52"/>
+      <c r="M53" s="42">
+        <f t="shared" si="78"/>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N53" s="43">
+        <f t="shared" si="78"/>
+        <v>1.4645902855024096E-2</v>
+      </c>
+      <c r="O53" s="42">
+        <f t="shared" si="78"/>
+        <v>0.16060000000000008</v>
+      </c>
+      <c r="P53" s="42">
+        <f t="shared" si="78"/>
+        <v>0.11699999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="44"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="44"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="44"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-    </row>
-    <row r="56" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="43"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="69"/>
+    </row>
+    <row r="56" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-    </row>
-    <row r="58" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="43"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="69"/>
+    </row>
+    <row r="58" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="30">
+        <v>73</v>
+      </c>
+      <c r="B58" s="29">
         <v>3700</v>
       </c>
-      <c r="C58" s="31">
+      <c r="C58" s="30">
         <v>4300</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="30">
         <v>4900</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <v>5700</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="29">
         <v>6600</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="30">
         <v>7400</v>
       </c>
-      <c r="H58" s="31">
+      <c r="H58" s="30">
         <v>8300</v>
       </c>
-      <c r="I58" s="31">
+      <c r="I58" s="30">
         <v>13400</v>
       </c>
-      <c r="J58" s="30">
+      <c r="J58" s="29">
         <v>14200</v>
       </c>
-      <c r="K58" s="31">
+      <c r="K58" s="30">
         <v>15000</v>
       </c>
-      <c r="L58" s="31">
+      <c r="L58" s="30">
         <v>15900</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="30">
         <v>15900</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N58" s="67">
+        <v>18400</v>
+      </c>
+      <c r="O58" s="8">
+        <v>20200</v>
+      </c>
+      <c r="P58" s="8">
+        <v>22600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="44"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="44">
-        <f t="shared" ref="F59:M59" si="53">F58/B58-1</f>
+        <v>81</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="43">
+        <f t="shared" ref="F59:P59" si="79">F58/B58-1</f>
         <v>0.78378378378378377</v>
       </c>
-      <c r="G59" s="43">
-        <f t="shared" si="53"/>
+      <c r="G59" s="42">
+        <f t="shared" si="79"/>
         <v>0.72093023255813948</v>
       </c>
-      <c r="H59" s="43">
-        <f t="shared" si="53"/>
+      <c r="H59" s="42">
+        <f t="shared" si="79"/>
         <v>0.69387755102040827</v>
       </c>
-      <c r="I59" s="43">
-        <f t="shared" si="53"/>
+      <c r="I59" s="42">
+        <f t="shared" si="79"/>
         <v>1.3508771929824563</v>
       </c>
-      <c r="J59" s="44">
-        <f t="shared" si="53"/>
+      <c r="J59" s="43">
+        <f t="shared" si="79"/>
         <v>1.1515151515151514</v>
       </c>
-      <c r="K59" s="43">
-        <f t="shared" si="53"/>
+      <c r="K59" s="42">
+        <f t="shared" si="79"/>
         <v>1.0270270270270272</v>
       </c>
-      <c r="L59" s="43">
-        <f t="shared" si="53"/>
+      <c r="L59" s="42">
+        <f t="shared" si="79"/>
         <v>0.9156626506024097</v>
       </c>
-      <c r="M59" s="43">
-        <f t="shared" si="53"/>
+      <c r="M59" s="42">
+        <f t="shared" si="79"/>
         <v>0.18656716417910446</v>
+      </c>
+      <c r="N59" s="43">
+        <f t="shared" si="79"/>
+        <v>0.29577464788732399</v>
+      </c>
+      <c r="O59" s="42">
+        <f t="shared" si="79"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="P59" s="42">
+        <f t="shared" si="79"/>
+        <v>0.42138364779874204</v>
       </c>
     </row>
   </sheetData>
@@ -6472,4 +7361,43 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C4E948-E774-CC47-BD3E-C5F284440C3A}">
+  <dimension ref="B4:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/MDB.xlsx
+++ b/MDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD2D23-590B-B145-BB73-7D83AF746BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBADC0E-7F9F-D941-88EC-70434F854FE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28260" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56900" yWindow="-5940" windowWidth="28440" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="90">
   <si>
     <t>Revenue</t>
   </si>
@@ -161,9 +161,6 @@
     <t>per share</t>
   </si>
   <si>
-    <t>Inflation + risk premium (opportunity cost)</t>
-  </si>
-  <si>
     <t>Q119</t>
   </si>
   <si>
@@ -209,16 +206,10 @@
     <t>Investor Relations</t>
   </si>
   <si>
-    <t>Expected return on invested capital (innovation grade)</t>
-  </si>
-  <si>
     <t>DAU y/y</t>
   </si>
   <si>
     <t>ARPU y/y</t>
-  </si>
-  <si>
-    <t>Future net income (terminal value)</t>
   </si>
   <si>
     <t>Q120</t>
@@ -435,7 +426,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -570,6 +561,10 @@
     </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -972,7 +967,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -983,10 +978,10 @@
   <sheetData>
     <row r="1" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:119" x14ac:dyDescent="0.15">
@@ -994,10 +989,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="4">
-        <v>422.85</v>
+        <v>401.98</v>
       </c>
       <c r="D2" s="66">
-        <v>44239</v>
+        <v>44245</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>21</v>
@@ -1020,7 +1015,7 @@
         <v>59.368167</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>22</v>
@@ -1028,21 +1023,19 @@
       <c r="F3" s="7">
         <v>0.05</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A4" s="71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="9">
         <f>C2*C3</f>
-        <v>25103.82941595</v>
+        <v>23864.81577066</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
@@ -1052,9 +1045,7 @@
         <f>6%</f>
         <v>0.06</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G4" s="5"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:119" x14ac:dyDescent="0.15">
@@ -1066,18 +1057,16 @@
         <v>19</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="10">
         <f>NPV(F4,E27:DO27)</f>
-        <v>31768.766630123991</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>16293.125991834833</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:119" x14ac:dyDescent="0.15">
@@ -1089,7 +1078,7 @@
       </c>
       <c r="C6" s="9">
         <f>C4-C5</f>
-        <v>25084.82941595</v>
+        <v>23845.81577066</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
@@ -1097,20 +1086,20 @@
       </c>
       <c r="F6" s="12">
         <f>F5+C5</f>
-        <v>31787.766630123991</v>
+        <v>16312.125991834833</v>
       </c>
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A7" s="71" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="54">
         <f>C6/C3</f>
-        <v>422.52996316948781</v>
+        <v>401.65996316948775</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="13" t="s">
@@ -1118,16 +1107,16 @@
       </c>
       <c r="F7" s="53">
         <f>F6/C3</f>
-        <v>535.43453059825799</v>
+        <v>274.76216322856715</v>
       </c>
       <c r="G7" s="25">
         <f>F7/C2-1</f>
-        <v>0.26625169823402617</v>
+        <v>-0.31647802570136041</v>
       </c>
     </row>
     <row r="8" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A8" s="71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="14"/>
@@ -1206,7 +1195,7 @@
     </row>
     <row r="10" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="15">
         <f>SUM(Reports!B3:E3)</f>
@@ -1353,7 +1342,7 @@
     </row>
     <row r="11" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B11" s="15">
         <f>SUM(Reports!B4:E4)</f>
@@ -1508,7 +1497,7 @@
     </row>
     <row r="13" spans="1:119" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="70" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="70">
         <f>B60/1000000</f>
@@ -1527,25 +1516,25 @@
         <v>2.3054999999999999E-2</v>
       </c>
       <c r="F13" s="70">
-        <f t="shared" ref="F13:I13" si="7">F60/1000000</f>
-        <v>2.7666E-2</v>
+        <f>F60/1000000</f>
+        <v>3.2276999999999993E-2</v>
       </c>
       <c r="G13" s="70">
-        <f t="shared" si="7"/>
-        <v>3.3199199999999998E-2</v>
+        <f t="shared" ref="G13:I13" si="7">G60/1000000</f>
+        <v>4.357395E-2</v>
       </c>
       <c r="H13" s="70">
         <f t="shared" si="7"/>
-        <v>3.9839039999999992E-2</v>
+        <v>5.6646134999999993E-2</v>
       </c>
       <c r="I13" s="70">
         <f t="shared" si="7"/>
-        <v>4.7806847999999992E-2</v>
+        <v>7.0807668749999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:119" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B14" s="50">
         <f>SUM(B10:B11)/B13</f>
@@ -1564,31 +1553,31 @@
         <v>27210.780102780147</v>
       </c>
       <c r="F14" s="15">
-        <f>E14*0.95</f>
-        <v>25850.241097641137</v>
+        <f>E14*1.02</f>
+        <v>27754.99570483575</v>
       </c>
       <c r="G14" s="15">
-        <f t="shared" ref="G14:I14" si="8">F14*0.95</f>
-        <v>24557.729042759078</v>
+        <f t="shared" ref="G14:I14" si="8">F14*1.02</f>
+        <v>28310.095618932464</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="8"/>
-        <v>23329.842590621123</v>
+        <v>28876.297531311113</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="8"/>
-        <v>22163.350461090067</v>
-      </c>
-    </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.15">
-      <c r="D15" s="45">
+        <v>29453.823481937336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:119" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="72">
         <v>407</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="73">
         <v>574</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1611,60 +1600,60 @@
         <v>627.34453526959624</v>
       </c>
       <c r="F16" s="17">
-        <f>SUM(F10:F11)</f>
-        <v>842.66098799999986</v>
+        <f>F14*F13</f>
+        <v>895.84799636498326</v>
       </c>
       <c r="G16" s="17">
-        <f t="shared" ref="G16:I16" si="9">SUM(G10:G11)</f>
-        <v>1213.0440758999998</v>
+        <f>G14*G13</f>
+        <v>1233.5826909945822</v>
       </c>
       <c r="H16" s="17">
-        <f t="shared" si="9"/>
-        <v>1748.7773998499997</v>
+        <f>H14*H13</f>
+        <v>1635.7306482588158</v>
       </c>
       <c r="I16" s="17">
-        <f t="shared" si="9"/>
-        <v>2524.0702430467495</v>
+        <f>I14*I13</f>
+        <v>2085.5565765299903</v>
       </c>
       <c r="J16" s="17">
         <f>I16*1.2</f>
-        <v>3028.8842916560993</v>
+        <v>2502.667891835988</v>
       </c>
       <c r="K16" s="17">
-        <f t="shared" ref="K16:N16" si="10">J16*1.2</f>
-        <v>3634.6611499873193</v>
+        <f t="shared" ref="K16:N16" si="9">J16*1.2</f>
+        <v>3003.2014702031856</v>
       </c>
       <c r="L16" s="17">
-        <f t="shared" si="10"/>
-        <v>4361.5933799847826</v>
+        <f t="shared" si="9"/>
+        <v>3603.8417642438226</v>
       </c>
       <c r="M16" s="17">
-        <f t="shared" si="10"/>
-        <v>5233.9120559817393</v>
+        <f t="shared" si="9"/>
+        <v>4324.6101170925867</v>
       </c>
       <c r="N16" s="17">
-        <f t="shared" si="10"/>
-        <v>6280.6944671780866</v>
+        <f t="shared" si="9"/>
+        <v>5189.5321405111035</v>
       </c>
       <c r="O16" s="17">
-        <f t="shared" ref="O16" si="11">N16*1.1</f>
-        <v>6908.7639138958957</v>
+        <f t="shared" ref="O16" si="10">N16*1.1</f>
+        <v>5708.4853545622145</v>
       </c>
       <c r="P16" s="17">
-        <f t="shared" ref="P16" si="12">O16*1.1</f>
-        <v>7599.6403052854857</v>
+        <f t="shared" ref="P16" si="11">O16*1.1</f>
+        <v>6279.3338900184363</v>
       </c>
       <c r="Q16" s="17">
-        <f t="shared" ref="Q16" si="13">P16*1.1</f>
-        <v>8359.6043358140341</v>
+        <f t="shared" ref="Q16" si="12">P16*1.1</f>
+        <v>6907.2672790202805</v>
       </c>
       <c r="R16" s="17">
-        <f t="shared" ref="R16" si="14">Q16*1.1</f>
-        <v>9195.5647693954379</v>
+        <f t="shared" ref="R16" si="13">Q16*1.1</f>
+        <v>7597.9940069223094</v>
       </c>
       <c r="S16" s="17">
-        <f t="shared" ref="S16" si="15">R16*1.1</f>
-        <v>10115.121246334982</v>
+        <f t="shared" ref="S16" si="14">R16*1.1</f>
+        <v>8357.7934076145411</v>
       </c>
     </row>
     <row r="17" spans="1:119" x14ac:dyDescent="0.15">
@@ -1688,60 +1677,60 @@
         <v>187.3788274828305</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" ref="F17" si="16">F16-F18</f>
-        <v>251.69076802288328</v>
+        <f t="shared" ref="F17" si="15">F16-F18</f>
+        <v>267.57696564548189</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" ref="G17:O17" si="17">G16-G18</f>
-        <v>362.31889153135887</v>
+        <f t="shared" ref="G17:O17" si="16">G16-G18</f>
+        <v>368.45348169382862</v>
       </c>
       <c r="H17" s="8">
+        <f t="shared" si="16"/>
+        <v>488.56931672601672</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="16"/>
+        <v>622.92587882567136</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="16"/>
+        <v>747.51105459080554</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="16"/>
+        <v>897.01326550896647</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="16"/>
+        <v>1076.4159186107595</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="16"/>
+        <v>1291.6991023329115</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="16"/>
+        <v>1550.0389227994933</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="16"/>
+        <v>1705.0428150794428</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" ref="P17:S17" si="17">P16-P18</f>
+        <v>1875.5470965873874</v>
+      </c>
+      <c r="Q17" s="8">
         <f t="shared" si="17"/>
-        <v>522.33476230337533</v>
-      </c>
-      <c r="I17" s="8">
+        <v>2063.1018062461262</v>
+      </c>
+      <c r="R17" s="8">
         <f t="shared" si="17"/>
-        <v>753.90363036023473</v>
-      </c>
-      <c r="J17" s="8">
+        <v>2269.4119868707394</v>
+      </c>
+      <c r="S17" s="8">
         <f t="shared" si="17"/>
-        <v>904.68435643228167</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="17"/>
-        <v>1085.6212277187378</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="17"/>
-        <v>1302.7454732624856</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="17"/>
-        <v>1563.2945679149825</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="17"/>
-        <v>1875.9534814979788</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="17"/>
-        <v>2063.548829647777</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" ref="P17:S17" si="18">P16-P18</f>
-        <v>2269.903712612555</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="18"/>
-        <v>2496.8940838738099</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="18"/>
-        <v>2746.5834922611912</v>
-      </c>
-      <c r="S17" s="8">
-        <f t="shared" si="18"/>
-        <v>3021.2418414873109</v>
+        <v>2496.353185557813</v>
       </c>
     </row>
     <row r="18" spans="1:119" x14ac:dyDescent="0.15">
@@ -1765,60 +1754,60 @@
         <v>439.96570778676573</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" ref="F18:O18" si="19">F16*E31</f>
-        <v>590.97021997711659</v>
+        <f t="shared" ref="F18:O18" si="18">F16*E31</f>
+        <v>628.27103071950137</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="19"/>
-        <v>850.72518436864095</v>
+        <f t="shared" si="18"/>
+        <v>865.12920930075359</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="19"/>
-        <v>1226.4426375466244</v>
+        <f t="shared" si="18"/>
+        <v>1147.1613315327991</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="19"/>
-        <v>1770.1666126865148</v>
+        <f t="shared" si="18"/>
+        <v>1462.6306977043189</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="19"/>
-        <v>2124.1999352238176</v>
+        <f t="shared" si="18"/>
+        <v>1755.1568372451825</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="19"/>
-        <v>2549.0399222685814</v>
+        <f t="shared" si="18"/>
+        <v>2106.1882046942192</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="19"/>
-        <v>3058.847906722297</v>
+        <f t="shared" si="18"/>
+        <v>2527.4258456330631</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="19"/>
-        <v>3670.6174880667568</v>
+        <f t="shared" si="18"/>
+        <v>3032.9110147596753</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="19"/>
-        <v>4404.7409856801078</v>
+        <f t="shared" si="18"/>
+        <v>3639.4932177116102</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="19"/>
-        <v>4845.2150842481187</v>
+        <f t="shared" si="18"/>
+        <v>4003.4425394827717</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" ref="P18" si="20">P16*O31</f>
-        <v>5329.7365926729308</v>
+        <f t="shared" ref="P18" si="19">P16*O31</f>
+        <v>4403.7867934310489</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" ref="Q18" si="21">Q16*P31</f>
-        <v>5862.7102519402242</v>
+        <f t="shared" ref="Q18" si="20">Q16*P31</f>
+        <v>4844.1654727741543</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" ref="R18" si="22">R16*Q31</f>
-        <v>6448.9812771342467</v>
+        <f t="shared" ref="R18" si="21">R16*Q31</f>
+        <v>5328.58202005157</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" ref="S18" si="23">S16*R31</f>
-        <v>7093.8794048476711</v>
+        <f t="shared" ref="S18" si="22">S16*R31</f>
+        <v>5861.4402220567281</v>
       </c>
     </row>
     <row r="19" spans="1:119" x14ac:dyDescent="0.15">
@@ -1842,19 +1831,19 @@
         <v>194.25640000000001</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" ref="F19:I19" si="24">E19*1.3</f>
+        <f t="shared" ref="F19:I19" si="23">E19*1.3</f>
         <v>252.53332000000003</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>328.29331600000006</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>426.78131080000009</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>554.81570404000013</v>
       </c>
       <c r="J19" s="8">
@@ -1862,19 +1851,19 @@
         <v>665.77884484800018</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" ref="K19:N19" si="25">J19*1.2</f>
+        <f t="shared" ref="K19:N19" si="24">J19*1.2</f>
         <v>798.93461381760017</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>958.72153658112018</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1150.4658438973443</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1380.5590126768132</v>
       </c>
       <c r="O19" s="8">
@@ -1882,19 +1871,19 @@
         <v>1518.6149139444947</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" ref="P19:S19" si="26">O19*1.1</f>
+        <f t="shared" ref="P19:S19" si="25">O19*1.1</f>
         <v>1670.4764053389442</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1837.5240458728388</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2021.2764504601228</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>2223.404095506135</v>
       </c>
     </row>
@@ -1919,19 +1908,19 @@
         <v>276.05375000000004</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" ref="F20:I20" si="27">E20*1.25</f>
+        <f t="shared" ref="F20:I20" si="26">E20*1.25</f>
         <v>345.06718750000005</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>431.33398437500006</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>539.16748046875011</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>673.95935058593761</v>
       </c>
       <c r="J20" s="8">
@@ -1939,19 +1928,19 @@
         <v>775.05325317382824</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" ref="K20:N20" si="28">J20*1.15</f>
+        <f t="shared" ref="K20:N20" si="27">J20*1.15</f>
         <v>891.31124114990246</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1025.0079273223878</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1178.7591164207458</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>1355.5729838838577</v>
       </c>
       <c r="O20" s="8">
@@ -1959,19 +1948,19 @@
         <v>1423.3516330780506</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" ref="P20:P21" si="29">O20*1.05</f>
+        <f t="shared" ref="P20:P21" si="28">O20*1.05</f>
         <v>1494.5192147319531</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" ref="Q20:Q21" si="30">P20*1.05</f>
+        <f t="shared" ref="Q20:Q21" si="29">P20*1.05</f>
         <v>1569.2451754685508</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" ref="R20:R21" si="31">Q20*1.05</f>
+        <f t="shared" ref="R20:R21" si="30">Q20*1.05</f>
         <v>1647.7074342419785</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" ref="S20:S21" si="32">R20*1.05</f>
+        <f t="shared" ref="S20:S21" si="31">R20*1.05</f>
         <v>1730.0928059540774</v>
       </c>
     </row>
@@ -1996,19 +1985,19 @@
         <v>83.693639999999988</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" ref="F21:I21" si="33">E21*1.2</f>
+        <f t="shared" ref="F21:I21" si="32">E21*1.2</f>
         <v>100.43236799999998</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>120.51884159999997</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>144.62260991999997</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>173.54713190399997</v>
       </c>
       <c r="J21" s="8">
@@ -2016,19 +2005,19 @@
         <v>190.90184509439999</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" ref="K21:N21" si="34">J21*1.1</f>
+        <f t="shared" ref="K21:N21" si="33">J21*1.1</f>
         <v>209.99202960384</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>230.99123256422402</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>254.09035582064644</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>279.49939140271113</v>
       </c>
       <c r="O21" s="8">
@@ -2036,19 +2025,19 @@
         <v>293.47436097284668</v>
       </c>
       <c r="P21" s="8">
+        <f t="shared" si="28"/>
+        <v>308.14807902148902</v>
+      </c>
+      <c r="Q21" s="8">
         <f t="shared" si="29"/>
-        <v>308.14807902148902</v>
-      </c>
-      <c r="Q21" s="8">
+        <v>323.55548297256348</v>
+      </c>
+      <c r="R21" s="8">
         <f t="shared" si="30"/>
-        <v>323.55548297256348</v>
-      </c>
-      <c r="R21" s="8">
+        <v>339.73325712119168</v>
+      </c>
+      <c r="S21" s="8">
         <f t="shared" si="31"/>
-        <v>339.73325712119168</v>
-      </c>
-      <c r="S21" s="8">
-        <f t="shared" si="32"/>
         <v>356.71991997725127</v>
       </c>
     </row>
@@ -2069,63 +2058,63 @@
         <v>440.01570000000004</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" ref="E22:F22" si="35">SUM(E19:E21)</f>
+        <f t="shared" ref="E22:F22" si="34">SUM(E19:E21)</f>
         <v>554.00378999999998</v>
       </c>
       <c r="F22" s="8">
+        <f t="shared" si="34"/>
+        <v>698.03287550000005</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:O22" si="35">SUM(G19:G21)</f>
+        <v>880.14614197500009</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="35"/>
-        <v>698.03287550000005</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" ref="G22:O22" si="36">SUM(G19:G21)</f>
-        <v>880.14614197500009</v>
-      </c>
-      <c r="H22" s="8">
+        <v>1110.5714011887503</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="35"/>
+        <v>1402.3221865299377</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="35"/>
+        <v>1631.7339431162284</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="35"/>
+        <v>1900.2378845713424</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="35"/>
+        <v>2214.7206964677321</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="35"/>
+        <v>2583.3153161387363</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="35"/>
+        <v>3015.6313879633817</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="35"/>
+        <v>3235.4409079953921</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" ref="P22:S22" si="36">SUM(P19:P21)</f>
+        <v>3473.1436990923867</v>
+      </c>
+      <c r="Q22" s="8">
         <f t="shared" si="36"/>
-        <v>1110.5714011887503</v>
-      </c>
-      <c r="I22" s="8">
+        <v>3730.3247043139527</v>
+      </c>
+      <c r="R22" s="8">
         <f t="shared" si="36"/>
-        <v>1402.3221865299377</v>
-      </c>
-      <c r="J22" s="8">
+        <v>4008.7171418232929</v>
+      </c>
+      <c r="S22" s="8">
         <f t="shared" si="36"/>
-        <v>1631.7339431162284</v>
-      </c>
-      <c r="K22" s="8">
-        <f t="shared" si="36"/>
-        <v>1900.2378845713424</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="36"/>
-        <v>2214.7206964677321</v>
-      </c>
-      <c r="M22" s="8">
-        <f t="shared" si="36"/>
-        <v>2583.3153161387363</v>
-      </c>
-      <c r="N22" s="8">
-        <f t="shared" si="36"/>
-        <v>3015.6313879633817</v>
-      </c>
-      <c r="O22" s="8">
-        <f t="shared" si="36"/>
-        <v>3235.4409079953921</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" ref="P22:S22" si="37">SUM(P19:P21)</f>
-        <v>3473.1436990923867</v>
-      </c>
-      <c r="Q22" s="8">
-        <f t="shared" si="37"/>
-        <v>3730.3247043139527</v>
-      </c>
-      <c r="R22" s="8">
-        <f t="shared" si="37"/>
-        <v>4008.7171418232929</v>
-      </c>
-      <c r="S22" s="8">
-        <f t="shared" si="37"/>
         <v>4310.2168214374633</v>
       </c>
     </row>
@@ -2146,64 +2135,64 @@
         <v>-153.15570000000002</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:F23" si="38">E18-E22</f>
+        <f t="shared" ref="E23:F23" si="37">E18-E22</f>
         <v>-114.03808221323425</v>
       </c>
       <c r="F23" s="8">
+        <f t="shared" si="37"/>
+        <v>-69.761844780498677</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" ref="G23:O23" si="38">G18-G22</f>
+        <v>-15.016932674246505</v>
+      </c>
+      <c r="H23" s="8">
         <f t="shared" si="38"/>
-        <v>-107.06265552288346</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" ref="G23:O23" si="39">G18-G22</f>
-        <v>-29.420957606359138</v>
-      </c>
-      <c r="H23" s="8">
+        <v>36.589930344048753</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="38"/>
+        <v>60.308511174381238</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="38"/>
+        <v>123.42289412895411</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="38"/>
+        <v>205.95032012287675</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="38"/>
+        <v>312.70514916533102</v>
+      </c>
+      <c r="M23" s="8">
+        <f t="shared" si="38"/>
+        <v>449.59569862093895</v>
+      </c>
+      <c r="N23" s="8">
+        <f t="shared" si="38"/>
+        <v>623.8618297482285</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="38"/>
+        <v>768.00163148737965</v>
+      </c>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:S23" si="39">P18-P22</f>
+        <v>930.64309433866219</v>
+      </c>
+      <c r="Q23" s="8">
         <f t="shared" si="39"/>
-        <v>115.87123635787407</v>
-      </c>
-      <c r="I23" s="8">
+        <v>1113.8407684602016</v>
+      </c>
+      <c r="R23" s="8">
         <f t="shared" si="39"/>
-        <v>367.84442615657713</v>
-      </c>
-      <c r="J23" s="8">
+        <v>1319.8648782282771</v>
+      </c>
+      <c r="S23" s="8">
         <f t="shared" si="39"/>
-        <v>492.46599210758927</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="39"/>
-        <v>648.80203769723903</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="39"/>
-        <v>844.12721025456494</v>
-      </c>
-      <c r="M23" s="8">
-        <f t="shared" si="39"/>
-        <v>1087.3021719280205</v>
-      </c>
-      <c r="N23" s="8">
-        <f t="shared" si="39"/>
-        <v>1389.1095977167261</v>
-      </c>
-      <c r="O23" s="8">
-        <f t="shared" si="39"/>
-        <v>1609.7741762527266</v>
-      </c>
-      <c r="P23" s="8">
-        <f t="shared" ref="P23:S23" si="40">P18-P22</f>
-        <v>1856.5928935805441</v>
-      </c>
-      <c r="Q23" s="8">
-        <f t="shared" si="40"/>
-        <v>2132.3855476262715</v>
-      </c>
-      <c r="R23" s="8">
-        <f t="shared" si="40"/>
-        <v>2440.2641353109539</v>
-      </c>
-      <c r="S23" s="8">
-        <f t="shared" si="40"/>
-        <v>2783.6625834102078</v>
+        <v>1551.2234006192648</v>
       </c>
     </row>
     <row r="24" spans="1:119" x14ac:dyDescent="0.15">
@@ -2223,64 +2212,64 @@
         <v>-11.801</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" ref="E24:O24" si="41">D41*$F$3</f>
+        <f t="shared" ref="E24:O24" si="40">D41*$F$3</f>
         <v>3.75</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-1.7644041106617125</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="41"/>
-        <v>-7.2057570923389704</v>
+        <f t="shared" si="40"/>
+        <v>-5.340716555219732</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="41"/>
-        <v>-9.0370928272738755</v>
+        <f t="shared" si="40"/>
+        <v>-6.3585990166930442</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="41"/>
-        <v>-4.4966417272233672</v>
+        <f t="shared" si="40"/>
+        <v>-5.073767435280427</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="41"/>
-        <v>10.945639111024169</v>
+        <f t="shared" si="40"/>
+        <v>-2.7262908263686421</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="41"/>
-        <v>32.340633437815242</v>
+        <f t="shared" si="40"/>
+        <v>2.4033148139912406</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="41"/>
-        <v>61.28919696105504</v>
+        <f t="shared" si="40"/>
+        <v>11.258344298808133</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="41"/>
-        <v>99.769394267718894</v>
+        <f t="shared" si="40"/>
+        <v>25.026792771034049</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="41"/>
-        <v>150.21993583103782</v>
+        <f t="shared" si="40"/>
+        <v>45.198248655192906</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="41"/>
-        <v>215.64144100681779</v>
+        <f t="shared" si="40"/>
+        <v>73.633301987338314</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" ref="P24" si="42">O41*$F$3</f>
-        <v>293.22160474034848</v>
+        <f t="shared" ref="P24" si="41">O41*$F$3</f>
+        <v>109.40278666001382</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" ref="Q24" si="43">P41*$F$3</f>
-        <v>384.58872091898638</v>
+        <f t="shared" ref="Q24" si="42">P41*$F$3</f>
+        <v>153.60473660245756</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" ref="R24" si="44">Q41*$F$3</f>
-        <v>491.56012733215988</v>
+        <f t="shared" ref="R24" si="43">Q41*$F$3</f>
+        <v>207.47117056762056</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" ref="S24" si="45">R41*$F$3</f>
-        <v>616.16265849449223</v>
+        <f t="shared" ref="S24" si="44">R41*$F$3</f>
+        <v>272.3829526414462</v>
       </c>
     </row>
     <row r="25" spans="1:119" x14ac:dyDescent="0.15">
@@ -2300,64 +2289,64 @@
         <v>-164.95670000000001</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:F25" si="46">E23+E24</f>
+        <f t="shared" ref="E25:F25" si="45">E23+E24</f>
         <v>-110.28808221323425</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="46"/>
-        <v>-108.82705963354518</v>
+        <f t="shared" si="45"/>
+        <v>-71.526248891160392</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" ref="G25" si="47">G23+G24</f>
-        <v>-36.626714698698109</v>
+        <f t="shared" ref="G25" si="46">G23+G24</f>
+        <v>-20.357649229466237</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ref="H25" si="48">H23+H24</f>
-        <v>106.83414353060019</v>
+        <f t="shared" ref="H25" si="47">H23+H24</f>
+        <v>30.231331327355708</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" ref="I25" si="49">I23+I24</f>
-        <v>363.34778442935374</v>
+        <f t="shared" ref="I25" si="48">I23+I24</f>
+        <v>55.234743739100807</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" ref="J25" si="50">J23+J24</f>
-        <v>503.41163121861342</v>
+        <f t="shared" ref="J25" si="49">J23+J24</f>
+        <v>120.69660330258547</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" ref="K25" si="51">K23+K24</f>
-        <v>681.14267113505423</v>
+        <f t="shared" ref="K25" si="50">K23+K24</f>
+        <v>208.35363493686799</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" ref="L25" si="52">L23+L24</f>
-        <v>905.41640721561998</v>
+        <f t="shared" ref="L25" si="51">L23+L24</f>
+        <v>323.96349346413916</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" ref="M25" si="53">M23+M24</f>
-        <v>1187.0715661957393</v>
+        <f t="shared" ref="M25" si="52">M23+M24</f>
+        <v>474.62249139197297</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25" si="54">N23+N24</f>
-        <v>1539.329533547764</v>
+        <f t="shared" ref="N25" si="53">N23+N24</f>
+        <v>669.06007840342136</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" ref="O25:S25" si="55">O23+O24</f>
-        <v>1825.4156172595444</v>
+        <f t="shared" ref="O25:S25" si="54">O23+O24</f>
+        <v>841.63493347471797</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="55"/>
-        <v>2149.8144983208927</v>
+        <f t="shared" si="54"/>
+        <v>1040.045880998676</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="55"/>
-        <v>2516.9742685452579</v>
+        <f t="shared" si="54"/>
+        <v>1267.4455050626591</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="55"/>
-        <v>2931.8242626431138</v>
+        <f t="shared" si="54"/>
+        <v>1527.3360487958976</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="55"/>
-        <v>3399.8252419047003</v>
+        <f t="shared" si="54"/>
+        <v>1823.6063532607109</v>
       </c>
     </row>
     <row r="26" spans="1:119" x14ac:dyDescent="0.15">
@@ -2386,52 +2375,52 @@
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ref="H26:O26" si="56">H25*0.15</f>
-        <v>16.025121529590027</v>
+        <f t="shared" ref="H26:O26" si="55">H25*0.15</f>
+        <v>4.5346996991033564</v>
       </c>
       <c r="I26" s="8">
+        <f t="shared" si="55"/>
+        <v>8.28521156086512</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="55"/>
+        <v>18.104490495387822</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="55"/>
+        <v>31.253045240530199</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="55"/>
+        <v>48.59452401962087</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="55"/>
+        <v>71.193373708795946</v>
+      </c>
+      <c r="N26" s="8">
+        <f t="shared" si="55"/>
+        <v>100.3590117605132</v>
+      </c>
+      <c r="O26" s="8">
+        <f t="shared" si="55"/>
+        <v>126.24524002120769</v>
+      </c>
+      <c r="P26" s="8">
+        <f t="shared" ref="P26:S26" si="56">P25*0.15</f>
+        <v>156.00688214980138</v>
+      </c>
+      <c r="Q26" s="8">
         <f t="shared" si="56"/>
-        <v>54.502167664403061</v>
-      </c>
-      <c r="J26" s="8">
+        <v>190.11682575939886</v>
+      </c>
+      <c r="R26" s="8">
         <f t="shared" si="56"/>
-        <v>75.511744682792013</v>
-      </c>
-      <c r="K26" s="8">
+        <v>229.10040731938463</v>
+      </c>
+      <c r="S26" s="8">
         <f t="shared" si="56"/>
-        <v>102.17140067025814</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="56"/>
-        <v>135.81246108234299</v>
-      </c>
-      <c r="M26" s="8">
-        <f t="shared" si="56"/>
-        <v>178.06073492936088</v>
-      </c>
-      <c r="N26" s="8">
-        <f t="shared" si="56"/>
-        <v>230.89943003216459</v>
-      </c>
-      <c r="O26" s="8">
-        <f t="shared" si="56"/>
-        <v>273.81234258893164</v>
-      </c>
-      <c r="P26" s="8">
-        <f t="shared" ref="P26:S26" si="57">P25*0.15</f>
-        <v>322.47217474813391</v>
-      </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="57"/>
-        <v>377.54614028178867</v>
-      </c>
-      <c r="R26" s="8">
-        <f t="shared" si="57"/>
-        <v>439.77363939646705</v>
-      </c>
-      <c r="S26" s="8">
-        <f t="shared" si="57"/>
-        <v>509.97378628570505</v>
+        <v>273.54095298910664</v>
       </c>
     </row>
     <row r="27" spans="1:119" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2455,460 +2444,460 @@
         <v>-110.28808221323425</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" ref="F27" si="58">F25-F26</f>
-        <v>-108.82705963354518</v>
+        <f t="shared" ref="F27" si="57">F25-F26</f>
+        <v>-71.526248891160392</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" ref="G27:O27" si="59">G25-G26</f>
-        <v>-36.626714698698109</v>
+        <f t="shared" ref="G27:O27" si="58">G25-G26</f>
+        <v>-20.357649229466237</v>
       </c>
       <c r="H27" s="16">
+        <f t="shared" si="58"/>
+        <v>25.696631628252351</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" si="58"/>
+        <v>46.949532178235685</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="58"/>
+        <v>102.59211280719765</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="58"/>
+        <v>177.10058969633781</v>
+      </c>
+      <c r="L27" s="16">
+        <f t="shared" si="58"/>
+        <v>275.36896944451831</v>
+      </c>
+      <c r="M27" s="16">
+        <f t="shared" si="58"/>
+        <v>403.42911768317703</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="58"/>
+        <v>568.70106664290813</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="58"/>
+        <v>715.38969345351029</v>
+      </c>
+      <c r="P27" s="16">
+        <f t="shared" ref="P27:S27" si="59">P25-P26</f>
+        <v>884.0389988488746</v>
+      </c>
+      <c r="Q27" s="16">
         <f t="shared" si="59"/>
-        <v>90.809022001010163</v>
-      </c>
-      <c r="I27" s="16">
+        <v>1077.3286793032603</v>
+      </c>
+      <c r="R27" s="16">
         <f t="shared" si="59"/>
-        <v>308.84561676495071</v>
-      </c>
-      <c r="J27" s="16">
+        <v>1298.2356414765129</v>
+      </c>
+      <c r="S27" s="16">
         <f t="shared" si="59"/>
-        <v>427.89988653582139</v>
-      </c>
-      <c r="K27" s="16">
-        <f t="shared" si="59"/>
-        <v>578.97127046479613</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="59"/>
-        <v>769.60394613327696</v>
-      </c>
-      <c r="M27" s="16">
-        <f t="shared" si="59"/>
-        <v>1009.0108312663783</v>
-      </c>
-      <c r="N27" s="16">
-        <f t="shared" si="59"/>
-        <v>1308.4301035155993</v>
-      </c>
-      <c r="O27" s="16">
-        <f t="shared" si="59"/>
-        <v>1551.6032746706128</v>
-      </c>
-      <c r="P27" s="16">
-        <f t="shared" ref="P27:S27" si="60">P25-P26</f>
-        <v>1827.3423235727587</v>
-      </c>
-      <c r="Q27" s="16">
-        <f t="shared" si="60"/>
-        <v>2139.4281282634693</v>
-      </c>
-      <c r="R27" s="16">
-        <f t="shared" si="60"/>
-        <v>2492.0506232466469</v>
-      </c>
-      <c r="S27" s="16">
-        <f t="shared" si="60"/>
-        <v>2889.8514556189953</v>
+        <v>1550.0654002716042</v>
       </c>
       <c r="T27" s="16">
         <f>S27*($F$2+1)</f>
-        <v>2918.7499701751854</v>
+        <v>1565.5660542743203</v>
       </c>
       <c r="U27" s="16">
-        <f t="shared" ref="T27:AT27" si="61">T27*($F$2+1)</f>
-        <v>2947.937469876937</v>
+        <f t="shared" ref="U27:AT27" si="60">T27*($F$2+1)</f>
+        <v>1581.2217148170635</v>
       </c>
       <c r="V27" s="16">
+        <f t="shared" si="60"/>
+        <v>1597.0339319652342</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="60"/>
+        <v>1613.0042712848865</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="60"/>
+        <v>1629.1343139977355</v>
+      </c>
+      <c r="Y27" s="16">
+        <f t="shared" si="60"/>
+        <v>1645.425657137713</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="60"/>
+        <v>1661.87991370909</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="60"/>
+        <v>1678.498712846181</v>
+      </c>
+      <c r="AB27" s="16">
+        <f t="shared" si="60"/>
+        <v>1695.2836999746428</v>
+      </c>
+      <c r="AC27" s="16">
+        <f t="shared" si="60"/>
+        <v>1712.2365369743893</v>
+      </c>
+      <c r="AD27" s="16">
+        <f t="shared" si="60"/>
+        <v>1729.3589023441332</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" si="60"/>
+        <v>1746.6524913675746</v>
+      </c>
+      <c r="AF27" s="16">
+        <f t="shared" si="60"/>
+        <v>1764.1190162812504</v>
+      </c>
+      <c r="AG27" s="16">
+        <f t="shared" si="60"/>
+        <v>1781.760206444063</v>
+      </c>
+      <c r="AH27" s="16">
+        <f t="shared" si="60"/>
+        <v>1799.5778085085037</v>
+      </c>
+      <c r="AI27" s="16">
+        <f t="shared" si="60"/>
+        <v>1817.5735865935887</v>
+      </c>
+      <c r="AJ27" s="16">
+        <f t="shared" si="60"/>
+        <v>1835.7493224595246</v>
+      </c>
+      <c r="AK27" s="16">
+        <f t="shared" si="60"/>
+        <v>1854.10681568412</v>
+      </c>
+      <c r="AL27" s="16">
+        <f t="shared" si="60"/>
+        <v>1872.6478838409612</v>
+      </c>
+      <c r="AM27" s="16">
+        <f t="shared" si="60"/>
+        <v>1891.3743626793707</v>
+      </c>
+      <c r="AN27" s="16">
+        <f t="shared" si="60"/>
+        <v>1910.2881063061645</v>
+      </c>
+      <c r="AO27" s="16">
+        <f t="shared" si="60"/>
+        <v>1929.3909873692262</v>
+      </c>
+      <c r="AP27" s="16">
+        <f t="shared" si="60"/>
+        <v>1948.6848972429184</v>
+      </c>
+      <c r="AQ27" s="16">
+        <f t="shared" si="60"/>
+        <v>1968.1717462153476</v>
+      </c>
+      <c r="AR27" s="16">
+        <f t="shared" si="60"/>
+        <v>1987.8534636775012</v>
+      </c>
+      <c r="AS27" s="16">
+        <f t="shared" si="60"/>
+        <v>2007.7319983142761</v>
+      </c>
+      <c r="AT27" s="16">
+        <f t="shared" si="60"/>
+        <v>2027.8093182974189</v>
+      </c>
+      <c r="AU27" s="16">
+        <f t="shared" ref="AU27:BZ27" si="61">AT27*($F$2+1)</f>
+        <v>2048.0874114803933</v>
+      </c>
+      <c r="AV27" s="16">
         <f t="shared" si="61"/>
-        <v>2977.4168445757064</v>
-      </c>
-      <c r="W27" s="16">
+        <v>2068.5682855951973</v>
+      </c>
+      <c r="AW27" s="16">
         <f t="shared" si="61"/>
-        <v>3007.1910130214633</v>
-      </c>
-      <c r="X27" s="16">
+        <v>2089.2539684511494</v>
+      </c>
+      <c r="AX27" s="16">
         <f t="shared" si="61"/>
-        <v>3037.262923151678</v>
-      </c>
-      <c r="Y27" s="16">
+        <v>2110.146508135661</v>
+      </c>
+      <c r="AY27" s="16">
         <f t="shared" si="61"/>
-        <v>3067.6355523831949</v>
-      </c>
-      <c r="Z27" s="16">
+        <v>2131.2479732170177</v>
+      </c>
+      <c r="AZ27" s="16">
         <f t="shared" si="61"/>
-        <v>3098.311907907027</v>
-      </c>
-      <c r="AA27" s="16">
+        <v>2152.5604529491879</v>
+      </c>
+      <c r="BA27" s="16">
         <f t="shared" si="61"/>
-        <v>3129.2950269860971</v>
-      </c>
-      <c r="AB27" s="16">
+        <v>2174.0860574786798</v>
+      </c>
+      <c r="BB27" s="16">
         <f t="shared" si="61"/>
-        <v>3160.5879772559583</v>
-      </c>
-      <c r="AC27" s="16">
+        <v>2195.8269180534667</v>
+      </c>
+      <c r="BC27" s="16">
         <f t="shared" si="61"/>
-        <v>3192.1938570285179</v>
-      </c>
-      <c r="AD27" s="16">
+        <v>2217.7851872340016</v>
+      </c>
+      <c r="BD27" s="16">
         <f t="shared" si="61"/>
-        <v>3224.1157955988033</v>
-      </c>
-      <c r="AE27" s="16">
+        <v>2239.9630391063415</v>
+      </c>
+      <c r="BE27" s="16">
         <f t="shared" si="61"/>
-        <v>3256.3569535547913</v>
-      </c>
-      <c r="AF27" s="16">
+        <v>2262.362669497405</v>
+      </c>
+      <c r="BF27" s="16">
         <f t="shared" si="61"/>
-        <v>3288.9205230903394</v>
-      </c>
-      <c r="AG27" s="16">
+        <v>2284.9862961923791</v>
+      </c>
+      <c r="BG27" s="16">
         <f t="shared" si="61"/>
-        <v>3321.8097283212428</v>
-      </c>
-      <c r="AH27" s="16">
+        <v>2307.836159154303</v>
+      </c>
+      <c r="BH27" s="16">
         <f t="shared" si="61"/>
-        <v>3355.0278256044553</v>
-      </c>
-      <c r="AI27" s="16">
+        <v>2330.9145207458459</v>
+      </c>
+      <c r="BI27" s="16">
         <f t="shared" si="61"/>
-        <v>3388.5781038605001</v>
-      </c>
-      <c r="AJ27" s="16">
+        <v>2354.2236659533046</v>
+      </c>
+      <c r="BJ27" s="16">
         <f t="shared" si="61"/>
-        <v>3422.4638848991049</v>
-      </c>
-      <c r="AK27" s="16">
+        <v>2377.7659026128376</v>
+      </c>
+      <c r="BK27" s="16">
         <f t="shared" si="61"/>
-        <v>3456.688523748096</v>
-      </c>
-      <c r="AL27" s="16">
+        <v>2401.5435616389659</v>
+      </c>
+      <c r="BL27" s="16">
         <f t="shared" si="61"/>
-        <v>3491.2554089855771</v>
-      </c>
-      <c r="AM27" s="16">
+        <v>2425.5589972553557</v>
+      </c>
+      <c r="BM27" s="16">
         <f t="shared" si="61"/>
-        <v>3526.1679630754329</v>
-      </c>
-      <c r="AN27" s="16">
+        <v>2449.8145872279092</v>
+      </c>
+      <c r="BN27" s="16">
         <f t="shared" si="61"/>
-        <v>3561.4296427061872</v>
-      </c>
-      <c r="AO27" s="16">
+        <v>2474.3127331001883</v>
+      </c>
+      <c r="BO27" s="16">
         <f t="shared" si="61"/>
-        <v>3597.0439391332493</v>
-      </c>
-      <c r="AP27" s="16">
+        <v>2499.05586043119</v>
+      </c>
+      <c r="BP27" s="16">
         <f t="shared" si="61"/>
-        <v>3633.0143785245818</v>
-      </c>
-      <c r="AQ27" s="16">
+        <v>2524.0464190355019</v>
+      </c>
+      <c r="BQ27" s="16">
         <f t="shared" si="61"/>
-        <v>3669.3445223098279</v>
-      </c>
-      <c r="AR27" s="16">
+        <v>2549.2868832258569</v>
+      </c>
+      <c r="BR27" s="16">
         <f t="shared" si="61"/>
-        <v>3706.0379675329264</v>
-      </c>
-      <c r="AS27" s="16">
+        <v>2574.7797520581153</v>
+      </c>
+      <c r="BS27" s="16">
         <f t="shared" si="61"/>
-        <v>3743.0983472082557</v>
-      </c>
-      <c r="AT27" s="16">
+        <v>2600.5275495786964</v>
+      </c>
+      <c r="BT27" s="16">
         <f t="shared" si="61"/>
-        <v>3780.5293306803383</v>
-      </c>
-      <c r="AU27" s="16">
-        <f t="shared" ref="AU27:BZ27" si="62">AT27*($F$2+1)</f>
-        <v>3818.3346239871416</v>
-      </c>
-      <c r="AV27" s="16">
+        <v>2626.5328250744833</v>
+      </c>
+      <c r="BU27" s="16">
+        <f t="shared" si="61"/>
+        <v>2652.7981533252282</v>
+      </c>
+      <c r="BV27" s="16">
+        <f t="shared" si="61"/>
+        <v>2679.3261348584806</v>
+      </c>
+      <c r="BW27" s="16">
+        <f t="shared" si="61"/>
+        <v>2706.1193962070656</v>
+      </c>
+      <c r="BX27" s="16">
+        <f t="shared" si="61"/>
+        <v>2733.1805901691364</v>
+      </c>
+      <c r="BY27" s="16">
+        <f t="shared" si="61"/>
+        <v>2760.5123960708279</v>
+      </c>
+      <c r="BZ27" s="16">
+        <f t="shared" si="61"/>
+        <v>2788.1175200315361</v>
+      </c>
+      <c r="CA27" s="16">
+        <f t="shared" ref="CA27:DF27" si="62">BZ27*($F$2+1)</f>
+        <v>2815.9986952318513</v>
+      </c>
+      <c r="CB27" s="16">
         <f t="shared" si="62"/>
-        <v>3856.5179702270129</v>
-      </c>
-      <c r="AW27" s="16">
+        <v>2844.1586821841697</v>
+      </c>
+      <c r="CC27" s="16">
         <f t="shared" si="62"/>
-        <v>3895.0831499292831</v>
-      </c>
-      <c r="AX27" s="16">
+        <v>2872.6002690060113</v>
+      </c>
+      <c r="CD27" s="16">
         <f t="shared" si="62"/>
-        <v>3934.0339814285758</v>
-      </c>
-      <c r="AY27" s="16">
+        <v>2901.3262716960717</v>
+      </c>
+      <c r="CE27" s="16">
         <f t="shared" si="62"/>
-        <v>3973.3743212428617</v>
-      </c>
-      <c r="AZ27" s="16">
+        <v>2930.3395344130322</v>
+      </c>
+      <c r="CF27" s="16">
         <f t="shared" si="62"/>
-        <v>4013.1080644552903</v>
-      </c>
-      <c r="BA27" s="16">
+        <v>2959.6429297571626</v>
+      </c>
+      <c r="CG27" s="16">
         <f t="shared" si="62"/>
-        <v>4053.2391450998434</v>
-      </c>
-      <c r="BB27" s="16">
+        <v>2989.2393590547345</v>
+      </c>
+      <c r="CH27" s="16">
         <f t="shared" si="62"/>
-        <v>4093.771536550842</v>
-      </c>
-      <c r="BC27" s="16">
+        <v>3019.1317526452817</v>
+      </c>
+      <c r="CI27" s="16">
         <f t="shared" si="62"/>
-        <v>4134.7092519163507</v>
-      </c>
-      <c r="BD27" s="16">
+        <v>3049.3230701717343</v>
+      </c>
+      <c r="CJ27" s="16">
         <f t="shared" si="62"/>
-        <v>4176.0563444355139</v>
-      </c>
-      <c r="BE27" s="16">
+        <v>3079.8163008734518</v>
+      </c>
+      <c r="CK27" s="16">
         <f t="shared" si="62"/>
-        <v>4217.8169078798692</v>
-      </c>
-      <c r="BF27" s="16">
+        <v>3110.6144638821866</v>
+      </c>
+      <c r="CL27" s="16">
         <f t="shared" si="62"/>
-        <v>4259.9950769586676</v>
-      </c>
-      <c r="BG27" s="16">
+        <v>3141.7206085210087</v>
+      </c>
+      <c r="CM27" s="16">
         <f t="shared" si="62"/>
-        <v>4302.5950277282545</v>
-      </c>
-      <c r="BH27" s="16">
+        <v>3173.1378146062189</v>
+      </c>
+      <c r="CN27" s="16">
         <f t="shared" si="62"/>
-        <v>4345.6209780055369</v>
-      </c>
-      <c r="BI27" s="16">
+        <v>3204.8691927522809</v>
+      </c>
+      <c r="CO27" s="16">
         <f t="shared" si="62"/>
-        <v>4389.0771877855923</v>
-      </c>
-      <c r="BJ27" s="16">
+        <v>3236.9178846798036</v>
+      </c>
+      <c r="CP27" s="16">
         <f t="shared" si="62"/>
-        <v>4432.9679596634478</v>
-      </c>
-      <c r="BK27" s="16">
+        <v>3269.2870635266017</v>
+      </c>
+      <c r="CQ27" s="16">
         <f t="shared" si="62"/>
-        <v>4477.2976392600822</v>
-      </c>
-      <c r="BL27" s="16">
+        <v>3301.9799341618677</v>
+      </c>
+      <c r="CR27" s="16">
         <f t="shared" si="62"/>
-        <v>4522.070615652683</v>
-      </c>
-      <c r="BM27" s="16">
+        <v>3334.9997335034864</v>
+      </c>
+      <c r="CS27" s="16">
         <f t="shared" si="62"/>
-        <v>4567.2913218092099</v>
-      </c>
-      <c r="BN27" s="16">
+        <v>3368.3497308385213</v>
+      </c>
+      <c r="CT27" s="16">
         <f t="shared" si="62"/>
-        <v>4612.9642350273016</v>
-      </c>
-      <c r="BO27" s="16">
+        <v>3402.0332281469064</v>
+      </c>
+      <c r="CU27" s="16">
         <f t="shared" si="62"/>
-        <v>4659.0938773775742</v>
-      </c>
-      <c r="BP27" s="16">
+        <v>3436.0535604283755</v>
+      </c>
+      <c r="CV27" s="16">
         <f t="shared" si="62"/>
-        <v>4705.6848161513499</v>
-      </c>
-      <c r="BQ27" s="16">
+        <v>3470.4140960326595</v>
+      </c>
+      <c r="CW27" s="16">
         <f t="shared" si="62"/>
-        <v>4752.7416643128636</v>
-      </c>
-      <c r="BR27" s="16">
+        <v>3505.1182369929861</v>
+      </c>
+      <c r="CX27" s="16">
         <f t="shared" si="62"/>
-        <v>4800.2690809559926</v>
-      </c>
-      <c r="BS27" s="16">
+        <v>3540.169419362916</v>
+      </c>
+      <c r="CY27" s="16">
         <f t="shared" si="62"/>
-        <v>4848.2717717655523</v>
-      </c>
-      <c r="BT27" s="16">
+        <v>3575.5711135565452</v>
+      </c>
+      <c r="CZ27" s="16">
         <f t="shared" si="62"/>
-        <v>4896.7544894832081</v>
-      </c>
-      <c r="BU27" s="16">
+        <v>3611.3268246921107</v>
+      </c>
+      <c r="DA27" s="16">
         <f t="shared" si="62"/>
-        <v>4945.72203437804</v>
-      </c>
-      <c r="BV27" s="16">
+        <v>3647.4400929390317</v>
+      </c>
+      <c r="DB27" s="16">
         <f t="shared" si="62"/>
-        <v>4995.1792547218201</v>
-      </c>
-      <c r="BW27" s="16">
+        <v>3683.9144938684221</v>
+      </c>
+      <c r="DC27" s="16">
         <f t="shared" si="62"/>
-        <v>5045.1310472690384</v>
-      </c>
-      <c r="BX27" s="16">
+        <v>3720.7536388071062</v>
+      </c>
+      <c r="DD27" s="16">
         <f t="shared" si="62"/>
-        <v>5095.5823577417286</v>
-      </c>
-      <c r="BY27" s="16">
+        <v>3757.9611751951775</v>
+      </c>
+      <c r="DE27" s="16">
         <f t="shared" si="62"/>
-        <v>5146.5381813191461</v>
-      </c>
-      <c r="BZ27" s="16">
+        <v>3795.5407869471292</v>
+      </c>
+      <c r="DF27" s="16">
         <f t="shared" si="62"/>
-        <v>5198.0035631323381</v>
-      </c>
-      <c r="CA27" s="16">
-        <f t="shared" ref="CA27:DF27" si="63">BZ27*($F$2+1)</f>
-        <v>5249.9835987636616</v>
-      </c>
-      <c r="CB27" s="16">
+        <v>3833.4961948166006</v>
+      </c>
+      <c r="DG27" s="16">
+        <f t="shared" ref="DG27:DO27" si="63">DF27*($F$2+1)</f>
+        <v>3871.8311567647665</v>
+      </c>
+      <c r="DH27" s="16">
         <f t="shared" si="63"/>
-        <v>5302.4834347512979</v>
-      </c>
-      <c r="CC27" s="16">
+        <v>3910.5494683324141</v>
+      </c>
+      <c r="DI27" s="16">
         <f t="shared" si="63"/>
-        <v>5355.5082690988111</v>
-      </c>
-      <c r="CD27" s="16">
+        <v>3949.6549630157383</v>
+      </c>
+      <c r="DJ27" s="16">
         <f t="shared" si="63"/>
-        <v>5409.0633517897995</v>
-      </c>
-      <c r="CE27" s="16">
+        <v>3989.1515126458958</v>
+      </c>
+      <c r="DK27" s="16">
         <f t="shared" si="63"/>
-        <v>5463.1539853076974</v>
-      </c>
-      <c r="CF27" s="16">
+        <v>4029.0430277723549</v>
+      </c>
+      <c r="DL27" s="16">
         <f t="shared" si="63"/>
-        <v>5517.7855251607743</v>
-      </c>
-      <c r="CG27" s="16">
+        <v>4069.3334580500787</v>
+      </c>
+      <c r="DM27" s="16">
         <f t="shared" si="63"/>
-        <v>5572.9633804123823</v>
-      </c>
-      <c r="CH27" s="16">
+        <v>4110.0267926305796</v>
+      </c>
+      <c r="DN27" s="16">
         <f t="shared" si="63"/>
-        <v>5628.6930142165065</v>
-      </c>
-      <c r="CI27" s="16">
+        <v>4151.1270605568852</v>
+      </c>
+      <c r="DO27" s="16">
         <f t="shared" si="63"/>
-        <v>5684.9799443586717</v>
-      </c>
-      <c r="CJ27" s="16">
-        <f t="shared" si="63"/>
-        <v>5741.8297438022582</v>
-      </c>
-      <c r="CK27" s="16">
-        <f t="shared" si="63"/>
-        <v>5799.2480412402811</v>
-      </c>
-      <c r="CL27" s="16">
-        <f t="shared" si="63"/>
-        <v>5857.240521652684</v>
-      </c>
-      <c r="CM27" s="16">
-        <f t="shared" si="63"/>
-        <v>5915.812926869211</v>
-      </c>
-      <c r="CN27" s="16">
-        <f t="shared" si="63"/>
-        <v>5974.9710561379034</v>
-      </c>
-      <c r="CO27" s="16">
-        <f t="shared" si="63"/>
-        <v>6034.7207666992826</v>
-      </c>
-      <c r="CP27" s="16">
-        <f t="shared" si="63"/>
-        <v>6095.0679743662758</v>
-      </c>
-      <c r="CQ27" s="16">
-        <f t="shared" si="63"/>
-        <v>6156.0186541099383</v>
-      </c>
-      <c r="CR27" s="16">
-        <f t="shared" si="63"/>
-        <v>6217.5788406510374</v>
-      </c>
-      <c r="CS27" s="16">
-        <f t="shared" si="63"/>
-        <v>6279.7546290575474</v>
-      </c>
-      <c r="CT27" s="16">
-        <f t="shared" si="63"/>
-        <v>6342.5521753481225</v>
-      </c>
-      <c r="CU27" s="16">
-        <f t="shared" si="63"/>
-        <v>6405.9776971016036</v>
-      </c>
-      <c r="CV27" s="16">
-        <f t="shared" si="63"/>
-        <v>6470.0374740726193</v>
-      </c>
-      <c r="CW27" s="16">
-        <f t="shared" si="63"/>
-        <v>6534.7378488133454</v>
-      </c>
-      <c r="CX27" s="16">
-        <f t="shared" si="63"/>
-        <v>6600.0852273014789</v>
-      </c>
-      <c r="CY27" s="16">
-        <f t="shared" si="63"/>
-        <v>6666.0860795744939</v>
-      </c>
-      <c r="CZ27" s="16">
-        <f t="shared" si="63"/>
-        <v>6732.7469403702389</v>
-      </c>
-      <c r="DA27" s="16">
-        <f t="shared" si="63"/>
-        <v>6800.0744097739416</v>
-      </c>
-      <c r="DB27" s="16">
-        <f t="shared" si="63"/>
-        <v>6868.0751538716813</v>
-      </c>
-      <c r="DC27" s="16">
-        <f t="shared" si="63"/>
-        <v>6936.7559054103986</v>
-      </c>
-      <c r="DD27" s="16">
-        <f t="shared" si="63"/>
-        <v>7006.1234644645028</v>
-      </c>
-      <c r="DE27" s="16">
-        <f t="shared" si="63"/>
-        <v>7076.1846991091479</v>
-      </c>
-      <c r="DF27" s="16">
-        <f t="shared" si="63"/>
-        <v>7146.9465461002392</v>
-      </c>
-      <c r="DG27" s="16">
-        <f t="shared" ref="DG27:DO27" si="64">DF27*($F$2+1)</f>
-        <v>7218.4160115612412</v>
-      </c>
-      <c r="DH27" s="16">
-        <f t="shared" si="64"/>
-        <v>7290.6001716768533</v>
-      </c>
-      <c r="DI27" s="16">
-        <f t="shared" si="64"/>
-        <v>7363.5061733936218</v>
-      </c>
-      <c r="DJ27" s="16">
-        <f t="shared" si="64"/>
-        <v>7437.1412351275585</v>
-      </c>
-      <c r="DK27" s="16">
-        <f t="shared" si="64"/>
-        <v>7511.512647478834</v>
-      </c>
-      <c r="DL27" s="16">
-        <f t="shared" si="64"/>
-        <v>7586.6277739536226</v>
-      </c>
-      <c r="DM27" s="16">
-        <f t="shared" si="64"/>
-        <v>7662.4940516931592</v>
-      </c>
-      <c r="DN27" s="16">
-        <f t="shared" si="64"/>
-        <v>7739.1189922100912</v>
-      </c>
-      <c r="DO27" s="16">
-        <f t="shared" si="64"/>
-        <v>7816.5101821321923</v>
+        <v>4192.6383311624541</v>
       </c>
     </row>
     <row r="28" spans="1:119" x14ac:dyDescent="0.15">
@@ -2928,64 +2917,64 @@
         <v>-2.9253339285714288</v>
       </c>
       <c r="E28" s="19">
-        <f t="shared" ref="E28:F28" si="65">E27/E29</f>
+        <f t="shared" ref="E28:F28" si="64">E27/E29</f>
         <v>-1.9694300395220401</v>
       </c>
       <c r="F28" s="19">
+        <f t="shared" si="64"/>
+        <v>-1.2772544444850069</v>
+      </c>
+      <c r="G28" s="19">
+        <f t="shared" ref="G28:O28" si="65">G27/G29</f>
+        <v>-0.3635294505261828</v>
+      </c>
+      <c r="H28" s="19">
         <f t="shared" si="65"/>
-        <v>-1.943340350599021</v>
-      </c>
-      <c r="G28" s="19">
-        <f t="shared" ref="G28:O28" si="66">G27/G29</f>
-        <v>-0.65404847676246625</v>
-      </c>
-      <c r="H28" s="19">
+        <v>0.4588684219330777</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="65"/>
+        <v>0.83838450318278013</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="65"/>
+        <v>1.8320020144142437</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="65"/>
+        <v>3.1625105302917467</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="65"/>
+        <v>4.9173030257949701</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="65"/>
+        <v>7.2040913871995897</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="65"/>
+        <v>10.15537619005193</v>
+      </c>
+      <c r="O28" s="19">
+        <f t="shared" si="65"/>
+        <v>12.77481595452697</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" ref="P28:S28" si="66">P27/P29</f>
+        <v>15.786410693729904</v>
+      </c>
+      <c r="Q28" s="19">
         <f t="shared" si="66"/>
-        <v>1.6215896785894672</v>
-      </c>
-      <c r="I28" s="19">
+        <v>19.238012130415363</v>
+      </c>
+      <c r="R28" s="19">
         <f t="shared" si="66"/>
-        <v>5.5151002993741196</v>
-      </c>
-      <c r="J28" s="19">
+        <v>23.182779312080587</v>
+      </c>
+      <c r="S28" s="19">
         <f t="shared" si="66"/>
-        <v>7.6410694024253818</v>
-      </c>
-      <c r="K28" s="19">
-        <f t="shared" si="66"/>
-        <v>10.33877268687136</v>
-      </c>
-      <c r="L28" s="19">
-        <f t="shared" si="66"/>
-        <v>13.742927609522804</v>
-      </c>
-      <c r="M28" s="19">
-        <f t="shared" si="66"/>
-        <v>18.018050558328184</v>
-      </c>
-      <c r="N28" s="19">
-        <f t="shared" si="66"/>
-        <v>23.364823277064271</v>
-      </c>
-      <c r="O28" s="19">
-        <f t="shared" si="66"/>
-        <v>27.707201333403798</v>
-      </c>
-      <c r="P28" s="19">
-        <f t="shared" ref="P28:S28" si="67">P27/P29</f>
-        <v>32.631112920942122</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="67"/>
-        <v>38.204073718990522</v>
-      </c>
-      <c r="R28" s="19">
-        <f t="shared" si="67"/>
-        <v>44.500903986547264</v>
-      </c>
-      <c r="S28" s="19">
-        <f t="shared" si="67"/>
-        <v>51.604490278910632</v>
+        <v>27.67973929056436</v>
       </c>
     </row>
     <row r="29" spans="1:119" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -3005,63 +2994,63 @@
         <v>56</v>
       </c>
       <c r="E29" s="8">
-        <f t="shared" ref="E29" si="68">D29</f>
+        <f t="shared" ref="E29" si="67">D29</f>
         <v>56</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" ref="F29" si="69">E29</f>
+        <f t="shared" ref="F29" si="68">E29</f>
         <v>56</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" ref="G29" si="70">F29</f>
+        <f t="shared" ref="G29" si="69">F29</f>
         <v>56</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ref="H29" si="71">G29</f>
+        <f t="shared" ref="H29" si="70">G29</f>
         <v>56</v>
       </c>
       <c r="I29" s="8">
-        <f t="shared" ref="I29" si="72">H29</f>
+        <f t="shared" ref="I29" si="71">H29</f>
         <v>56</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" ref="J29" si="73">I29</f>
+        <f t="shared" ref="J29" si="72">I29</f>
         <v>56</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" ref="K29" si="74">J29</f>
+        <f t="shared" ref="K29" si="73">J29</f>
         <v>56</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" ref="L29" si="75">K29</f>
+        <f t="shared" ref="L29" si="74">K29</f>
         <v>56</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" ref="M29" si="76">L29</f>
+        <f t="shared" ref="M29" si="75">L29</f>
         <v>56</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" ref="N29" si="77">M29</f>
+        <f t="shared" ref="N29" si="76">M29</f>
         <v>56</v>
       </c>
       <c r="O29" s="8">
-        <f t="shared" ref="O29" si="78">N29</f>
+        <f t="shared" ref="O29" si="77">N29</f>
         <v>56</v>
       </c>
       <c r="P29" s="8">
-        <f t="shared" ref="P29" si="79">O29</f>
+        <f t="shared" ref="P29" si="78">O29</f>
         <v>56</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" ref="Q29" si="80">P29</f>
+        <f t="shared" ref="Q29" si="79">P29</f>
         <v>56</v>
       </c>
       <c r="R29" s="8">
-        <f t="shared" ref="R29" si="81">Q29</f>
+        <f t="shared" ref="R29" si="80">Q29</f>
         <v>56</v>
       </c>
       <c r="S29" s="8">
-        <f t="shared" ref="S29" si="82">R29</f>
+        <f t="shared" ref="S29" si="81">R29</f>
         <v>56</v>
       </c>
     </row>
@@ -3090,7 +3079,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="22">
-        <f t="shared" ref="B31:O31" si="83">IFERROR(B18/B16,0)</f>
+        <f t="shared" ref="B31:O31" si="82">IFERROR(B18/B16,0)</f>
         <v>0.73134038325320161</v>
       </c>
       <c r="C31" s="22">
@@ -3098,11 +3087,11 @@
         <v>0.71385230534659927</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>0.70131432259578708</v>
       </c>
       <c r="F31" s="22">
@@ -3110,56 +3099,56 @@
         <v>0.70131432259578708</v>
       </c>
       <c r="G31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578708</v>
+      </c>
+      <c r="H31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578708</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578708</v>
+      </c>
+      <c r="J31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578708</v>
+      </c>
+      <c r="K31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="L31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="M31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="N31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="O31" s="22">
+        <f t="shared" si="82"/>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="P31" s="22">
+        <f t="shared" ref="P31:S31" si="83">IFERROR(P18/P16,0)</f>
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="Q31" s="22">
         <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="H31" s="22">
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="R31" s="22">
         <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="I31" s="22">
+        <v>0.70131432259578719</v>
+      </c>
+      <c r="S31" s="22">
         <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="J31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="K31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="L31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="M31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="N31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="O31" s="22">
-        <f t="shared" si="83"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="P31" s="22">
-        <f t="shared" ref="P31:S31" si="84">IFERROR(P18/P16,0)</f>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="Q31" s="22">
-        <f t="shared" si="84"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="R31" s="22">
-        <f t="shared" si="84"/>
-        <v>0.70131432259578708</v>
-      </c>
-      <c r="S31" s="22">
-        <f t="shared" si="84"/>
-        <v>0.70131432259578708</v>
+        <v>0.70131432259578719</v>
       </c>
     </row>
     <row r="32" spans="1:119" x14ac:dyDescent="0.15">
@@ -3167,7 +3156,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="21">
-        <f t="shared" ref="B32:O32" si="85">IFERROR(B23/B16,0)</f>
+        <f t="shared" ref="B32:O32" si="84">IFERROR(B23/B16,0)</f>
         <v>-0.569977872361765</v>
       </c>
       <c r="C32" s="21">
@@ -3175,68 +3164,68 @@
         <v>-0.43187811651588132</v>
       </c>
       <c r="D32" s="21">
+        <f t="shared" si="84"/>
+        <v>-0.37443451857067422</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="84"/>
+        <v>-0.18177903177912805</v>
+      </c>
+      <c r="F32" s="21">
+        <f t="shared" si="84"/>
+        <v>-7.7872412578435399E-2</v>
+      </c>
+      <c r="G32" s="21">
+        <f t="shared" si="84"/>
+        <v>-1.2173430110420103E-2</v>
+      </c>
+      <c r="H32" s="21">
+        <f t="shared" si="84"/>
+        <v>2.2369165964456064E-2</v>
+      </c>
+      <c r="I32" s="21">
+        <f t="shared" si="84"/>
+        <v>2.891722615107584E-2</v>
+      </c>
+      <c r="J32" s="21">
+        <f t="shared" si="84"/>
+        <v>4.9316529185344508E-2</v>
+      </c>
+      <c r="K32" s="21">
+        <f t="shared" si="84"/>
+        <v>6.857692438094834E-2</v>
+      </c>
+      <c r="L32" s="21">
+        <f t="shared" si="84"/>
+        <v>8.6769944304406627E-2</v>
+      </c>
+      <c r="M32" s="21">
+        <f t="shared" si="84"/>
+        <v>0.10396213449253082</v>
+      </c>
+      <c r="N32" s="21">
+        <f t="shared" si="84"/>
+        <v>0.12021542845417005</v>
+      </c>
+      <c r="O32" s="21">
+        <f t="shared" si="84"/>
+        <v>0.13453684888121745</v>
+      </c>
+      <c r="P32" s="21">
+        <f t="shared" ref="P32:S32" si="85">IFERROR(P23/P16,0)</f>
+        <v>0.14820729565248994</v>
+      </c>
+      <c r="Q32" s="21">
         <f t="shared" si="85"/>
-        <v>-0.37443451857067422</v>
-      </c>
-      <c r="E32" s="21">
+        <v>0.16125635847961389</v>
+      </c>
+      <c r="R32" s="21">
         <f t="shared" si="85"/>
-        <v>-0.18177903177912805</v>
-      </c>
-      <c r="F32" s="21">
+        <v>0.17371228208732292</v>
+      </c>
+      <c r="S32" s="21">
         <f t="shared" si="85"/>
-        <v>-0.12705305816635654</v>
-      </c>
-      <c r="G32" s="21">
-        <f t="shared" si="85"/>
-        <v>-2.4253824070267768E-2</v>
-      </c>
-      <c r="H32" s="21">
-        <f t="shared" si="85"/>
-        <v>6.6258425096191689E-2</v>
-      </c>
-      <c r="I32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.14573462334097337</v>
-      </c>
-      <c r="J32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.16258989934485885</v>
-      </c>
-      <c r="K32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.17850413310178931</v>
-      </c>
-      <c r="L32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.19353642962873124</v>
-      </c>
-      <c r="M32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.20774177332333343</v>
-      </c>
-      <c r="N32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.22117133781558593</v>
-      </c>
-      <c r="O32" s="21">
-        <f t="shared" si="85"/>
-        <v>0.23300465847659352</v>
-      </c>
-      <c r="P32" s="21">
-        <f t="shared" ref="P32:S32" si="86">IFERROR(P23/P16,0)</f>
-        <v>0.24430010092573715</v>
-      </c>
-      <c r="Q32" s="21">
-        <f t="shared" si="86"/>
-        <v>0.25508211417264715</v>
-      </c>
-      <c r="R32" s="21">
-        <f t="shared" si="86"/>
-        <v>0.26537403590833375</v>
-      </c>
-      <c r="S32" s="21">
-        <f t="shared" si="86"/>
-        <v>0.27519814301967105</v>
+        <v>0.18560202734922721</v>
       </c>
     </row>
     <row r="33" spans="1:119" x14ac:dyDescent="0.15">
@@ -3244,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="21">
-        <f t="shared" ref="B33:O33" si="87">IFERROR(B26/B25,0)</f>
+        <f t="shared" ref="B33:O33" si="86">IFERROR(B26/B25,0)</f>
         <v>-1.1096209978249354E-2</v>
       </c>
       <c r="C33" s="21">
@@ -3252,7 +3241,7 @@
         <v>3.6782325106618559E-2</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.8987801041121687E-3</v>
       </c>
       <c r="E33" s="21">
@@ -3260,59 +3249,59 @@
         <v>0</v>
       </c>
       <c r="F33" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="G33" s="21">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="H33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="I33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="J33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="K33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="L33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="M33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="N33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="O33" s="21">
+        <f t="shared" si="86"/>
+        <v>0.15</v>
+      </c>
+      <c r="P33" s="21">
+        <f t="shared" ref="P33:S33" si="87">IFERROR(P26/P25,0)</f>
+        <v>0.15</v>
+      </c>
+      <c r="Q33" s="21">
         <f t="shared" si="87"/>
         <v>0.15</v>
       </c>
-      <c r="I33" s="21">
+      <c r="R33" s="21">
         <f t="shared" si="87"/>
         <v>0.15</v>
       </c>
-      <c r="J33" s="21">
+      <c r="S33" s="21">
         <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="K33" s="21">
-        <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="L33" s="21">
-        <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="M33" s="21">
-        <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="N33" s="21">
-        <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="O33" s="21">
-        <f t="shared" si="87"/>
-        <v>0.15</v>
-      </c>
-      <c r="P33" s="21">
-        <f t="shared" ref="P33:S33" si="88">IFERROR(P26/P25,0)</f>
-        <v>0.15</v>
-      </c>
-      <c r="Q33" s="21">
-        <f t="shared" si="88"/>
-        <v>0.15</v>
-      </c>
-      <c r="R33" s="21">
-        <f t="shared" si="88"/>
-        <v>0.15</v>
-      </c>
-      <c r="S33" s="21">
-        <f t="shared" si="88"/>
         <v>0.15</v>
       </c>
     </row>
@@ -3342,11 +3331,11 @@
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20">
-        <f t="shared" ref="C35:O35" si="89">C16/B16-1</f>
+        <f t="shared" ref="C35:O35" si="88">C16/B16-1</f>
         <v>0.61160666712635336</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.59095753370310167</v>
       </c>
       <c r="E35" s="20">
@@ -3354,59 +3343,59 @@
         <v>0.53372972107218053</v>
       </c>
       <c r="F35" s="20">
-        <f t="shared" si="89"/>
-        <v>0.34321882255318137</v>
+        <f t="shared" si="88"/>
+        <v>0.42799999999999971</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="89"/>
-        <v>0.43953985431208786</v>
+        <f t="shared" si="88"/>
+        <v>0.37700000000000022</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="89"/>
-        <v>0.44164374122392913</v>
+        <f t="shared" si="88"/>
+        <v>0.32599999999999985</v>
       </c>
       <c r="I35" s="20">
-        <f t="shared" si="89"/>
-        <v>0.44333420780898125</v>
+        <f t="shared" si="88"/>
+        <v>0.27500000000000013</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="O35" s="20">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" ref="P35" si="90">P16/O16-1</f>
+        <f t="shared" ref="P35" si="89">P16/O16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q35" s="20">
-        <f t="shared" ref="Q35" si="91">Q16/P16-1</f>
-        <v>9.9999999999999867E-2</v>
+        <f t="shared" ref="Q35" si="90">Q16/P16-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" ref="R35" si="92">R16/Q16-1</f>
+        <f t="shared" ref="R35" si="91">R16/Q16-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="S35" s="20">
-        <f t="shared" ref="S35" si="93">S16/R16-1</f>
+        <f t="shared" ref="S35" si="92">S16/R16-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3416,71 +3405,71 @@
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21">
-        <f t="shared" ref="C36:O36" si="94">C19/B19-1</f>
+        <f t="shared" ref="C36:O36" si="93">C19/B19-1</f>
         <v>0.44455162213433685</v>
       </c>
       <c r="D36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.66300888107374156</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="J36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="K36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="L36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="M36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P36" s="21">
-        <f t="shared" ref="P36:P38" si="95">P19/O19-1</f>
+        <f t="shared" ref="P36:P38" si="94">P19/O19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q36" s="21">
-        <f t="shared" ref="Q36:Q39" si="96">Q19/P19-1</f>
+        <f t="shared" ref="Q36:Q39" si="95">Q19/P19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="R36" s="21">
-        <f t="shared" ref="R36:R39" si="97">R19/Q19-1</f>
+        <f t="shared" ref="R36:R39" si="96">R19/Q19-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="S36" s="21">
-        <f t="shared" ref="S36:S39" si="98">S19/R19-1</f>
+        <f t="shared" ref="S36:S39" si="97">S19/R19-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -3490,71 +3479,71 @@
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="21">
-        <f t="shared" ref="C37:O37" si="99">C20/B20-1</f>
+        <f t="shared" ref="C37:O37" si="98">C20/B20-1</f>
         <v>0.39636902624722659</v>
       </c>
       <c r="D37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.45602769078622063</v>
       </c>
       <c r="E37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.25</v>
       </c>
       <c r="J37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="N37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="O37" s="21">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P37" s="21">
+        <f t="shared" si="94"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q37" s="21">
         <f t="shared" si="95"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q37" s="21">
+      <c r="R37" s="21">
         <f t="shared" si="96"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R37" s="21">
+      <c r="S37" s="21">
         <f t="shared" si="97"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S37" s="21">
-        <f t="shared" si="98"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -3564,77 +3553,77 @@
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="21">
-        <f t="shared" ref="C38:O38" si="100">C21/B21-1</f>
+        <f t="shared" ref="C38:O38" si="99">C21/B21-1</f>
         <v>0.44217539089055036</v>
       </c>
       <c r="D38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.31504449807677792</v>
       </c>
       <c r="E38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="F38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="G38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="I38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O38" s="21">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P38" s="21">
+        <f t="shared" si="94"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="Q38" s="21">
         <f t="shared" si="95"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q38" s="21">
+      <c r="R38" s="21">
         <f t="shared" si="96"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R38" s="21">
+      <c r="S38" s="21">
         <f t="shared" si="97"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S38" s="21">
-        <f t="shared" si="98"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
     </row>
     <row r="39" spans="1:119" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B39" s="57"/>
       <c r="C39" s="57">
@@ -3642,31 +3631,31 @@
         <v>0.41892022081137603</v>
       </c>
       <c r="D39" s="57">
-        <f t="shared" ref="D39:O39" si="101">D22/C22-1</f>
+        <f t="shared" ref="D39:O39" si="100">D22/C22-1</f>
         <v>0.49378133858401352</v>
       </c>
       <c r="E39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.25905459737004821</v>
       </c>
       <c r="F39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.25997852018304801</v>
       </c>
       <c r="G39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.26089497051919297</v>
       </c>
       <c r="H39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.26180340766669552</v>
       </c>
       <c r="I39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.26270331203279573</v>
       </c>
       <c r="J39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.1635941859794523</v>
       </c>
       <c r="K39" s="57">
@@ -3674,19 +3663,19 @@
         <v>0.16455129991494477</v>
       </c>
       <c r="L39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.16549654885305642</v>
       </c>
       <c r="M39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.16642939231970755</v>
       </c>
       <c r="N39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>0.1673493239961219</v>
       </c>
       <c r="O39" s="57">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>7.2890049131787205E-2</v>
       </c>
       <c r="P39" s="57">
@@ -3694,15 +3683,15 @@
         <v>7.3468438415792203E-2</v>
       </c>
       <c r="Q39" s="57">
+        <f t="shared" si="95"/>
+        <v>7.4048478123370787E-2</v>
+      </c>
+      <c r="R39" s="57">
         <f t="shared" si="96"/>
-        <v>7.4048478123370787E-2</v>
-      </c>
-      <c r="R39" s="57">
+        <v>7.4629545569422362E-2</v>
+      </c>
+      <c r="S39" s="57">
         <f t="shared" si="97"/>
-        <v>7.4629545569422362E-2</v>
-      </c>
-      <c r="S39" s="57">
-        <f t="shared" si="98"/>
         <v>7.5211013635409163E-2</v>
       </c>
     </row>
@@ -3747,60 +3736,60 @@
         <v>-35.288082213234247</v>
       </c>
       <c r="F41" s="47">
-        <f t="shared" ref="F41:O41" si="102">E41+F27</f>
-        <v>-144.11514184677941</v>
+        <f t="shared" ref="F41:O41" si="101">E41+F27</f>
+        <v>-106.81433110439464</v>
       </c>
       <c r="G41" s="47">
-        <f t="shared" si="102"/>
-        <v>-180.7418565454775</v>
+        <f t="shared" si="101"/>
+        <v>-127.17198033386087</v>
       </c>
       <c r="H41" s="47">
-        <f t="shared" si="102"/>
-        <v>-89.93283454446734</v>
+        <f t="shared" si="101"/>
+        <v>-101.47534870560852</v>
       </c>
       <c r="I41" s="47">
-        <f t="shared" si="102"/>
-        <v>218.91278222048336</v>
+        <f t="shared" si="101"/>
+        <v>-54.525816527372839</v>
       </c>
       <c r="J41" s="47">
-        <f t="shared" si="102"/>
-        <v>646.81266875630479</v>
+        <f t="shared" si="101"/>
+        <v>48.066296279824812</v>
       </c>
       <c r="K41" s="47">
-        <f t="shared" si="102"/>
-        <v>1225.7839392211008</v>
+        <f t="shared" si="101"/>
+        <v>225.16688597616263</v>
       </c>
       <c r="L41" s="47">
-        <f t="shared" si="102"/>
-        <v>1995.3878853543779</v>
+        <f t="shared" si="101"/>
+        <v>500.53585542068095</v>
       </c>
       <c r="M41" s="47">
-        <f t="shared" si="102"/>
-        <v>3004.3987166207562</v>
+        <f t="shared" si="101"/>
+        <v>903.96497310385803</v>
       </c>
       <c r="N41" s="47">
-        <f t="shared" si="102"/>
-        <v>4312.8288201363557</v>
+        <f t="shared" si="101"/>
+        <v>1472.6660397467663</v>
       </c>
       <c r="O41" s="47">
-        <f t="shared" si="102"/>
-        <v>5864.432094806969</v>
+        <f t="shared" si="101"/>
+        <v>2188.0557332002763</v>
       </c>
       <c r="P41" s="47">
-        <f t="shared" ref="P41" si="103">O41+P27</f>
-        <v>7691.7744183797276</v>
+        <f t="shared" ref="P41" si="102">O41+P27</f>
+        <v>3072.0947320491509</v>
       </c>
       <c r="Q41" s="47">
-        <f t="shared" ref="Q41" si="104">P41+Q27</f>
-        <v>9831.2025466431969</v>
+        <f t="shared" ref="Q41" si="103">P41+Q27</f>
+        <v>4149.4234113524108</v>
       </c>
       <c r="R41" s="47">
-        <f t="shared" ref="R41" si="105">Q41+R27</f>
-        <v>12323.253169889844</v>
+        <f t="shared" ref="R41" si="104">Q41+R27</f>
+        <v>5447.6590528289234</v>
       </c>
       <c r="S41" s="47">
-        <f t="shared" ref="S41" si="106">R41+S27</f>
-        <v>15213.104625508839</v>
+        <f t="shared" ref="S41" si="105">R41+S27</f>
+        <v>6997.7244531005272</v>
       </c>
     </row>
     <row r="42" spans="1:119" x14ac:dyDescent="0.15">
@@ -3889,7 +3878,7 @@
     </row>
     <row r="45" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="48">
         <f>Reports!E38</f>
@@ -4021,7 +4010,7 @@
     </row>
     <row r="46" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="48">
         <f>Reports!E39</f>
@@ -4153,7 +4142,7 @@
     </row>
     <row r="47" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="48">
         <f>Reports!E40</f>
@@ -4285,7 +4274,7 @@
     </row>
     <row r="49" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="50">
         <f>B46-B45-B42</f>
@@ -4417,7 +4406,7 @@
     </row>
     <row r="50" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="50">
         <f>B46-B47</f>
@@ -4549,7 +4538,7 @@
     </row>
     <row r="52" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="25">
         <f>B27/B50</f>
@@ -4566,7 +4555,7 @@
     </row>
     <row r="53" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="25">
         <f>B27/B46</f>
@@ -4583,7 +4572,7 @@
     </row>
     <row r="54" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A54" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="25">
         <f>B27/(B50-B45)</f>
@@ -4600,7 +4589,7 @@
     </row>
     <row r="55" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="25">
         <f>B27/B49</f>
@@ -4617,75 +4606,51 @@
     </row>
     <row r="57" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="25">
-        <f t="shared" ref="C57:H58" si="107">C10/B10-1</f>
+        <f t="shared" ref="C57:H58" si="106">C10/B10-1</f>
         <v>0.63396554438368002</v>
       </c>
       <c r="D57" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0.6203465089391933</v>
       </c>
       <c r="E57" s="25">
-        <f t="shared" si="107"/>
+        <f>E10/D10-1</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="F57" s="25">
-        <f t="shared" si="107"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="G57" s="25">
-        <f t="shared" si="107"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="H57" s="25">
-        <f t="shared" si="107"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I57" s="25">
-        <f t="shared" ref="I57" si="108">I10/H10-1</f>
-        <v>0.44999999999999996</v>
-      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0.36833482275841534</v>
       </c>
       <c r="D58" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0.20912158484815491</v>
       </c>
       <c r="E58" s="25">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="F58" s="25">
-        <f t="shared" si="107"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="G58" s="25">
-        <f t="shared" si="107"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="H58" s="25">
-        <f t="shared" si="107"/>
-        <v>0.14999999999999991</v>
-      </c>
-      <c r="I58" s="25">
-        <f t="shared" ref="I58" si="109">I11/H11-1</f>
-        <v>0.14999999999999991</v>
-      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="60" spans="1:119" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B60" s="15">
         <f>Reports!E57</f>
@@ -4704,26 +4669,26 @@
         <v>23055</v>
       </c>
       <c r="F60" s="15">
-        <f>E60*1.2</f>
-        <v>27666</v>
+        <f>E60*1.4</f>
+        <v>32276.999999999996</v>
       </c>
       <c r="G60" s="15">
-        <f t="shared" ref="G60:I60" si="110">F60*1.2</f>
-        <v>33199.199999999997</v>
+        <f>F60*1.35</f>
+        <v>43573.95</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="110"/>
-        <v>39839.039999999994</v>
+        <f>G60*1.3</f>
+        <v>56646.134999999995</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="110"/>
-        <v>47806.847999999991</v>
+        <f>H60*1.25</f>
+        <v>70807.668749999997</v>
       </c>
     </row>
     <row r="61" spans="1:119" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C62" s="25">
         <f>C60/B60-1</f>
@@ -4738,25 +4703,25 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="F62" s="25">
-        <f t="shared" ref="F62:I62" si="111">F60/E60-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="F62:I62" si="107">F60/E60-1</f>
+        <v>0.39999999999999991</v>
       </c>
       <c r="G62" s="25">
-        <f t="shared" si="111"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="107"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="H62" s="25">
-        <f t="shared" si="111"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="107"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I62" s="25">
-        <f t="shared" si="111"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="107"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="63" spans="1:119" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C63" s="25">
         <f>C14/B14-1</f>
@@ -4767,24 +4732,24 @@
         <v>0.3408069780894063</v>
       </c>
       <c r="E63" s="25">
-        <f t="shared" ref="E63:I63" si="112">E14/D14-1</f>
+        <f t="shared" ref="E63:I63" si="108">E14/D14-1</f>
         <v>5.7744635222193752E-2</v>
       </c>
       <c r="F63" s="25">
-        <f t="shared" si="112"/>
-        <v>-5.0000000000000044E-2</v>
+        <f>F14/E14-1</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G63" s="25">
-        <f t="shared" si="112"/>
-        <v>-5.0000000000000155E-2</v>
+        <f t="shared" si="108"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="H63" s="25">
-        <f t="shared" si="112"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="108"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="I63" s="25">
-        <f t="shared" si="112"/>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="108"/>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4804,10 +4769,10 @@
   <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
+      <selection pane="bottomRight" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4840,67 +4805,67 @@
         <v>29</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>44</v>
-      </c>
       <c r="J1" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>63</v>
-      </c>
       <c r="N1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="59">
         <v>43585</v>
@@ -4926,7 +4891,7 @@
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="28">
         <v>29.187000000000001</v>
@@ -4977,7 +4942,7 @@
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="28">
         <v>3.2029999999999998</v>
@@ -5041,7 +5006,7 @@
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="68">
         <f>B57/1000000</f>
@@ -5104,13 +5069,13 @@
         <v>2.2599999999999999E-2</v>
       </c>
       <c r="Q6" s="69">
-        <f t="shared" si="0"/>
+        <f>Q57/1000000</f>
         <v>2.3054999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="34">
         <f>SUM(B3:B4)/B6</f>
@@ -5125,7 +5090,7 @@
         <v>8466.9387755102034</v>
       </c>
       <c r="E7" s="33">
-        <f t="shared" ref="E7:Q7" si="1">SUM(E3:E4)/E6</f>
+        <f t="shared" ref="E7:P7" si="1">SUM(E3:E4)/E6</f>
         <v>8780.8771929824543</v>
       </c>
       <c r="F7" s="34">
@@ -5210,67 +5175,67 @@
         <v>0</v>
       </c>
       <c r="B9" s="32">
-        <f>B6*B7</f>
+        <f t="shared" ref="B9:Q9" si="2">B6*B7</f>
         <v>32.39</v>
       </c>
       <c r="C9" s="31">
-        <f>C6*C7</f>
+        <f t="shared" si="2"/>
         <v>35.6</v>
       </c>
       <c r="D9" s="31">
-        <f>D6*D7</f>
+        <f t="shared" si="2"/>
         <v>41.487999999999992</v>
       </c>
       <c r="E9" s="31">
-        <f>E6*E7</f>
+        <f t="shared" si="2"/>
         <v>50.050999999999988</v>
       </c>
       <c r="F9" s="32">
-        <f>F6*F7</f>
+        <f t="shared" si="2"/>
         <v>50.139000000000003</v>
       </c>
       <c r="G9" s="31">
-        <f>G6*G7</f>
+        <f t="shared" si="2"/>
         <v>56.49</v>
       </c>
       <c r="H9" s="31">
-        <f>H6*H7</f>
+        <f t="shared" si="2"/>
         <v>64.984999999999999</v>
       </c>
       <c r="I9" s="31">
-        <f>I6*I7</f>
+        <f t="shared" si="2"/>
         <v>85.484000000000009</v>
       </c>
       <c r="J9" s="32">
-        <f>J6*J7</f>
+        <f t="shared" si="2"/>
         <v>89.388000000000005</v>
       </c>
       <c r="K9" s="31">
-        <f>K6*K7</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="L9" s="31">
-        <f>L6*L7</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="M9" s="31">
-        <f>M6*M7</f>
+        <f t="shared" si="2"/>
         <v>110.64400000000001</v>
       </c>
       <c r="N9" s="32">
-        <f>N6*N7</f>
+        <f t="shared" si="2"/>
         <v>130.32900000000001</v>
       </c>
       <c r="O9" s="31">
-        <f>O6*O7</f>
+        <f t="shared" si="2"/>
         <v>138.28100000000001</v>
       </c>
       <c r="P9" s="31">
-        <f>P6*P7</f>
+        <f t="shared" si="2"/>
         <v>150.77099999999999</v>
       </c>
       <c r="Q9" s="31">
-        <f>Q6*Q7</f>
+        <f t="shared" si="2"/>
         <v>152.41210999999998</v>
       </c>
     </row>
@@ -5333,19 +5298,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="34">
-        <f t="shared" ref="B11:D11" si="2">B9-B10</f>
+        <f t="shared" ref="B11:D11" si="3">B9-B10</f>
         <v>23.191000000000003</v>
       </c>
       <c r="C11" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.411999999999999</v>
       </c>
       <c r="D11" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.416999999999994</v>
       </c>
       <c r="E11" s="33">
-        <f t="shared" ref="E11" si="3">E9-E10</f>
+        <f t="shared" ref="E11" si="4">E9-E10</f>
         <v>37.649999999999991</v>
       </c>
       <c r="F11" s="34">
@@ -5357,39 +5322,39 @@
         <v>39.996000000000002</v>
       </c>
       <c r="H11" s="33">
-        <f t="shared" ref="H11:I11" si="4">H9-H10</f>
+        <f t="shared" ref="H11:I11" si="5">H9-H10</f>
         <v>47.227000000000004</v>
       </c>
       <c r="I11" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.917000000000009</v>
       </c>
       <c r="J11" s="34">
-        <f t="shared" ref="J11:K11" si="5">J9-J10</f>
+        <f t="shared" ref="J11:K11" si="6">J9-J10</f>
         <v>61.216000000000008</v>
       </c>
       <c r="K11" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="L11" s="33">
-        <f t="shared" ref="L11:P11" si="6">L9-L10</f>
+        <f t="shared" ref="L11:P11" si="7">L9-L10</f>
         <v>78</v>
       </c>
       <c r="M11" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78.644000000000005</v>
       </c>
       <c r="N11" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92.652000000000015</v>
       </c>
       <c r="O11" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.977000000000004</v>
       </c>
       <c r="P11" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104.66099999999999</v>
       </c>
       <c r="Q11" s="8">
@@ -5567,67 +5532,67 @@
         <v>6</v>
       </c>
       <c r="B15" s="34">
-        <f t="shared" ref="B15:D15" si="7">SUM(B12:B14)</f>
+        <f t="shared" ref="B15:D15" si="8">SUM(B12:B14)</f>
         <v>42.993000000000002</v>
       </c>
       <c r="C15" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>51.573999999999998</v>
       </c>
       <c r="D15" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54.467000000000006</v>
       </c>
       <c r="E15" s="33">
-        <f t="shared" ref="E15:F15" si="8">SUM(E12:E14)</f>
+        <f t="shared" ref="E15:F15" si="9">SUM(E12:E14)</f>
         <v>58.564000000000007</v>
       </c>
       <c r="F15" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63.069000000000003</v>
       </c>
       <c r="G15" s="33">
-        <f t="shared" ref="G15:H15" si="9">SUM(G12:G14)</f>
+        <f t="shared" ref="G15:H15" si="10">SUM(G12:G14)</f>
         <v>71.564000000000007</v>
       </c>
       <c r="H15" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76.281000000000006</v>
       </c>
       <c r="I15" s="33">
-        <f t="shared" ref="I15:K15" si="10">SUM(I12:I14)</f>
+        <f t="shared" ref="I15:K15" si="11">SUM(I12:I14)</f>
         <v>83.650999999999996</v>
       </c>
       <c r="J15" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>91.793000000000006</v>
       </c>
       <c r="K15" s="33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
       <c r="L15" s="33">
-        <f t="shared" ref="L15:M15" si="11">SUM(L12:L14)</f>
+        <f t="shared" ref="L15:M15" si="12">SUM(L12:L14)</f>
         <v>116</v>
       </c>
       <c r="M15" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>125.2227</v>
       </c>
       <c r="N15" s="34">
-        <f t="shared" ref="N15:O15" si="12">SUM(N12:N14)</f>
+        <f t="shared" ref="N15:O15" si="13">SUM(N12:N14)</f>
         <v>135</v>
       </c>
       <c r="O15" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>145</v>
       </c>
       <c r="P15" s="33">
-        <f t="shared" ref="P15:Q15" si="13">SUM(P12:P14)</f>
+        <f t="shared" ref="P15:Q15" si="14">SUM(P12:P14)</f>
         <v>162</v>
       </c>
       <c r="Q15" s="33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>175.65697499999999</v>
       </c>
     </row>
@@ -5636,67 +5601,67 @@
         <v>7</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" ref="B16:H16" si="14">B11-B15</f>
+        <f t="shared" ref="B16:H16" si="15">B11-B15</f>
         <v>-19.802</v>
       </c>
       <c r="C16" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-26.161999999999999</v>
       </c>
       <c r="D16" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-24.050000000000011</v>
       </c>
       <c r="E16" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-20.914000000000016</v>
       </c>
       <c r="F16" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-26.679000000000002</v>
       </c>
       <c r="G16" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-31.568000000000005</v>
       </c>
       <c r="H16" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-29.054000000000002</v>
       </c>
       <c r="I16" s="33">
-        <f t="shared" ref="I16:K16" si="15">I11-I15</f>
+        <f t="shared" ref="I16:K16" si="16">I11-I15</f>
         <v>-23.733999999999988</v>
       </c>
       <c r="J16" s="34">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-30.576999999999998</v>
       </c>
       <c r="K16" s="33">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-38</v>
       </c>
       <c r="L16" s="33">
-        <f t="shared" ref="L16:M16" si="16">L11-L15</f>
+        <f t="shared" ref="L16:M16" si="17">L11-L15</f>
         <v>-38</v>
       </c>
       <c r="M16" s="33">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-46.578699999999998</v>
       </c>
       <c r="N16" s="34">
-        <f t="shared" ref="N16:O16" si="17">N11-N15</f>
+        <f t="shared" ref="N16:O16" si="18">N11-N15</f>
         <v>-42.347999999999985</v>
       </c>
       <c r="O16" s="33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-49.022999999999996</v>
       </c>
       <c r="P16" s="33">
-        <f t="shared" ref="P16:Q16" si="18">P11-P15</f>
+        <f t="shared" ref="P16:Q16" si="19">P11-P15</f>
         <v>-57.339000000000013</v>
       </c>
       <c r="Q16" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>-69.856762461050195</v>
       </c>
     </row>
@@ -5764,15 +5729,15 @@
         <v>9</v>
       </c>
       <c r="B18" s="34">
-        <f t="shared" ref="B18:C18" si="19">B16+B17</f>
+        <f t="shared" ref="B18:C18" si="20">B16+B17</f>
         <v>-19.460999999999999</v>
       </c>
       <c r="C18" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-25.826999999999998</v>
       </c>
       <c r="D18" s="33">
-        <f t="shared" ref="D18:F18" si="20">D16+D17</f>
+        <f t="shared" ref="D18:F18" si="21">D16+D17</f>
         <v>-23.88000000000001</v>
       </c>
       <c r="E18" s="33">
@@ -5780,51 +5745,51 @@
         <v>-19.565000000000015</v>
       </c>
       <c r="F18" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-26.088000000000001</v>
       </c>
       <c r="G18" s="33">
-        <f t="shared" ref="G18" si="21">G16+G17</f>
+        <f t="shared" ref="G18" si="22">G16+G17</f>
         <v>-32.000000000000007</v>
       </c>
       <c r="H18" s="33">
-        <f t="shared" ref="H18:Q18" si="22">H16+H17</f>
+        <f t="shared" ref="H18:Q18" si="23">H16+H17</f>
         <v>-31.353000000000002</v>
       </c>
       <c r="I18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-26.157999999999987</v>
       </c>
       <c r="J18" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-33.378</v>
       </c>
       <c r="K18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-41</v>
       </c>
       <c r="L18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-41</v>
       </c>
       <c r="M18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-49.578699999999998</v>
       </c>
       <c r="N18" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-54.347999999999985</v>
       </c>
       <c r="O18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-63.022999999999996</v>
       </c>
       <c r="P18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-71.339000000000013</v>
       </c>
       <c r="Q18" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-83.856762461050195</v>
       </c>
     </row>
@@ -5887,67 +5852,67 @@
         <v>11</v>
       </c>
       <c r="B20" s="32">
-        <f>B18-B19</f>
+        <f t="shared" ref="B20:Q20" si="24">B18-B19</f>
         <v>-19.689999999999998</v>
       </c>
       <c r="C20" s="31">
-        <f>C18-C19</f>
+        <f t="shared" si="24"/>
         <v>-26.078999999999997</v>
       </c>
       <c r="D20" s="31">
-        <f>D18-D19</f>
+        <f t="shared" si="24"/>
         <v>-23.91360000000001</v>
       </c>
       <c r="E20" s="31">
-        <f>E18-E19</f>
+        <f t="shared" si="24"/>
         <v>-20.035000000000014</v>
       </c>
       <c r="F20" s="32">
-        <f>F18-F19</f>
+        <f t="shared" si="24"/>
         <v>-25.621000000000002</v>
       </c>
       <c r="G20" s="31">
-        <f>G18-G19</f>
+        <f t="shared" si="24"/>
         <v>-32.246000000000009</v>
       </c>
       <c r="H20" s="31">
-        <f>H18-H19</f>
+        <f t="shared" si="24"/>
         <v>-31.32</v>
       </c>
       <c r="I20" s="31">
-        <f>I18-I19</f>
+        <f t="shared" si="24"/>
         <v>-22.159999999999986</v>
       </c>
       <c r="J20" s="32">
-        <f>J18-J19</f>
+        <f t="shared" si="24"/>
         <v>-33.24</v>
       </c>
       <c r="K20" s="31">
-        <f>K18-K19</f>
+        <f t="shared" si="24"/>
         <v>-38</v>
       </c>
       <c r="L20" s="31">
-        <f>L18-L19</f>
+        <f t="shared" si="24"/>
         <v>-42</v>
       </c>
       <c r="M20" s="31">
-        <f>M18-M19</f>
+        <f t="shared" si="24"/>
         <v>-50.578699999999998</v>
       </c>
       <c r="N20" s="32">
-        <f>N18-N19</f>
+        <f t="shared" si="24"/>
         <v>-54.347999999999985</v>
       </c>
       <c r="O20" s="31">
-        <f>O18-O19</f>
+        <f t="shared" si="24"/>
         <v>-64.022999999999996</v>
       </c>
       <c r="P20" s="31">
-        <f>P18-P19</f>
+        <f t="shared" si="24"/>
         <v>-72.339000000000013</v>
       </c>
       <c r="Q20" s="31">
-        <f>Q18-Q19</f>
+        <f t="shared" si="24"/>
         <v>-84.856762461050195</v>
       </c>
     </row>
@@ -5956,67 +5921,67 @@
         <v>12</v>
       </c>
       <c r="B21" s="36">
-        <f t="shared" ref="B21:D21" si="23">IFERROR(B20/B22,0)</f>
+        <f t="shared" ref="B21:D21" si="25">IFERROR(B20/B22,0)</f>
         <v>-1.4956824607645418</v>
       </c>
       <c r="C21" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.9175121972201623</v>
       </c>
       <c r="D21" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.372637550467402</v>
       </c>
       <c r="E21" s="35">
-        <f t="shared" ref="E21" si="24">IFERROR(E20/E22,0)</f>
+        <f t="shared" ref="E21" si="26">IFERROR(E20/E22,0)</f>
         <v>-0.39841182526864438</v>
       </c>
       <c r="F21" s="36">
-        <f t="shared" ref="F21:M21" si="25">IFERROR(F20/F22,0)</f>
+        <f t="shared" ref="F21:M21" si="27">IFERROR(F20/F22,0)</f>
         <v>-0.50885746850867208</v>
       </c>
       <c r="G21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.62998607919491212</v>
       </c>
       <c r="H21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.5942789155874616</v>
       </c>
       <c r="I21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.4117003072202069</v>
       </c>
       <c r="J21" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.60755888797421997</v>
       </c>
       <c r="K21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.6785714285714286</v>
       </c>
       <c r="L21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.75</v>
       </c>
       <c r="M21" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.90319107142857136</v>
       </c>
       <c r="N21" s="36">
-        <f t="shared" ref="N21:O21" si="26">IFERROR(N20/N22,0)</f>
+        <f t="shared" ref="N21:O21" si="28">IFERROR(N20/N22,0)</f>
         <v>-0.94273111431067469</v>
       </c>
       <c r="O21" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-1.0963988803349882</v>
       </c>
       <c r="P21" s="35">
-        <f t="shared" ref="P21:Q21" si="27">IFERROR(P20/P22,0)</f>
+        <f t="shared" ref="P21:Q21" si="29">IFERROR(P20/P22,0)</f>
         <v>-1.2184812780222778</v>
       </c>
       <c r="Q21" s="35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.4293310160822414</v>
       </c>
     </row>
@@ -6086,67 +6051,67 @@
         <v>15</v>
       </c>
       <c r="B24" s="42">
-        <f>IFERROR(B11/B9,0)</f>
+        <f t="shared" ref="B24:Q24" si="30">IFERROR(B11/B9,0)</f>
         <v>0.71599259030564999</v>
       </c>
       <c r="C24" s="41">
-        <f>IFERROR(C11/C9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.71382022471910112</v>
       </c>
       <c r="D24" s="41">
-        <f>IFERROR(D11/D9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.73315175472425764</v>
       </c>
       <c r="E24" s="41">
-        <f>IFERROR(E11/E9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.75223272262292462</v>
       </c>
       <c r="F24" s="42">
-        <f>IFERROR(F11/F9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.72578232513612151</v>
       </c>
       <c r="G24" s="41">
-        <f>IFERROR(G11/G9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.70801911842804033</v>
       </c>
       <c r="H24" s="41">
-        <f>IFERROR(H11/H9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.72673693929368322</v>
       </c>
       <c r="I24" s="41">
-        <f>IFERROR(I11/I9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.70091479107201349</v>
       </c>
       <c r="J24" s="42">
-        <f>IFERROR(J11/J9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.68483465342104088</v>
       </c>
       <c r="K24" s="41">
-        <f>IFERROR(K11/K9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.69696969696969702</v>
       </c>
       <c r="L24" s="41">
-        <f>IFERROR(L11/L9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.70909090909090911</v>
       </c>
       <c r="M24" s="41">
-        <f>IFERROR(M11/M9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.71078413650988759</v>
       </c>
       <c r="N24" s="42">
-        <f>IFERROR(N11/N9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.71090854683148041</v>
       </c>
       <c r="O24" s="41">
-        <f>IFERROR(O11/O9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.69407221527180163</v>
       </c>
       <c r="P24" s="41">
-        <f>IFERROR(P11/P9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.69417195614541261</v>
       </c>
       <c r="Q24" s="41">
-        <f>IFERROR(Q11/Q9,0)</f>
+        <f t="shared" si="30"/>
         <v>0.69417195614541261</v>
       </c>
     </row>
@@ -6155,67 +6120,67 @@
         <v>16</v>
       </c>
       <c r="B25" s="44">
-        <f>IFERROR(B16/B9,0)</f>
+        <f t="shared" ref="B25:Q25" si="31">IFERROR(B16/B9,0)</f>
         <v>-0.61136153133683235</v>
       </c>
       <c r="C25" s="43">
-        <f>IFERROR(C16/C9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.73488764044943811</v>
       </c>
       <c r="D25" s="43">
-        <f>IFERROR(D16/D9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.57968569224836131</v>
       </c>
       <c r="E25" s="43">
-        <f>IFERROR(E16/E9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.41785378913508264</v>
       </c>
       <c r="F25" s="44">
-        <f>IFERROR(F16/F9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.53210075988751271</v>
       </c>
       <c r="G25" s="43">
-        <f>IFERROR(G16/G9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.55882457072048153</v>
       </c>
       <c r="H25" s="43">
-        <f>IFERROR(H16/H9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.44708778948988231</v>
       </c>
       <c r="I25" s="43">
-        <f>IFERROR(I16/I9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.27764259978475486</v>
       </c>
       <c r="J25" s="44">
-        <f>IFERROR(J16/J9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.34207052400769672</v>
       </c>
       <c r="K25" s="43">
-        <f>IFERROR(K16/K9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.38383838383838381</v>
       </c>
       <c r="L25" s="43">
-        <f>IFERROR(L16/L9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.34545454545454546</v>
       </c>
       <c r="M25" s="43">
-        <f>IFERROR(M16/M9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.42097809189834057</v>
       </c>
       <c r="N25" s="44">
-        <f>IFERROR(N16/N9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.32493151946228377</v>
       </c>
       <c r="O25" s="43">
-        <f>IFERROR(O16/O9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.35451725110463472</v>
       </c>
       <c r="P25" s="43">
-        <f>IFERROR(P16/P9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.38030523111208403</v>
       </c>
       <c r="Q25" s="43">
-        <f>IFERROR(Q16/Q9,0)</f>
+        <f t="shared" si="31"/>
         <v>-0.45834128574855504</v>
       </c>
     </row>
@@ -6224,67 +6189,67 @@
         <v>17</v>
       </c>
       <c r="B26" s="44">
-        <f>IFERROR(B19/B18,0)</f>
+        <f t="shared" ref="B26:Q26" si="32">IFERROR(B19/B18,0)</f>
         <v>-1.1767123991572891E-2</v>
       </c>
       <c r="C26" s="43">
-        <f>IFERROR(C19/C18,0)</f>
+        <f t="shared" si="32"/>
         <v>-9.757230804971543E-3</v>
       </c>
       <c r="D26" s="43">
-        <f>IFERROR(D19/D18,0)</f>
+        <f t="shared" si="32"/>
         <v>-1.4070351758793964E-3</v>
       </c>
       <c r="E26" s="43">
-        <f>IFERROR(E19/E18,0)</f>
+        <f t="shared" si="32"/>
         <v>-2.4022489138768189E-2</v>
       </c>
       <c r="F26" s="44">
-        <f>IFERROR(F19/F18,0)</f>
+        <f t="shared" si="32"/>
         <v>1.7900950628641523E-2</v>
       </c>
       <c r="G26" s="43">
-        <f>IFERROR(G19/G18,0)</f>
+        <f t="shared" si="32"/>
         <v>-7.6874999999999982E-3</v>
       </c>
       <c r="H26" s="43">
-        <f>IFERROR(H19/H18,0)</f>
+        <f t="shared" si="32"/>
         <v>1.0525308582910726E-3</v>
       </c>
       <c r="I26" s="43">
-        <f>IFERROR(I19/I18,0)</f>
+        <f t="shared" si="32"/>
         <v>0.15284043122562896</v>
       </c>
       <c r="J26" s="44">
-        <f>IFERROR(J19/J18,0)</f>
+        <f t="shared" si="32"/>
         <v>4.1344598238360602E-3</v>
       </c>
       <c r="K26" s="43">
-        <f>IFERROR(K19/K18,0)</f>
+        <f t="shared" si="32"/>
         <v>7.3170731707317069E-2</v>
       </c>
       <c r="L26" s="43">
-        <f>IFERROR(L19/L18,0)</f>
+        <f t="shared" si="32"/>
         <v>-2.4390243902439025E-2</v>
       </c>
       <c r="M26" s="43">
-        <f>IFERROR(M19/M18,0)</f>
+        <f t="shared" si="32"/>
         <v>-2.0169952015684157E-2</v>
       </c>
       <c r="N26" s="44">
-        <f>IFERROR(N19/N18,0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O26" s="43">
-        <f>IFERROR(O19/O18,0)</f>
+        <f t="shared" si="32"/>
         <v>-1.5867223077289244E-2</v>
       </c>
       <c r="P26" s="43">
-        <f>IFERROR(P19/P18,0)</f>
+        <f t="shared" si="32"/>
         <v>-1.4017578042865752E-2</v>
       </c>
       <c r="Q26" s="43">
-        <f>IFERROR(Q19/Q18,0)</f>
+        <f t="shared" si="32"/>
         <v>-1.1925096684533704E-2</v>
       </c>
     </row>
@@ -6307,51 +6272,51 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="38">
-        <f>IFERROR((F9/B9)-1,0)</f>
+        <f t="shared" ref="F28:Q28" si="33">IFERROR((F9/B9)-1,0)</f>
         <v>0.54797777091694977</v>
       </c>
       <c r="G28" s="37">
-        <f>IFERROR((G9/C9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.58679775280898872</v>
       </c>
       <c r="H28" s="37">
-        <f>IFERROR((H9/D9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.56635653682992704</v>
       </c>
       <c r="I28" s="37">
-        <f>IFERROR((I9/E9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.7079379033385953</v>
       </c>
       <c r="J28" s="38">
-        <f>IFERROR((J9/F9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.78280380542092987</v>
       </c>
       <c r="K28" s="37">
-        <f>IFERROR((K9/G9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.75252257036643644</v>
       </c>
       <c r="L28" s="37">
-        <f>IFERROR((L9/H9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.69269831499576817</v>
       </c>
       <c r="M28" s="37">
-        <f>IFERROR((M9/I9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.29432408403911836</v>
       </c>
       <c r="N28" s="38">
-        <f>IFERROR((N9/J9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.45801449859041488</v>
       </c>
       <c r="O28" s="37">
-        <f>IFERROR((O9/K9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.3967777777777779</v>
       </c>
       <c r="P28" s="37">
-        <f>IFERROR((P9/L9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.3706454545454545</v>
       </c>
       <c r="Q28" s="37">
-        <f>IFERROR((Q9/M9)-1,0)</f>
+        <f t="shared" si="33"/>
         <v>0.37749999999999972</v>
       </c>
     </row>
@@ -6364,51 +6329,51 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="40">
-        <f>F12/B12-1</f>
+        <f t="shared" ref="F29:Q32" si="34">F12/B12-1</f>
         <v>0.4257857306721724</v>
       </c>
       <c r="G29" s="39">
-        <f>G12/C12-1</f>
+        <f t="shared" si="34"/>
         <v>0.36072131563908805</v>
       </c>
       <c r="H29" s="39">
-        <f>H12/D12-1</f>
+        <f t="shared" si="34"/>
         <v>0.39733542319749193</v>
       </c>
       <c r="I29" s="39">
-        <f>I12/E12-1</f>
+        <f t="shared" si="34"/>
         <v>0.58446509411484393</v>
       </c>
       <c r="J29" s="40">
-        <f>J12/F12-1</f>
+        <f t="shared" si="34"/>
         <v>0.65556449450254761</v>
       </c>
       <c r="K29" s="39">
-        <f>K12/G12-1</f>
+        <f t="shared" si="34"/>
         <v>0.72655156322911818</v>
       </c>
       <c r="L29" s="39">
-        <f>L12/H12-1</f>
+        <f t="shared" si="34"/>
         <v>0.68255748738081889</v>
       </c>
       <c r="M29" s="39">
-        <f>M12/I12-1</f>
+        <f t="shared" si="34"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="N29" s="40">
-        <f>N12/J12-1</f>
+        <f t="shared" si="34"/>
         <v>0.49021640533886224</v>
       </c>
       <c r="O29" s="39">
-        <f>O12/K12-1</f>
+        <f t="shared" si="34"/>
         <v>0.32432432432432434</v>
       </c>
       <c r="P29" s="39">
-        <f>P12/L12-1</f>
+        <f t="shared" si="34"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="Q29" s="39">
-        <f>Q12/M12-1</f>
+        <f t="shared" si="34"/>
         <v>0.39999999999999991</v>
       </c>
     </row>
@@ -6421,51 +6386,51 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="40">
-        <f>F13/B13-1</f>
+        <f t="shared" si="34"/>
         <v>0.49907428313389035</v>
       </c>
       <c r="G30" s="39">
-        <f>G13/C13-1</f>
+        <f t="shared" si="34"/>
         <v>0.40859735237245287</v>
       </c>
       <c r="H30" s="39">
-        <f>H13/D13-1</f>
+        <f t="shared" si="34"/>
         <v>0.35885918003565065</v>
       </c>
       <c r="I30" s="39">
-        <f>I13/E13-1</f>
+        <f t="shared" si="34"/>
         <v>0.34718082070146505</v>
       </c>
       <c r="J30" s="40">
-        <f>J13/F13-1</f>
+        <f t="shared" si="34"/>
         <v>0.38928216405096827</v>
       </c>
       <c r="K30" s="39">
-        <f>K13/G13-1</f>
+        <f t="shared" si="34"/>
         <v>0.42555438225976761</v>
       </c>
       <c r="L30" s="39">
-        <f>L13/H13-1</f>
+        <f t="shared" si="34"/>
         <v>0.49543498793157736</v>
       </c>
       <c r="M30" s="39">
-        <f>M13/I13-1</f>
+        <f t="shared" si="34"/>
         <v>0.5</v>
       </c>
       <c r="N30" s="40">
-        <f>N13/J13-1</f>
+        <f t="shared" si="34"/>
         <v>0.49609713790112764</v>
       </c>
       <c r="O30" s="39">
-        <f>O13/K13-1</f>
+        <f t="shared" si="34"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="P30" s="39">
-        <f>P13/L13-1</f>
+        <f t="shared" si="34"/>
         <v>0.45614035087719307</v>
       </c>
       <c r="Q30" s="39">
-        <f>Q13/M13-1</f>
+        <f t="shared" si="34"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -6478,108 +6443,108 @@
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="40">
-        <f>F14/B14-1</f>
+        <f t="shared" si="34"/>
         <v>0.44473040792690788</v>
       </c>
       <c r="G31" s="39">
-        <f>G14/C14-1</f>
+        <f t="shared" si="34"/>
         <v>0.37176760326877867</v>
       </c>
       <c r="H31" s="39">
-        <f>H14/D14-1</f>
+        <f t="shared" si="34"/>
         <v>0.52467188930715225</v>
       </c>
       <c r="I31" s="39">
-        <f>I14/E14-1</f>
+        <f t="shared" si="34"/>
         <v>0.42247607889084149</v>
       </c>
       <c r="J31" s="40">
-        <f>J14/F14-1</f>
+        <f t="shared" si="34"/>
         <v>0.31869600071256787</v>
       </c>
       <c r="K31" s="39">
-        <f>K14/G14-1</f>
+        <f t="shared" si="34"/>
         <v>0.30569609923290364</v>
       </c>
       <c r="L31" s="39">
-        <f>L14/H14-1</f>
+        <f t="shared" si="34"/>
         <v>0.33457894034432134</v>
       </c>
       <c r="M31" s="39">
-        <f>M14/I14-1</f>
+        <f t="shared" si="34"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="N31" s="40">
-        <f>N14/J14-1</f>
+        <f t="shared" si="34"/>
         <v>0.35089496791624453</v>
       </c>
       <c r="O31" s="39">
-        <f>O14/K14-1</f>
+        <f t="shared" si="34"/>
         <v>0.3125</v>
       </c>
       <c r="P31" s="39">
-        <f>P14/L14-1</f>
+        <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
       <c r="Q31" s="39">
-        <f>Q14/M14-1</f>
+        <f t="shared" si="34"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="42">
-        <f>F15/B15-1</f>
+        <f t="shared" si="34"/>
         <v>0.46695973763170739</v>
       </c>
       <c r="G32" s="41">
-        <f>G15/C15-1</f>
+        <f t="shared" si="34"/>
         <v>0.38759840229573062</v>
       </c>
       <c r="H32" s="41">
-        <f>H15/D15-1</f>
+        <f t="shared" si="34"/>
         <v>0.40049938494868442</v>
       </c>
       <c r="I32" s="41">
-        <f>I15/E15-1</f>
+        <f t="shared" si="34"/>
         <v>0.42836896386858792</v>
       </c>
       <c r="J32" s="42">
-        <f>J15/F15-1</f>
+        <f t="shared" si="34"/>
         <v>0.45543769522269262</v>
       </c>
       <c r="K32" s="41">
-        <f>K15/G15-1</f>
+        <f t="shared" si="34"/>
         <v>0.4951651668436643</v>
       </c>
       <c r="L32" s="41">
-        <f>L15/H15-1</f>
+        <f t="shared" si="34"/>
         <v>0.52069322636043047</v>
       </c>
       <c r="M32" s="41">
-        <f>M15/I15-1</f>
+        <f t="shared" si="34"/>
         <v>0.49696596573860452</v>
       </c>
       <c r="N32" s="42">
-        <f>N15/J15-1</f>
+        <f t="shared" si="34"/>
         <v>0.47070038020328342</v>
       </c>
       <c r="O32" s="41">
-        <f>O15/K15-1</f>
+        <f t="shared" si="34"/>
         <v>0.35514018691588789</v>
       </c>
       <c r="P32" s="41">
-        <f>P15/L15-1</f>
+        <f t="shared" si="34"/>
         <v>0.39655172413793105</v>
       </c>
       <c r="Q32" s="41">
-        <f>Q15/M15-1</f>
+        <f t="shared" si="34"/>
         <v>0.40275664875457862</v>
       </c>
     </row>
@@ -6605,51 +6570,51 @@
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
       <c r="E34" s="31">
-        <f t="shared" ref="E34:H34" si="28">E35-E36</f>
+        <f t="shared" ref="E34:H34" si="35">E35-E36</f>
         <v>278.97399999999999</v>
       </c>
       <c r="F34" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>270.988</v>
       </c>
       <c r="G34" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>312.12400000000002</v>
       </c>
       <c r="H34" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>308.47900000000004</v>
       </c>
       <c r="I34" s="31">
-        <f t="shared" ref="I34:K34" si="29">I35-I36</f>
+        <f t="shared" ref="I34:K34" si="36">I35-I36</f>
         <v>249.11200000000002</v>
       </c>
       <c r="J34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>256.327</v>
       </c>
       <c r="K34" s="31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>213</v>
       </c>
       <c r="L34" s="31">
-        <f t="shared" ref="L34:P34" si="30">L35-L36</f>
+        <f t="shared" ref="L34:P34" si="37">L35-L36</f>
         <v>199</v>
       </c>
       <c r="M34" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>75</v>
       </c>
       <c r="N34" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>54</v>
       </c>
       <c r="O34" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>39</v>
       </c>
       <c r="P34" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
     </row>
@@ -6770,7 +6735,7 @@
     </row>
     <row r="38" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
@@ -6826,7 +6791,7 @@
     </row>
     <row r="39" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
@@ -6870,7 +6835,7 @@
     </row>
     <row r="40" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
@@ -6917,107 +6882,107 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="33">
-        <f t="shared" ref="E42:G42" si="31">E39-E35-E38</f>
+        <f t="shared" ref="E42:G42" si="38">E39-E35-E38</f>
         <v>132.89500000000004</v>
       </c>
       <c r="F42" s="34">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>126.13299999999998</v>
       </c>
       <c r="G42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>138.36799999999994</v>
       </c>
       <c r="H42" s="33">
-        <f t="shared" ref="H42:M42" si="32">H39-H35-H38</f>
+        <f t="shared" ref="H42:M42" si="39">H39-H35-H38</f>
         <v>145.83399999999992</v>
       </c>
       <c r="I42" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>209.73399999999998</v>
       </c>
       <c r="J42" s="34">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>201.73399999999998</v>
       </c>
       <c r="K42" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>239</v>
       </c>
       <c r="L42" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>242</v>
       </c>
       <c r="M42" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>252</v>
       </c>
       <c r="N42" s="34">
-        <f t="shared" ref="N42:O42" si="33">N39-N35-N38</f>
+        <f t="shared" ref="N42:O42" si="40">N39-N35-N38</f>
         <v>271</v>
       </c>
       <c r="O42" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>294</v>
       </c>
       <c r="P42" s="33">
-        <f t="shared" ref="P42" si="34">P39-P35-P38</f>
+        <f t="shared" ref="P42" si="41">P39-P35-P38</f>
         <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E43" s="33">
-        <f t="shared" ref="E43:H43" si="35">E39-E40</f>
+        <f t="shared" ref="E43:H43" si="42">E39-E40</f>
         <v>193.49300000000002</v>
       </c>
       <c r="F43" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>172.50699999999998</v>
       </c>
       <c r="G43" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>208.62399999999997</v>
       </c>
       <c r="H43" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>197.24499999999995</v>
       </c>
       <c r="I43" s="33">
-        <f t="shared" ref="I43:K43" si="36">I39-I40</f>
+        <f t="shared" ref="I43:K43" si="43">I39-I40</f>
         <v>264.56599999999997</v>
       </c>
       <c r="J43" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>247.86799999999999</v>
       </c>
       <c r="K43" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>240</v>
       </c>
       <c r="L43" s="33">
-        <f t="shared" ref="L43:M43" si="37">L39-L40</f>
+        <f t="shared" ref="L43:M43" si="44">L39-L40</f>
         <v>219</v>
       </c>
       <c r="M43" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="44"/>
         <v>83</v>
       </c>
       <c r="N43" s="34">
-        <f t="shared" ref="N43:O43" si="38">N39-N40</f>
+        <f t="shared" ref="N43:O43" si="45">N39-N40</f>
         <v>63</v>
       </c>
       <c r="O43" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="45"/>
         <v>48</v>
       </c>
       <c r="P43" s="33">
-        <f t="shared" ref="P43" si="39">P39-P40</f>
+        <f t="shared" ref="P43" si="46">P39-P40</f>
         <v>22</v>
       </c>
     </row>
@@ -7027,29 +6992,29 @@
     </row>
     <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="27"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="31">
-        <f t="shared" ref="E45:P45" si="40">SUM(B20:E20)</f>
+        <f t="shared" ref="E45:P45" si="47">SUM(B20:E20)</f>
         <v>-89.717600000000019</v>
       </c>
       <c r="F45" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-95.648600000000016</v>
       </c>
       <c r="G45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-101.81560000000005</v>
       </c>
       <c r="H45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-109.22200000000004</v>
       </c>
       <c r="I45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-111.34699999999999</v>
       </c>
       <c r="J45" s="32">
@@ -7057,239 +7022,239 @@
         <v>-118.96600000000001</v>
       </c>
       <c r="K45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-124.72</v>
       </c>
       <c r="L45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-135.39999999999998</v>
       </c>
       <c r="M45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-163.81870000000001</v>
       </c>
       <c r="N45" s="32">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-184.92669999999998</v>
       </c>
       <c r="O45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-210.94969999999998</v>
       </c>
       <c r="P45" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="47"/>
         <v>-241.28870000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" s="41">
-        <f t="shared" ref="E46:G46" si="41">E45/E43</f>
+        <f t="shared" ref="E46:G46" si="48">E45/E43</f>
         <v>-0.46367362126795286</v>
       </c>
       <c r="F46" s="42">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-0.55446213776832265</v>
       </c>
       <c r="G46" s="41">
-        <f t="shared" si="41"/>
+        <f t="shared" si="48"/>
         <v>-0.48803397499808299</v>
       </c>
       <c r="H46" s="41">
-        <f t="shared" ref="H46:M46" si="42">H45/H43</f>
+        <f t="shared" ref="H46:M46" si="49">H45/H43</f>
         <v>-0.55373773733174514</v>
       </c>
       <c r="I46" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-0.42086662685303478</v>
       </c>
       <c r="J46" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-0.47995707392644477</v>
       </c>
       <c r="K46" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-0.51966666666666661</v>
       </c>
       <c r="L46" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-0.61826484018264827</v>
       </c>
       <c r="M46" s="41">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>-1.9737192771084338</v>
       </c>
       <c r="N46" s="42">
-        <f t="shared" ref="N46:O46" si="43">N45/N43</f>
+        <f t="shared" ref="N46:O46" si="50">N45/N43</f>
         <v>-2.9353444444444441</v>
       </c>
       <c r="O46" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>-4.3947854166666662</v>
       </c>
       <c r="P46" s="41">
-        <f t="shared" ref="P46" si="44">P45/P43</f>
+        <f t="shared" ref="P46" si="51">P45/P43</f>
         <v>-10.967668181818182</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="41">
-        <f t="shared" ref="E47:G47" si="45">E45/E39</f>
+        <f t="shared" ref="E47:G47" si="52">E45/E39</f>
         <v>-0.21608493338086113</v>
       </c>
       <c r="F47" s="42">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-0.23898587551564493</v>
       </c>
       <c r="G47" s="41">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>-0.15335291371078286</v>
       </c>
       <c r="H47" s="41">
-        <f t="shared" ref="H47:M47" si="46">H45/H39</f>
+        <f t="shared" ref="H47:M47" si="53">H45/H39</f>
         <v>-0.16285505539236889</v>
       </c>
       <c r="I47" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>-0.15180728476460034</v>
       </c>
       <c r="J47" s="42">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>-0.16202581986023665</v>
       </c>
       <c r="K47" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>-0.16808625336927224</v>
       </c>
       <c r="L47" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>-0.18421768707482991</v>
       </c>
       <c r="M47" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>-0.12326463506395786</v>
       </c>
       <c r="N47" s="42">
-        <f t="shared" ref="N47:O47" si="47">N45/N39</f>
+        <f t="shared" ref="N47:O47" si="54">N45/N39</f>
         <v>-0.13831465968586387</v>
       </c>
       <c r="O47" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>-0.15568243542435423</v>
       </c>
       <c r="P47" s="41">
-        <f t="shared" ref="P47" si="48">P45/P39</f>
+        <f t="shared" ref="P47" si="55">P45/P39</f>
         <v>-0.1779415191740413</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="41">
-        <f t="shared" ref="E48:G48" si="49">E45/(E43-E38)</f>
+        <f t="shared" ref="E48:G48" si="56">E45/(E43-E38)</f>
         <v>-0.47178570301736383</v>
       </c>
       <c r="F48" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>-0.56462830797929187</v>
       </c>
       <c r="G48" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>-0.49487749041261042</v>
       </c>
       <c r="H48" s="41">
-        <f t="shared" ref="H48:M48" si="50">H45/(H43-H38)</f>
+        <f t="shared" ref="H48:M48" si="57">H45/(H43-H38)</f>
         <v>-0.56132182135882447</v>
       </c>
       <c r="I48" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>-0.53844405543681151</v>
       </c>
       <c r="J48" s="42">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>-0.62036742505227704</v>
       </c>
       <c r="K48" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>-0.72092485549132945</v>
       </c>
       <c r="L48" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>-0.89078947368421035</v>
       </c>
       <c r="M48" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="57"/>
         <v>20.477337500000001</v>
       </c>
       <c r="N48" s="42">
-        <f t="shared" ref="N48:O48" si="51">N45/(N43-N38)</f>
+        <f t="shared" ref="N48:O48" si="58">N45/(N43-N38)</f>
         <v>7.112565384615384</v>
       </c>
       <c r="O48" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>5.4089666666666663</v>
       </c>
       <c r="P48" s="41">
-        <f t="shared" ref="P48" si="52">P45/(P43-P38)</f>
+        <f t="shared" ref="P48" si="59">P45/(P43-P38)</f>
         <v>3.8917532258064518</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E49" s="41">
-        <f t="shared" ref="E49:G49" si="53">E45/E42</f>
+        <f t="shared" ref="E49:G49" si="60">E45/E42</f>
         <v>-0.67510139583882012</v>
       </c>
       <c r="F49" s="42">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>-0.75831542895197945</v>
       </c>
       <c r="G49" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>-0.73583198427382124</v>
       </c>
       <c r="H49" s="41">
-        <f t="shared" ref="H49:M49" si="54">H45/H42</f>
+        <f t="shared" ref="H49:M49" si="61">H45/H42</f>
         <v>-0.74894743338316239</v>
       </c>
       <c r="I49" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.53089627814279039</v>
       </c>
       <c r="J49" s="42">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.58971715228964883</v>
       </c>
       <c r="K49" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.5218410041841004</v>
       </c>
       <c r="L49" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.55950413223140483</v>
       </c>
       <c r="M49" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>-0.65007420634920643</v>
       </c>
       <c r="N49" s="42">
-        <f t="shared" ref="N49:O49" si="55">N45/N42</f>
+        <f t="shared" ref="N49:O49" si="62">N45/N42</f>
         <v>-0.68238634686346855</v>
       </c>
       <c r="O49" s="41">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>-0.71751598639455771</v>
       </c>
       <c r="P49" s="41">
-        <f t="shared" ref="P49" si="56">P45/P42</f>
+        <f t="shared" ref="P49" si="63">P45/P42</f>
         <v>-0.79111049180327875</v>
       </c>
     </row>
@@ -7300,107 +7265,107 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F51" s="42">
-        <f>F3/B3-1</f>
+        <f t="shared" ref="F51:P52" si="64">F3/B3-1</f>
         <v>0.57840819542947197</v>
       </c>
       <c r="G51" s="41">
-        <f>G3/C3-1</f>
+        <f t="shared" si="64"/>
         <v>0.59641572653776409</v>
       </c>
       <c r="H51" s="41">
-        <f>H3/D3-1</f>
+        <f t="shared" si="64"/>
         <v>0.58611587699617274</v>
       </c>
       <c r="I51" s="41">
-        <f>I3/E3-1</f>
+        <f t="shared" si="64"/>
         <v>0.73409609015441535</v>
       </c>
       <c r="J51" s="42">
-        <f>J3/F3-1</f>
+        <f t="shared" si="64"/>
         <v>0.82322168920532235</v>
       </c>
       <c r="K51" s="41">
-        <f>K3/G3-1</f>
+        <f t="shared" si="64"/>
         <v>0.81002445458571626</v>
       </c>
       <c r="L51" s="41">
-        <f>L3/H3-1</f>
+        <f t="shared" si="64"/>
         <v>0.73073722749209513</v>
       </c>
       <c r="M51" s="41">
-        <f>M3/I3-1</f>
+        <f t="shared" si="64"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="N51" s="42">
-        <f>N3/J3-1</f>
+        <f t="shared" si="64"/>
         <v>0.48648713003309751</v>
       </c>
       <c r="O51" s="41">
-        <f>O3/K3-1</f>
+        <f t="shared" si="64"/>
         <v>0.40934042553191508</v>
       </c>
       <c r="P51" s="41">
-        <f>P3/L3-1</f>
+        <f t="shared" si="64"/>
         <v>0.38527884615384611</v>
       </c>
       <c r="Q51" s="41"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F52" s="42">
-        <f>F4/B4-1</f>
+        <f t="shared" si="64"/>
         <v>0.27068373399937573</v>
       </c>
       <c r="G52" s="41">
-        <f>G4/C4-1</f>
+        <f t="shared" si="64"/>
         <v>0.48484848484848508</v>
       </c>
       <c r="H52" s="41">
-        <f>H4/D4-1</f>
+        <f t="shared" si="64"/>
         <v>0.35859006383569225</v>
       </c>
       <c r="I52" s="41">
-        <f>I4/E4-1</f>
+        <f t="shared" si="64"/>
         <v>0.36560652969321716</v>
       </c>
       <c r="J52" s="42">
-        <f>J4/F4-1</f>
+        <f t="shared" si="64"/>
         <v>0.32530712530712536</v>
       </c>
       <c r="K52" s="41">
-        <f>K4/G4-1</f>
+        <f t="shared" si="64"/>
         <v>9.7213078779899043E-2</v>
       </c>
       <c r="L52" s="41">
-        <f>L4/H4-1</f>
+        <f t="shared" si="64"/>
         <v>0.22574055158324824</v>
       </c>
       <c r="M52" s="41">
-        <f>M4/I4-1</f>
+        <f t="shared" si="64"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="N52" s="42">
-        <f>N4/J4-1</f>
+        <f t="shared" si="64"/>
         <v>1.4645902855024096E-2</v>
       </c>
       <c r="O52" s="41">
-        <f>O4/K4-1</f>
+        <f t="shared" si="64"/>
         <v>0.16060000000000008</v>
       </c>
       <c r="P52" s="41">
-        <f>P4/L4-1</f>
+        <f t="shared" si="64"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="Q52" s="41"/>
     </row>
     <row r="54" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="42"/>
       <c r="C54" s="41"/>
@@ -7418,7 +7383,7 @@
     </row>
     <row r="55" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" s="42"/>
       <c r="C55" s="41"/>
@@ -7436,7 +7401,7 @@
     </row>
     <row r="57" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B57" s="28">
         <v>3700</v>
@@ -7505,7 +7470,7 @@
     </row>
     <row r="59" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B59" s="42"/>
       <c r="C59" s="41"/>
@@ -7516,43 +7481,43 @@
         <v>0.78378378378378377</v>
       </c>
       <c r="G59" s="41">
-        <f t="shared" ref="F59:Q59" si="57">G57/C57-1</f>
+        <f t="shared" ref="G59:P59" si="65">G57/C57-1</f>
         <v>0.72093023255813948</v>
       </c>
       <c r="H59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.69387755102040827</v>
       </c>
       <c r="I59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>1.3508771929824563</v>
       </c>
       <c r="J59" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>1.1515151515151514</v>
       </c>
       <c r="K59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>1.0270270270270272</v>
       </c>
       <c r="L59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.9156626506024097</v>
       </c>
       <c r="M59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.18656716417910446</v>
       </c>
       <c r="N59" s="42">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.29577464788732399</v>
       </c>
       <c r="O59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.34666666666666668</v>
       </c>
       <c r="P59" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0.42138364779874204</v>
       </c>
       <c r="Q59" s="41">
@@ -7562,22 +7527,22 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F60" s="42">
         <f>F7/B7-1</f>
         <v>-0.13219427994049782</v>
       </c>
       <c r="G60" s="41">
-        <f t="shared" ref="G60:I60" si="58">G7/C7-1</f>
+        <f t="shared" ref="G60:I60" si="66">G7/C7-1</f>
         <v>-7.7941846340722876E-2</v>
       </c>
       <c r="H60" s="41">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-7.5283490305223966E-2</v>
       </c>
       <c r="I60" s="41">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-0.27348910081865729</v>
       </c>
       <c r="J60" s="42">
@@ -7585,15 +7550,15 @@
         <v>-0.17137287917055377</v>
       </c>
       <c r="K60" s="41">
-        <f t="shared" ref="K60" si="59">K7/G7-1</f>
+        <f t="shared" ref="K60" si="67">K7/G7-1</f>
         <v>-0.13542219861922455</v>
       </c>
       <c r="L60" s="41">
-        <f t="shared" ref="L60" si="60">L7/H7-1</f>
+        <f t="shared" ref="L60" si="68">L7/H7-1</f>
         <v>-0.1163901877695046</v>
       </c>
       <c r="M60" s="41">
-        <f t="shared" ref="M60" si="61">M7/I7-1</f>
+        <f t="shared" ref="M60" si="69">M7/I7-1</f>
         <v>9.0814007932338736E-2</v>
       </c>
       <c r="N60" s="42">
@@ -7601,15 +7566,15 @@
         <v>0.12520684130347237</v>
       </c>
       <c r="O60" s="41">
-        <f t="shared" ref="O60" si="62">O7/K7-1</f>
+        <f t="shared" ref="O60" si="70">O7/K7-1</f>
         <v>3.7211221122112281E-2</v>
       </c>
       <c r="P60" s="41">
-        <f t="shared" ref="P60:Q60" si="63">P7/L7-1</f>
+        <f t="shared" ref="P60:Q60" si="71">P7/L7-1</f>
         <v>-3.5696339501206764E-2</v>
       </c>
       <c r="Q60" s="41">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>-4.9999999999999933E-2</v>
       </c>
     </row>
@@ -7639,20 +7604,20 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
